--- a/carga.xlsx
+++ b/carga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\CARGAPORMICROS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucianogaliano/Desktop/gps_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1311047F-66A7-4AC4-BFD6-53AC49871C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C76B38-57C9-1447-8DAB-0F77F4952FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D0952F60-EA13-452A-8089-133E1849F9A5}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="20740" windowHeight="11040" xr2:uid="{D0952F60-EA13-452A-8089-133E1849F9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="CARGA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>Sebastian Olmedo</t>
+  </si>
+  <si>
+    <t>Dario Sarmiento</t>
+  </si>
+  <si>
+    <t>Mauro Peinipil</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Entrenamiento</t>
   </si>
 </sst>
 </file>
@@ -707,9 +719,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -747,7 +759,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -853,7 +865,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -995,7 +1007,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,18 +1015,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBA7B75-84C1-4AE6-98BA-083E5BBCB190}">
-  <dimension ref="A1:P189"/>
+  <dimension ref="A1:Q240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166:P189"/>
+    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,8 +1075,11 @@
       <c r="P1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1113,8 +1128,11 @@
       <c r="P2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1163,8 +1181,11 @@
       <c r="P3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1213,8 +1234,11 @@
       <c r="P4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1263,8 +1287,11 @@
       <c r="P5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1313,8 +1340,11 @@
       <c r="P6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1363,8 +1393,11 @@
       <c r="P7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1413,8 +1446,11 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1499,11 @@
       <c r="P9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1513,8 +1552,11 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1563,8 +1605,11 @@
       <c r="P11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1613,8 +1658,11 @@
       <c r="P12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1663,8 +1711,11 @@
       <c r="P13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1713,8 +1764,11 @@
       <c r="P14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1763,8 +1817,11 @@
       <c r="P15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1813,8 +1870,11 @@
       <c r="P16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1863,8 +1923,11 @@
       <c r="P17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1913,8 +1976,11 @@
       <c r="P18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1963,8 +2029,11 @@
       <c r="P19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2013,8 +2082,11 @@
       <c r="P20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2063,8 +2135,11 @@
       <c r="P21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2113,8 +2188,11 @@
       <c r="P22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2163,8 +2241,11 @@
       <c r="P23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2213,8 +2294,11 @@
       <c r="P24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2263,8 +2347,11 @@
       <c r="P25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2400,11 @@
       <c r="P26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2363,8 +2453,11 @@
       <c r="P27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2413,8 +2506,11 @@
       <c r="P28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2463,8 +2559,11 @@
       <c r="P29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2513,8 +2612,11 @@
       <c r="P30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2563,8 +2665,11 @@
       <c r="P31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2613,8 +2718,11 @@
       <c r="P32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2663,8 +2771,11 @@
       <c r="P33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2713,8 +2824,11 @@
       <c r="P34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2763,8 +2877,11 @@
       <c r="P35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2813,8 +2930,11 @@
       <c r="P36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="P37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2913,8 +3036,11 @@
       <c r="P38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2963,8 +3089,11 @@
       <c r="P39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -3013,8 +3142,11 @@
       <c r="P40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -3063,8 +3195,11 @@
       <c r="P41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3113,8 +3248,11 @@
       <c r="P42" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -3163,8 +3301,11 @@
       <c r="P43" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -3213,8 +3354,11 @@
       <c r="P44" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -3263,8 +3407,11 @@
       <c r="P45" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -3313,8 +3460,11 @@
       <c r="P46" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -3363,8 +3513,11 @@
       <c r="P47" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -3413,8 +3566,11 @@
       <c r="P48" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3463,8 +3619,11 @@
       <c r="P49" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -3513,8 +3672,11 @@
       <c r="P50" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3563,8 +3725,11 @@
       <c r="P51" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -3613,8 +3778,11 @@
       <c r="P52" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3663,8 +3831,11 @@
       <c r="P53" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -3713,8 +3884,11 @@
       <c r="P54" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -3763,8 +3937,11 @@
       <c r="P55" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -3813,8 +3990,11 @@
       <c r="P56" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -3863,8 +4043,11 @@
       <c r="P57" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -3913,8 +4096,11 @@
       <c r="P58" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -3963,8 +4149,11 @@
       <c r="P59" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -4013,8 +4202,11 @@
       <c r="P60" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -4063,8 +4255,11 @@
       <c r="P61" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -4113,8 +4308,11 @@
       <c r="P62" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -4163,8 +4361,11 @@
       <c r="P63" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -4213,8 +4414,11 @@
       <c r="P64" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -4263,8 +4467,11 @@
       <c r="P65" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -4313,8 +4520,11 @@
       <c r="P66" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -4363,8 +4573,11 @@
       <c r="P67" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -4413,8 +4626,11 @@
       <c r="P68" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -4463,8 +4679,11 @@
       <c r="P69" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -4513,8 +4732,11 @@
       <c r="P70" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -4563,8 +4785,11 @@
       <c r="P71" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -4613,8 +4838,11 @@
       <c r="P72" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -4663,8 +4891,11 @@
       <c r="P73" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -4713,8 +4944,11 @@
       <c r="P74" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -4763,8 +4997,11 @@
       <c r="P75" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -4813,8 +5050,11 @@
       <c r="P76" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -4863,8 +5103,11 @@
       <c r="P77" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -4913,8 +5156,11 @@
       <c r="P78" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -4963,8 +5209,11 @@
       <c r="P79" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -5013,8 +5262,11 @@
       <c r="P80" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -5063,8 +5315,11 @@
       <c r="P81" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -5113,8 +5368,11 @@
       <c r="P82" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -5163,8 +5421,11 @@
       <c r="P83" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>25</v>
       </c>
@@ -5213,8 +5474,11 @@
       <c r="P84" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -5263,8 +5527,11 @@
       <c r="P85" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -5313,8 +5580,11 @@
       <c r="P86" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -5363,8 +5633,11 @@
       <c r="P87" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -5413,8 +5686,11 @@
       <c r="P88" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -5463,8 +5739,11 @@
       <c r="P89" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -5513,8 +5792,11 @@
       <c r="P90" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -5563,8 +5845,11 @@
       <c r="P91" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -5613,8 +5898,11 @@
       <c r="P92" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -5663,8 +5951,11 @@
       <c r="P93" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -5713,8 +6004,11 @@
       <c r="P94" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -5763,8 +6057,11 @@
       <c r="P95" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -5813,8 +6110,11 @@
       <c r="P96" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -5863,8 +6163,11 @@
       <c r="P97" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -5913,8 +6216,11 @@
       <c r="P98" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -5963,8 +6269,11 @@
       <c r="P99" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -6013,8 +6322,11 @@
       <c r="P100" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -6063,8 +6375,11 @@
       <c r="P101" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -6113,8 +6428,11 @@
       <c r="P102" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -6163,8 +6481,11 @@
       <c r="P103" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -6213,8 +6534,11 @@
       <c r="P104" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -6263,8 +6587,11 @@
       <c r="P105" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -6313,8 +6640,11 @@
       <c r="P106" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -6363,8 +6693,11 @@
       <c r="P107" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -6413,8 +6746,11 @@
       <c r="P108" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -6463,8 +6799,11 @@
       <c r="P109" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>28</v>
       </c>
@@ -6513,8 +6852,11 @@
       <c r="P110" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -6563,8 +6905,11 @@
       <c r="P111" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -6613,8 +6958,11 @@
       <c r="P112" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -6663,8 +7011,11 @@
       <c r="P113" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -6713,8 +7064,11 @@
       <c r="P114" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -6763,8 +7117,11 @@
       <c r="P115" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -6813,8 +7170,11 @@
       <c r="P116" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -6863,8 +7223,11 @@
       <c r="P117" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -6913,8 +7276,11 @@
       <c r="P118" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -6963,8 +7329,11 @@
       <c r="P119" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -7013,8 +7382,11 @@
       <c r="P120" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -7063,8 +7435,11 @@
       <c r="P121" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -7113,8 +7488,11 @@
       <c r="P122" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -7163,8 +7541,11 @@
       <c r="P123" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -7213,8 +7594,11 @@
       <c r="P124" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -7263,8 +7647,11 @@
       <c r="P125" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q125" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -7313,8 +7700,11 @@
       <c r="P126" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -7363,8 +7753,11 @@
       <c r="P127" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -7413,8 +7806,11 @@
       <c r="P128" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -7463,8 +7859,11 @@
       <c r="P129" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -7513,8 +7912,11 @@
       <c r="P130" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -7563,8 +7965,11 @@
       <c r="P131" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -7613,8 +8018,11 @@
       <c r="P132" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q132" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -7663,8 +8071,11 @@
       <c r="P133" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q133" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -7713,8 +8124,11 @@
       <c r="P134" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q134" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -7763,8 +8177,11 @@
       <c r="P135" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -7813,8 +8230,11 @@
       <c r="P136" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -7863,8 +8283,11 @@
       <c r="P137" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>44</v>
       </c>
@@ -7913,8 +8336,11 @@
       <c r="P138" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>25</v>
       </c>
@@ -7963,8 +8389,11 @@
       <c r="P139" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -8013,8 +8442,11 @@
       <c r="P140" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -8063,8 +8495,11 @@
       <c r="P141" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q141" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -8113,8 +8548,11 @@
       <c r="P142" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -8163,8 +8601,11 @@
       <c r="P143" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q143" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>43</v>
       </c>
@@ -8213,8 +8654,11 @@
       <c r="P144" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q144" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -8263,8 +8707,11 @@
       <c r="P145" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q145" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -8313,8 +8760,11 @@
       <c r="P146" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q146" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>38</v>
       </c>
@@ -8363,8 +8813,11 @@
       <c r="P147" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -8413,8 +8866,11 @@
       <c r="P148" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q148" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -8463,8 +8919,11 @@
       <c r="P149" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -8513,8 +8972,11 @@
       <c r="P150" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -8563,8 +9025,11 @@
       <c r="P151" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -8613,8 +9078,11 @@
       <c r="P152" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -8663,8 +9131,11 @@
       <c r="P153" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>44</v>
       </c>
@@ -8713,8 +9184,11 @@
       <c r="P154" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q154" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -8763,8 +9237,11 @@
       <c r="P155" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q155" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -8813,8 +9290,11 @@
       <c r="P156" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q156" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -8863,8 +9343,11 @@
       <c r="P157" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q157" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -8913,8 +9396,11 @@
       <c r="P158" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -8963,8 +9449,11 @@
       <c r="P159" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q159" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -9013,8 +9502,11 @@
       <c r="P160" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q160" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>32</v>
       </c>
@@ -9063,8 +9555,11 @@
       <c r="P161" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q161" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>25</v>
       </c>
@@ -9113,8 +9608,11 @@
       <c r="P162" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q162" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -9163,8 +9661,11 @@
       <c r="P163" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q163" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -9213,8 +9714,11 @@
       <c r="P164" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q164" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -9263,8 +9767,11 @@
       <c r="P165" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>45</v>
       </c>
@@ -9313,8 +9820,11 @@
       <c r="P166" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q166" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -9363,8 +9873,11 @@
       <c r="P167" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q167" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>35</v>
       </c>
@@ -9413,8 +9926,11 @@
       <c r="P168" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q168" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -9463,8 +9979,11 @@
       <c r="P169" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>25</v>
       </c>
@@ -9513,8 +10032,11 @@
       <c r="P170" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q170" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -9563,8 +10085,11 @@
       <c r="P171" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q171" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>43</v>
       </c>
@@ -9613,8 +10138,11 @@
       <c r="P172" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q172" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>38</v>
       </c>
@@ -9663,8 +10191,11 @@
       <c r="P173" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q173" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -9713,8 +10244,11 @@
       <c r="P174" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q174" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>34</v>
       </c>
@@ -9763,8 +10297,11 @@
       <c r="P175" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q175" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -9813,8 +10350,11 @@
       <c r="P176" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q176" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -9863,8 +10403,11 @@
       <c r="P177" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q177" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -9913,8 +10456,11 @@
       <c r="P178" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q178" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -9963,8 +10509,11 @@
       <c r="P179" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q179" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -10013,8 +10562,11 @@
       <c r="P180" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q180" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>22</v>
       </c>
@@ -10063,8 +10615,11 @@
       <c r="P181" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q181" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -10113,8 +10668,11 @@
       <c r="P182" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q182" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -10163,8 +10721,11 @@
       <c r="P183" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q183" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -10213,8 +10774,11 @@
       <c r="P184" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q184" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -10263,8 +10827,11 @@
       <c r="P185" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q185" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -10313,8 +10880,11 @@
       <c r="P186" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q186" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>46</v>
       </c>
@@ -10363,8 +10933,11 @@
       <c r="P187" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q187" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>32</v>
       </c>
@@ -10413,8 +10986,11 @@
       <c r="P188" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q188" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>28</v>
       </c>
@@ -10462,6 +11038,2712 @@
       </c>
       <c r="P189" s="1">
         <v>3</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>45</v>
+      </c>
+      <c r="B190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="1">
+        <v>92</v>
+      </c>
+      <c r="D190">
+        <v>9292</v>
+      </c>
+      <c r="E190">
+        <v>77</v>
+      </c>
+      <c r="F190">
+        <v>24</v>
+      </c>
+      <c r="G190">
+        <v>335</v>
+      </c>
+      <c r="H190">
+        <v>14</v>
+      </c>
+      <c r="I190">
+        <v>52</v>
+      </c>
+      <c r="J190">
+        <v>87</v>
+      </c>
+      <c r="K190">
+        <v>1461</v>
+      </c>
+      <c r="L190">
+        <v>376</v>
+      </c>
+      <c r="M190">
+        <v>24</v>
+      </c>
+      <c r="N190">
+        <v>2029</v>
+      </c>
+      <c r="O190" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P190" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" s="1">
+        <v>92</v>
+      </c>
+      <c r="D191">
+        <v>10448</v>
+      </c>
+      <c r="E191">
+        <v>77</v>
+      </c>
+      <c r="F191">
+        <v>28</v>
+      </c>
+      <c r="G191">
+        <v>516</v>
+      </c>
+      <c r="H191">
+        <v>27</v>
+      </c>
+      <c r="I191">
+        <v>70</v>
+      </c>
+      <c r="J191">
+        <v>154</v>
+      </c>
+      <c r="K191">
+        <v>2026</v>
+      </c>
+      <c r="L191">
+        <v>916</v>
+      </c>
+      <c r="M191">
+        <v>75</v>
+      </c>
+      <c r="N191">
+        <v>3276</v>
+      </c>
+      <c r="O191" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P191" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>35</v>
+      </c>
+      <c r="B192" t="s">
+        <v>26</v>
+      </c>
+      <c r="C192" s="1">
+        <v>92</v>
+      </c>
+      <c r="D192">
+        <v>10522</v>
+      </c>
+      <c r="E192">
+        <v>77</v>
+      </c>
+      <c r="F192">
+        <v>28</v>
+      </c>
+      <c r="G192">
+        <v>631</v>
+      </c>
+      <c r="H192">
+        <v>27</v>
+      </c>
+      <c r="I192">
+        <v>91</v>
+      </c>
+      <c r="J192">
+        <v>178</v>
+      </c>
+      <c r="K192">
+        <v>1515</v>
+      </c>
+      <c r="L192">
+        <v>1484</v>
+      </c>
+      <c r="M192">
+        <v>83</v>
+      </c>
+      <c r="N192">
+        <v>3218</v>
+      </c>
+      <c r="O192" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P192" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>44</v>
+      </c>
+      <c r="B193" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" s="1">
+        <v>92</v>
+      </c>
+      <c r="D193">
+        <v>9922</v>
+      </c>
+      <c r="E193">
+        <v>77</v>
+      </c>
+      <c r="F193">
+        <v>25</v>
+      </c>
+      <c r="G193">
+        <v>526</v>
+      </c>
+      <c r="H193">
+        <v>11</v>
+      </c>
+      <c r="I193">
+        <v>63</v>
+      </c>
+      <c r="J193">
+        <v>131</v>
+      </c>
+      <c r="K193">
+        <v>2134</v>
+      </c>
+      <c r="L193">
+        <v>875</v>
+      </c>
+      <c r="M193">
+        <v>22</v>
+      </c>
+      <c r="N193">
+        <v>3200</v>
+      </c>
+      <c r="O193" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P193" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>25</v>
+      </c>
+      <c r="B194" t="s">
+        <v>26</v>
+      </c>
+      <c r="C194" s="1">
+        <v>92</v>
+      </c>
+      <c r="D194">
+        <v>10543</v>
+      </c>
+      <c r="E194">
+        <v>77</v>
+      </c>
+      <c r="F194">
+        <v>27</v>
+      </c>
+      <c r="G194">
+        <v>578</v>
+      </c>
+      <c r="H194">
+        <v>17</v>
+      </c>
+      <c r="I194">
+        <v>73</v>
+      </c>
+      <c r="J194">
+        <v>160</v>
+      </c>
+      <c r="K194">
+        <v>2419</v>
+      </c>
+      <c r="L194">
+        <v>866</v>
+      </c>
+      <c r="M194">
+        <v>76</v>
+      </c>
+      <c r="N194">
+        <v>3570</v>
+      </c>
+      <c r="O194" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P194" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>30</v>
+      </c>
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="1">
+        <v>92</v>
+      </c>
+      <c r="D195">
+        <v>9559</v>
+      </c>
+      <c r="E195">
+        <v>77</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195">
+        <v>475</v>
+      </c>
+      <c r="H195">
+        <v>3</v>
+      </c>
+      <c r="I195">
+        <v>62</v>
+      </c>
+      <c r="J195">
+        <v>86</v>
+      </c>
+      <c r="K195">
+        <v>1824</v>
+      </c>
+      <c r="L195">
+        <v>937</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>3110</v>
+      </c>
+      <c r="O195" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P195" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>43</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" s="1">
+        <v>92</v>
+      </c>
+      <c r="D196">
+        <v>9810</v>
+      </c>
+      <c r="E196">
+        <v>77</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196">
+        <v>393</v>
+      </c>
+      <c r="H196">
+        <v>4</v>
+      </c>
+      <c r="I196">
+        <v>64</v>
+      </c>
+      <c r="J196">
+        <v>101</v>
+      </c>
+      <c r="K196">
+        <v>1789</v>
+      </c>
+      <c r="L196">
+        <v>898</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>3029</v>
+      </c>
+      <c r="O196" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P196" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>38</v>
+      </c>
+      <c r="B197" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197" s="1">
+        <v>92</v>
+      </c>
+      <c r="D197">
+        <v>10004</v>
+      </c>
+      <c r="E197">
+        <v>77</v>
+      </c>
+      <c r="F197">
+        <v>24</v>
+      </c>
+      <c r="G197">
+        <v>568</v>
+      </c>
+      <c r="H197">
+        <v>24</v>
+      </c>
+      <c r="I197">
+        <v>66</v>
+      </c>
+      <c r="J197">
+        <v>149</v>
+      </c>
+      <c r="K197">
+        <v>1909</v>
+      </c>
+      <c r="L197">
+        <v>1003</v>
+      </c>
+      <c r="M197">
+        <v>57</v>
+      </c>
+      <c r="N197">
+        <v>3280</v>
+      </c>
+      <c r="O197" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P197" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" s="1">
+        <v>92</v>
+      </c>
+      <c r="D198">
+        <v>9639</v>
+      </c>
+      <c r="E198">
+        <v>77</v>
+      </c>
+      <c r="F198">
+        <v>26</v>
+      </c>
+      <c r="G198">
+        <v>422</v>
+      </c>
+      <c r="H198">
+        <v>15</v>
+      </c>
+      <c r="I198">
+        <v>76</v>
+      </c>
+      <c r="J198">
+        <v>118</v>
+      </c>
+      <c r="K198">
+        <v>1874</v>
+      </c>
+      <c r="L198">
+        <v>895</v>
+      </c>
+      <c r="M198">
+        <v>43</v>
+      </c>
+      <c r="N198">
+        <v>2962</v>
+      </c>
+      <c r="O198" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P198" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>34</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" s="1">
+        <v>92</v>
+      </c>
+      <c r="D199">
+        <v>8984</v>
+      </c>
+      <c r="E199">
+        <v>77</v>
+      </c>
+      <c r="F199">
+        <v>24</v>
+      </c>
+      <c r="G199">
+        <v>402</v>
+      </c>
+      <c r="H199">
+        <v>15</v>
+      </c>
+      <c r="I199">
+        <v>69</v>
+      </c>
+      <c r="J199">
+        <v>92</v>
+      </c>
+      <c r="K199">
+        <v>1975</v>
+      </c>
+      <c r="L199">
+        <v>482</v>
+      </c>
+      <c r="M199">
+        <v>4</v>
+      </c>
+      <c r="N199">
+        <v>2505</v>
+      </c>
+      <c r="O199" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P199" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>16</v>
+      </c>
+      <c r="B200" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" s="1">
+        <v>92</v>
+      </c>
+      <c r="D200">
+        <v>9493</v>
+      </c>
+      <c r="E200">
+        <v>77</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200">
+        <v>537</v>
+      </c>
+      <c r="H200">
+        <v>11</v>
+      </c>
+      <c r="I200">
+        <v>66</v>
+      </c>
+      <c r="J200">
+        <v>110</v>
+      </c>
+      <c r="K200">
+        <v>1992</v>
+      </c>
+      <c r="L200">
+        <v>755</v>
+      </c>
+      <c r="M200">
+        <v>20</v>
+      </c>
+      <c r="N200">
+        <v>2860</v>
+      </c>
+      <c r="O200" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P200" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201" s="1">
+        <v>92</v>
+      </c>
+      <c r="D201">
+        <v>8583</v>
+      </c>
+      <c r="E201">
+        <v>77</v>
+      </c>
+      <c r="F201">
+        <v>29</v>
+      </c>
+      <c r="G201">
+        <v>403</v>
+      </c>
+      <c r="H201">
+        <v>17</v>
+      </c>
+      <c r="I201">
+        <v>64</v>
+      </c>
+      <c r="J201">
+        <v>92</v>
+      </c>
+      <c r="K201">
+        <v>1873</v>
+      </c>
+      <c r="L201">
+        <v>629</v>
+      </c>
+      <c r="M201">
+        <v>24</v>
+      </c>
+      <c r="N201">
+        <v>2611</v>
+      </c>
+      <c r="O201" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P201" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>36</v>
+      </c>
+      <c r="B202" t="s">
+        <v>26</v>
+      </c>
+      <c r="C202" s="1">
+        <v>92</v>
+      </c>
+      <c r="D202">
+        <v>9657</v>
+      </c>
+      <c r="E202">
+        <v>77</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202">
+        <v>535</v>
+      </c>
+      <c r="H202">
+        <v>18</v>
+      </c>
+      <c r="I202">
+        <v>77</v>
+      </c>
+      <c r="J202">
+        <v>143</v>
+      </c>
+      <c r="K202">
+        <v>1946</v>
+      </c>
+      <c r="L202">
+        <v>1069</v>
+      </c>
+      <c r="M202">
+        <v>9</v>
+      </c>
+      <c r="N202">
+        <v>3219</v>
+      </c>
+      <c r="O202" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P202" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>42</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="1">
+        <v>92</v>
+      </c>
+      <c r="D203">
+        <v>9493</v>
+      </c>
+      <c r="E203">
+        <v>77</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
+      </c>
+      <c r="G203">
+        <v>284</v>
+      </c>
+      <c r="H203">
+        <v>7</v>
+      </c>
+      <c r="I203">
+        <v>30</v>
+      </c>
+      <c r="J203">
+        <v>69</v>
+      </c>
+      <c r="K203">
+        <v>1697</v>
+      </c>
+      <c r="L203">
+        <v>336</v>
+      </c>
+      <c r="M203">
+        <v>7</v>
+      </c>
+      <c r="N203">
+        <v>2152</v>
+      </c>
+      <c r="O203" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P203" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>31</v>
+      </c>
+      <c r="B204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="1">
+        <v>92</v>
+      </c>
+      <c r="D204">
+        <v>8462</v>
+      </c>
+      <c r="E204">
+        <v>77</v>
+      </c>
+      <c r="F204">
+        <v>27</v>
+      </c>
+      <c r="G204">
+        <v>458</v>
+      </c>
+      <c r="H204">
+        <v>31</v>
+      </c>
+      <c r="I204">
+        <v>61</v>
+      </c>
+      <c r="J204">
+        <v>99</v>
+      </c>
+      <c r="K204">
+        <v>1945</v>
+      </c>
+      <c r="L204">
+        <v>577</v>
+      </c>
+      <c r="M204">
+        <v>42</v>
+      </c>
+      <c r="N204">
+        <v>2452</v>
+      </c>
+      <c r="O204" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P204" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>47</v>
+      </c>
+      <c r="B205" t="s">
+        <v>17</v>
+      </c>
+      <c r="C205" s="1">
+        <v>92</v>
+      </c>
+      <c r="D205">
+        <v>1815</v>
+      </c>
+      <c r="E205">
+        <v>77</v>
+      </c>
+      <c r="F205">
+        <v>20</v>
+      </c>
+      <c r="G205">
+        <v>132</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>28</v>
+      </c>
+      <c r="J205">
+        <v>28</v>
+      </c>
+      <c r="K205">
+        <v>83</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>345</v>
+      </c>
+      <c r="O205" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P205" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>22</v>
+      </c>
+      <c r="B206" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206" s="1">
+        <v>92</v>
+      </c>
+      <c r="D206">
+        <v>9410</v>
+      </c>
+      <c r="E206">
+        <v>77</v>
+      </c>
+      <c r="F206">
+        <v>25</v>
+      </c>
+      <c r="G206">
+        <v>459</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>46</v>
+      </c>
+      <c r="J206">
+        <v>85</v>
+      </c>
+      <c r="K206">
+        <v>2028</v>
+      </c>
+      <c r="L206">
+        <v>570</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>2686</v>
+      </c>
+      <c r="O206" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P206" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+      <c r="B207" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207" s="1">
+        <v>92</v>
+      </c>
+      <c r="D207">
+        <v>10316</v>
+      </c>
+      <c r="E207">
+        <v>77</v>
+      </c>
+      <c r="F207">
+        <v>25</v>
+      </c>
+      <c r="G207">
+        <v>579</v>
+      </c>
+      <c r="H207">
+        <v>11</v>
+      </c>
+      <c r="I207">
+        <v>87</v>
+      </c>
+      <c r="J207">
+        <v>162</v>
+      </c>
+      <c r="K207">
+        <v>1870</v>
+      </c>
+      <c r="L207">
+        <v>984</v>
+      </c>
+      <c r="M207">
+        <v>16</v>
+      </c>
+      <c r="N207">
+        <v>3324</v>
+      </c>
+      <c r="O207" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P207" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>37</v>
+      </c>
+      <c r="B208" t="s">
+        <v>17</v>
+      </c>
+      <c r="C208" s="1">
+        <v>92</v>
+      </c>
+      <c r="D208">
+        <v>9081</v>
+      </c>
+      <c r="E208">
+        <v>77</v>
+      </c>
+      <c r="F208">
+        <v>25</v>
+      </c>
+      <c r="G208">
+        <v>505</v>
+      </c>
+      <c r="H208">
+        <v>22</v>
+      </c>
+      <c r="I208">
+        <v>59</v>
+      </c>
+      <c r="J208">
+        <v>121</v>
+      </c>
+      <c r="K208">
+        <v>1970</v>
+      </c>
+      <c r="L208">
+        <v>693</v>
+      </c>
+      <c r="M208">
+        <v>60</v>
+      </c>
+      <c r="N208">
+        <v>2787</v>
+      </c>
+      <c r="O208" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P208" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>39</v>
+      </c>
+      <c r="B209" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" s="1">
+        <v>92</v>
+      </c>
+      <c r="D209">
+        <v>5703</v>
+      </c>
+      <c r="E209">
+        <v>77</v>
+      </c>
+      <c r="F209">
+        <v>23</v>
+      </c>
+      <c r="G209">
+        <v>319</v>
+      </c>
+      <c r="H209">
+        <v>21</v>
+      </c>
+      <c r="I209">
+        <v>95</v>
+      </c>
+      <c r="J209">
+        <v>125</v>
+      </c>
+      <c r="K209">
+        <v>1192</v>
+      </c>
+      <c r="L209">
+        <v>687</v>
+      </c>
+      <c r="M209">
+        <v>23</v>
+      </c>
+      <c r="N209">
+        <v>2194</v>
+      </c>
+      <c r="O209" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P209" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="1">
+        <v>92</v>
+      </c>
+      <c r="D210">
+        <v>9605</v>
+      </c>
+      <c r="E210">
+        <v>77</v>
+      </c>
+      <c r="F210">
+        <v>23</v>
+      </c>
+      <c r="G210">
+        <v>429</v>
+      </c>
+      <c r="H210">
+        <v>15</v>
+      </c>
+      <c r="I210">
+        <v>50</v>
+      </c>
+      <c r="J210">
+        <v>101</v>
+      </c>
+      <c r="K210">
+        <v>1767</v>
+      </c>
+      <c r="L210">
+        <v>774</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>2837</v>
+      </c>
+      <c r="O210" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P210" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="1">
+        <v>92</v>
+      </c>
+      <c r="D211">
+        <v>9640</v>
+      </c>
+      <c r="E211">
+        <v>77</v>
+      </c>
+      <c r="F211">
+        <v>25</v>
+      </c>
+      <c r="G211">
+        <v>484</v>
+      </c>
+      <c r="H211">
+        <v>5</v>
+      </c>
+      <c r="I211">
+        <v>69</v>
+      </c>
+      <c r="J211">
+        <v>105</v>
+      </c>
+      <c r="K211">
+        <v>1820</v>
+      </c>
+      <c r="L211">
+        <v>776</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>2829</v>
+      </c>
+      <c r="O211" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P211" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>46</v>
+      </c>
+      <c r="B212" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" s="1">
+        <v>92</v>
+      </c>
+      <c r="D212">
+        <v>8523</v>
+      </c>
+      <c r="E212">
+        <v>77</v>
+      </c>
+      <c r="F212">
+        <v>23</v>
+      </c>
+      <c r="G212">
+        <v>381</v>
+      </c>
+      <c r="H212">
+        <v>17</v>
+      </c>
+      <c r="I212">
+        <v>54</v>
+      </c>
+      <c r="J212">
+        <v>98</v>
+      </c>
+      <c r="K212">
+        <v>1699</v>
+      </c>
+      <c r="L212">
+        <v>700</v>
+      </c>
+      <c r="M212">
+        <v>17</v>
+      </c>
+      <c r="N212">
+        <v>2497</v>
+      </c>
+      <c r="O212" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P212" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="1">
+        <v>92</v>
+      </c>
+      <c r="D213">
+        <v>10037</v>
+      </c>
+      <c r="E213">
+        <v>77</v>
+      </c>
+      <c r="F213">
+        <v>29</v>
+      </c>
+      <c r="G213">
+        <v>484</v>
+      </c>
+      <c r="H213">
+        <v>23</v>
+      </c>
+      <c r="I213">
+        <v>84</v>
+      </c>
+      <c r="J213">
+        <v>193</v>
+      </c>
+      <c r="K213">
+        <v>1921</v>
+      </c>
+      <c r="L213">
+        <v>880</v>
+      </c>
+      <c r="M213">
+        <v>72</v>
+      </c>
+      <c r="N213">
+        <v>3127</v>
+      </c>
+      <c r="O213" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P213" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>28</v>
+      </c>
+      <c r="B214" t="s">
+        <v>29</v>
+      </c>
+      <c r="C214" s="1">
+        <v>92</v>
+      </c>
+      <c r="D214">
+        <v>8413</v>
+      </c>
+      <c r="E214">
+        <v>77</v>
+      </c>
+      <c r="F214">
+        <v>25</v>
+      </c>
+      <c r="G214">
+        <v>404</v>
+      </c>
+      <c r="H214">
+        <v>18</v>
+      </c>
+      <c r="I214">
+        <v>68</v>
+      </c>
+      <c r="J214">
+        <v>101</v>
+      </c>
+      <c r="K214">
+        <v>1661</v>
+      </c>
+      <c r="L214">
+        <v>672</v>
+      </c>
+      <c r="M214">
+        <v>3</v>
+      </c>
+      <c r="N214">
+        <v>2644</v>
+      </c>
+      <c r="O214" s="2">
+        <v>46035</v>
+      </c>
+      <c r="P214" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>43</v>
+      </c>
+      <c r="B215" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215" s="1">
+        <v>46</v>
+      </c>
+      <c r="D215" s="1">
+        <v>4502.21371</v>
+      </c>
+      <c r="E215" s="1">
+        <v>98.814019999999999</v>
+      </c>
+      <c r="F215" s="1">
+        <v>22.638660000000002</v>
+      </c>
+      <c r="G215" s="1">
+        <v>116.15</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0</v>
+      </c>
+      <c r="I215" s="1">
+        <v>49.73</v>
+      </c>
+      <c r="J215" s="1">
+        <v>0</v>
+      </c>
+      <c r="K215" s="1">
+        <v>210.76</v>
+      </c>
+      <c r="L215" s="1">
+        <v>18.95</v>
+      </c>
+      <c r="M215" s="1">
+        <v>0</v>
+      </c>
+      <c r="N215" s="1">
+        <v>773.93998999999997</v>
+      </c>
+      <c r="O215" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P215" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" s="1">
+        <v>46</v>
+      </c>
+      <c r="D216" s="1">
+        <v>3946.6041599999999</v>
+      </c>
+      <c r="E216" s="1">
+        <v>86.619569999999996</v>
+      </c>
+      <c r="F216" s="1">
+        <v>25.675799999999999</v>
+      </c>
+      <c r="G216" s="1">
+        <v>126.79</v>
+      </c>
+      <c r="H216" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="I216" s="1">
+        <v>63.58</v>
+      </c>
+      <c r="J216" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K216" s="1">
+        <v>112.65</v>
+      </c>
+      <c r="L216" s="1">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="M216" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="N216" s="1">
+        <v>480.69</v>
+      </c>
+      <c r="O216" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P216" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>42</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="1">
+        <v>46</v>
+      </c>
+      <c r="D217" s="1">
+        <v>4007.4099700000002</v>
+      </c>
+      <c r="E217" s="1">
+        <v>87.954130000000006</v>
+      </c>
+      <c r="F217" s="1">
+        <v>23.164719999999999</v>
+      </c>
+      <c r="G217" s="1">
+        <v>128.57</v>
+      </c>
+      <c r="H217" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="I217" s="1">
+        <v>43.68</v>
+      </c>
+      <c r="J217" s="1">
+        <v>0</v>
+      </c>
+      <c r="K217" s="1">
+        <v>179.08</v>
+      </c>
+      <c r="L217" s="1">
+        <v>19.38</v>
+      </c>
+      <c r="M217" s="1">
+        <v>0</v>
+      </c>
+      <c r="N217" s="1">
+        <v>474.28998999999999</v>
+      </c>
+      <c r="O217" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P217" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" s="1">
+        <v>46</v>
+      </c>
+      <c r="D218" s="1">
+        <v>4335.0675700000002</v>
+      </c>
+      <c r="E218" s="1">
+        <v>95.145520000000005</v>
+      </c>
+      <c r="F218" s="1">
+        <v>24.361699999999999</v>
+      </c>
+      <c r="G218" s="1">
+        <v>134.46</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0</v>
+      </c>
+      <c r="I218" s="1">
+        <v>58.34</v>
+      </c>
+      <c r="J218" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="K218" s="1">
+        <v>191.48</v>
+      </c>
+      <c r="L218" s="1">
+        <v>56.79</v>
+      </c>
+      <c r="M218" s="1">
+        <v>0</v>
+      </c>
+      <c r="N218" s="1">
+        <v>701.84001000000001</v>
+      </c>
+      <c r="O218" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P218" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219" s="1">
+        <v>34</v>
+      </c>
+      <c r="D219" s="1">
+        <v>3966.2979399999999</v>
+      </c>
+      <c r="E219" s="1">
+        <v>117.60299000000001</v>
+      </c>
+      <c r="F219" s="1">
+        <v>24.261030000000002</v>
+      </c>
+      <c r="G219" s="1">
+        <v>138.68</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0</v>
+      </c>
+      <c r="I219" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="J219" s="1">
+        <v>0</v>
+      </c>
+      <c r="K219" s="1">
+        <v>1319.2200499999999</v>
+      </c>
+      <c r="L219" s="1">
+        <v>1614.4499499999999</v>
+      </c>
+      <c r="M219" s="1">
+        <v>0</v>
+      </c>
+      <c r="N219" s="1">
+        <v>2788.5700099999999</v>
+      </c>
+      <c r="O219" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P219" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>25</v>
+      </c>
+      <c r="B220" t="s">
+        <v>26</v>
+      </c>
+      <c r="C220" s="1">
+        <v>46</v>
+      </c>
+      <c r="D220" s="1">
+        <v>4429.7229299999999</v>
+      </c>
+      <c r="E220" s="1">
+        <v>97.222999999999999</v>
+      </c>
+      <c r="F220" s="1">
+        <v>24.962219999999999</v>
+      </c>
+      <c r="G220" s="1">
+        <v>139.05000000000001</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0</v>
+      </c>
+      <c r="I220" s="1">
+        <v>56.61</v>
+      </c>
+      <c r="J220" s="1">
+        <v>0</v>
+      </c>
+      <c r="K220" s="1">
+        <v>307.49</v>
+      </c>
+      <c r="L220" s="1">
+        <v>40.65</v>
+      </c>
+      <c r="M220" s="1">
+        <v>0</v>
+      </c>
+      <c r="N220" s="1">
+        <v>795.74998000000005</v>
+      </c>
+      <c r="O220" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P220" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>45</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" s="1">
+        <v>46</v>
+      </c>
+      <c r="D221" s="1">
+        <v>3635.0910899999999</v>
+      </c>
+      <c r="E221" s="1">
+        <v>79.782520000000005</v>
+      </c>
+      <c r="F221" s="1">
+        <v>22.75958</v>
+      </c>
+      <c r="G221" s="1">
+        <v>140.12</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0</v>
+      </c>
+      <c r="I221" s="1">
+        <v>46.06</v>
+      </c>
+      <c r="J221" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="K221" s="1">
+        <v>105.59</v>
+      </c>
+      <c r="L221" s="1">
+        <v>20.72</v>
+      </c>
+      <c r="M221" s="1">
+        <v>0</v>
+      </c>
+      <c r="N221" s="1">
+        <v>405.49</v>
+      </c>
+      <c r="O221" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P221" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>31</v>
+      </c>
+      <c r="B222" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="1">
+        <v>46</v>
+      </c>
+      <c r="D222" s="1">
+        <v>3675.5329299999999</v>
+      </c>
+      <c r="E222" s="1">
+        <v>80.67013</v>
+      </c>
+      <c r="F222" s="1">
+        <v>22.571739999999998</v>
+      </c>
+      <c r="G222" s="1">
+        <v>147.68</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0</v>
+      </c>
+      <c r="I222" s="1">
+        <v>47.64</v>
+      </c>
+      <c r="J222" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="K222" s="1">
+        <v>97.54</v>
+      </c>
+      <c r="L222" s="1">
+        <v>43.15</v>
+      </c>
+      <c r="M222" s="1">
+        <v>0</v>
+      </c>
+      <c r="N222" s="1">
+        <v>408.97998999999999</v>
+      </c>
+      <c r="O222" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P222" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>27</v>
+      </c>
+      <c r="B223" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="1">
+        <v>46</v>
+      </c>
+      <c r="D223" s="1">
+        <v>4251.0176099999999</v>
+      </c>
+      <c r="E223" s="1">
+        <v>93.300799999999995</v>
+      </c>
+      <c r="F223" s="1">
+        <v>23.937049999999999</v>
+      </c>
+      <c r="G223" s="1">
+        <v>168.84</v>
+      </c>
+      <c r="H223" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="I223" s="1">
+        <v>54.94</v>
+      </c>
+      <c r="J223" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="K223" s="1">
+        <v>154.75</v>
+      </c>
+      <c r="L223" s="1">
+        <v>21.66</v>
+      </c>
+      <c r="M223" s="1">
+        <v>0</v>
+      </c>
+      <c r="N223" s="1">
+        <v>592.62</v>
+      </c>
+      <c r="O223" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P223" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>24</v>
+      </c>
+      <c r="B224" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" s="1">
+        <v>46</v>
+      </c>
+      <c r="D224" s="1">
+        <v>4186.5508099999997</v>
+      </c>
+      <c r="E224" s="1">
+        <v>91.885890000000003</v>
+      </c>
+      <c r="F224" s="1">
+        <v>23.826519999999999</v>
+      </c>
+      <c r="G224" s="1">
+        <v>169.26</v>
+      </c>
+      <c r="H224" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I224" s="1">
+        <v>66</v>
+      </c>
+      <c r="J224" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="K224" s="1">
+        <v>206.98</v>
+      </c>
+      <c r="L224" s="1">
+        <v>76.72</v>
+      </c>
+      <c r="M224" s="1">
+        <v>0</v>
+      </c>
+      <c r="N224" s="1">
+        <v>634.69000000000005</v>
+      </c>
+      <c r="O224" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P224" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>33</v>
+      </c>
+      <c r="B225" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225" s="1">
+        <v>46</v>
+      </c>
+      <c r="D225" s="1">
+        <v>4322.8894</v>
+      </c>
+      <c r="E225" s="1">
+        <v>94.878230000000002</v>
+      </c>
+      <c r="F225" s="1">
+        <v>21.973739999999999</v>
+      </c>
+      <c r="G225" s="1">
+        <v>171.89</v>
+      </c>
+      <c r="H225" s="1">
+        <v>0</v>
+      </c>
+      <c r="I225" s="1">
+        <v>59.06</v>
+      </c>
+      <c r="J225" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="K225" s="1">
+        <v>132.29</v>
+      </c>
+      <c r="L225" s="1">
+        <v>25.55</v>
+      </c>
+      <c r="M225" s="1">
+        <v>0</v>
+      </c>
+      <c r="N225" s="1">
+        <v>594.24</v>
+      </c>
+      <c r="O225" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P225" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>28</v>
+      </c>
+      <c r="B226" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" s="1">
+        <v>46</v>
+      </c>
+      <c r="D226" s="1">
+        <v>4176.3500700000004</v>
+      </c>
+      <c r="E226" s="1">
+        <v>91.662000000000006</v>
+      </c>
+      <c r="F226" s="1">
+        <v>23.493839999999999</v>
+      </c>
+      <c r="G226" s="1">
+        <v>191.71</v>
+      </c>
+      <c r="H226" s="1">
+        <v>0</v>
+      </c>
+      <c r="I226" s="1">
+        <v>54.05</v>
+      </c>
+      <c r="J226" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="K226" s="1">
+        <v>204.64</v>
+      </c>
+      <c r="L226" s="1">
+        <v>20.47</v>
+      </c>
+      <c r="M226" s="1">
+        <v>0</v>
+      </c>
+      <c r="N226" s="1">
+        <v>686.28</v>
+      </c>
+      <c r="O226" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P226" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>37</v>
+      </c>
+      <c r="B227" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227" s="1">
+        <v>46</v>
+      </c>
+      <c r="D227" s="1">
+        <v>4289.0539900000003</v>
+      </c>
+      <c r="E227" s="1">
+        <v>94.135620000000003</v>
+      </c>
+      <c r="F227" s="1">
+        <v>25.59329</v>
+      </c>
+      <c r="G227" s="1">
+        <v>192.47</v>
+      </c>
+      <c r="H227" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="I227" s="1">
+        <v>68.41</v>
+      </c>
+      <c r="J227" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="K227" s="1">
+        <v>253.73</v>
+      </c>
+      <c r="L227" s="1">
+        <v>66.08</v>
+      </c>
+      <c r="M227" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="N227" s="1">
+        <v>741.26999000000001</v>
+      </c>
+      <c r="O227" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P227" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>44</v>
+      </c>
+      <c r="B228" t="s">
+        <v>26</v>
+      </c>
+      <c r="C228" s="1">
+        <v>46</v>
+      </c>
+      <c r="D228" s="1">
+        <v>4386.7055099999998</v>
+      </c>
+      <c r="E228" s="1">
+        <v>96.278859999999995</v>
+      </c>
+      <c r="F228" s="1">
+        <v>24.26887</v>
+      </c>
+      <c r="G228" s="1">
+        <v>194.03</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0</v>
+      </c>
+      <c r="I228" s="1">
+        <v>64.59</v>
+      </c>
+      <c r="J228" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="K228" s="1">
+        <v>234.5</v>
+      </c>
+      <c r="L228" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="M228" s="1">
+        <v>0</v>
+      </c>
+      <c r="N228" s="1">
+        <v>757.03998999999999</v>
+      </c>
+      <c r="O228" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P228" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>47</v>
+      </c>
+      <c r="B229" t="s">
+        <v>17</v>
+      </c>
+      <c r="C229" s="1">
+        <v>46</v>
+      </c>
+      <c r="D229" s="1">
+        <v>4283.1275900000001</v>
+      </c>
+      <c r="E229" s="1">
+        <v>94.005539999999996</v>
+      </c>
+      <c r="F229" s="1">
+        <v>22.965620000000001</v>
+      </c>
+      <c r="G229" s="1">
+        <v>197.34</v>
+      </c>
+      <c r="H229" s="1">
+        <v>5.56</v>
+      </c>
+      <c r="I229" s="1">
+        <v>76.069999999999993</v>
+      </c>
+      <c r="J229" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="K229" s="1">
+        <v>227.56</v>
+      </c>
+      <c r="L229" s="1">
+        <v>55.47</v>
+      </c>
+      <c r="M229" s="1">
+        <v>0</v>
+      </c>
+      <c r="N229" s="1">
+        <v>697.31998999999996</v>
+      </c>
+      <c r="O229" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P229" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" t="s">
+        <v>17</v>
+      </c>
+      <c r="C230" s="1">
+        <v>46</v>
+      </c>
+      <c r="D230" s="1">
+        <v>4527.23056</v>
+      </c>
+      <c r="E230" s="1">
+        <v>99.363079999999997</v>
+      </c>
+      <c r="F230" s="1">
+        <v>25.841619999999999</v>
+      </c>
+      <c r="G230" s="1">
+        <v>200.37</v>
+      </c>
+      <c r="H230" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="I230" s="1">
+        <v>67.55</v>
+      </c>
+      <c r="J230" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K230" s="1">
+        <v>204.89999</v>
+      </c>
+      <c r="L230" s="1">
+        <v>30.92</v>
+      </c>
+      <c r="M230" s="1">
+        <v>8.57</v>
+      </c>
+      <c r="N230" s="1">
+        <v>730.86000999999999</v>
+      </c>
+      <c r="O230" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P230" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>48</v>
+      </c>
+      <c r="B231" t="s">
+        <v>26</v>
+      </c>
+      <c r="C231" s="1">
+        <v>46</v>
+      </c>
+      <c r="D231" s="1">
+        <v>4717.9655499999999</v>
+      </c>
+      <c r="E231" s="1">
+        <v>103.54931000000001</v>
+      </c>
+      <c r="F231" s="1">
+        <v>29.248609999999999</v>
+      </c>
+      <c r="G231" s="1">
+        <v>206.39</v>
+      </c>
+      <c r="H231" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="I231" s="1">
+        <v>72.97</v>
+      </c>
+      <c r="J231" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="K231" s="1">
+        <v>322.75</v>
+      </c>
+      <c r="L231" s="1">
+        <v>89.88</v>
+      </c>
+      <c r="M231" s="1">
+        <v>22.43</v>
+      </c>
+      <c r="N231" s="1">
+        <v>881.94</v>
+      </c>
+      <c r="O231" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P231" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>32</v>
+      </c>
+      <c r="B232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" s="1">
+        <v>46</v>
+      </c>
+      <c r="D232" s="1">
+        <v>4854.3618800000004</v>
+      </c>
+      <c r="E232" s="1">
+        <v>106.54292</v>
+      </c>
+      <c r="F232" s="1">
+        <v>25.027339999999999</v>
+      </c>
+      <c r="G232" s="1">
+        <v>209.51</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0</v>
+      </c>
+      <c r="I232" s="1">
+        <v>88.55</v>
+      </c>
+      <c r="J232" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="K232" s="1">
+        <v>279.54000000000002</v>
+      </c>
+      <c r="L232" s="1">
+        <v>77.75</v>
+      </c>
+      <c r="M232" s="1">
+        <v>0</v>
+      </c>
+      <c r="N232" s="1">
+        <v>824.06998999999996</v>
+      </c>
+      <c r="O232" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P232" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" s="1">
+        <v>46</v>
+      </c>
+      <c r="D233" s="1">
+        <v>4537.6557300000004</v>
+      </c>
+      <c r="E233" s="1">
+        <v>99.591899999999995</v>
+      </c>
+      <c r="F233" s="1">
+        <v>20.429639999999999</v>
+      </c>
+      <c r="G233" s="1">
+        <v>213.02</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0</v>
+      </c>
+      <c r="I233" s="1">
+        <v>65.84</v>
+      </c>
+      <c r="J233" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="K233" s="1">
+        <v>214.85</v>
+      </c>
+      <c r="L233" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="M233" s="1">
+        <v>0</v>
+      </c>
+      <c r="N233" s="1">
+        <v>865.75001999999995</v>
+      </c>
+      <c r="O233" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P233" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>38</v>
+      </c>
+      <c r="B234" t="s">
+        <v>29</v>
+      </c>
+      <c r="C234" s="1">
+        <v>46</v>
+      </c>
+      <c r="D234" s="1">
+        <v>4569.4333500000002</v>
+      </c>
+      <c r="E234" s="1">
+        <v>100.28935</v>
+      </c>
+      <c r="F234" s="1">
+        <v>25.789470000000001</v>
+      </c>
+      <c r="G234" s="1">
+        <v>242.78</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0</v>
+      </c>
+      <c r="I234" s="1">
+        <v>89.56</v>
+      </c>
+      <c r="J234" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="K234" s="1">
+        <v>402.78</v>
+      </c>
+      <c r="L234" s="1">
+        <v>78.89</v>
+      </c>
+      <c r="M234" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="N234" s="1">
+        <v>978.84</v>
+      </c>
+      <c r="O234" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P234" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" t="s">
+        <v>17</v>
+      </c>
+      <c r="C235" s="1">
+        <v>46</v>
+      </c>
+      <c r="D235" s="1">
+        <v>4192.3646900000003</v>
+      </c>
+      <c r="E235" s="1">
+        <v>92.013490000000004</v>
+      </c>
+      <c r="F235" s="1">
+        <v>24.021709999999999</v>
+      </c>
+      <c r="G235" s="1">
+        <v>250.55</v>
+      </c>
+      <c r="H235" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="I235" s="1">
+        <v>75.62</v>
+      </c>
+      <c r="J235" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="K235" s="1">
+        <v>252.7</v>
+      </c>
+      <c r="L235" s="1">
+        <v>56.96</v>
+      </c>
+      <c r="M235" s="1">
+        <v>0</v>
+      </c>
+      <c r="N235" s="1">
+        <v>752.19001000000003</v>
+      </c>
+      <c r="O235" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P235" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>35</v>
+      </c>
+      <c r="B236" t="s">
+        <v>26</v>
+      </c>
+      <c r="C236" s="1">
+        <v>46</v>
+      </c>
+      <c r="D236" s="1">
+        <v>5056.18732</v>
+      </c>
+      <c r="E236" s="1">
+        <v>110.97256</v>
+      </c>
+      <c r="F236" s="1">
+        <v>27.657060000000001</v>
+      </c>
+      <c r="G236" s="1">
+        <v>253.8</v>
+      </c>
+      <c r="H236" s="1">
+        <v>11.73</v>
+      </c>
+      <c r="I236" s="1">
+        <v>83.1</v>
+      </c>
+      <c r="J236" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="K236" s="1">
+        <v>352.5</v>
+      </c>
+      <c r="L236" s="1">
+        <v>135.57</v>
+      </c>
+      <c r="M236" s="1">
+        <v>24.67</v>
+      </c>
+      <c r="N236" s="1">
+        <v>935.04998999999998</v>
+      </c>
+      <c r="O236" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P236" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" t="s">
+        <v>17</v>
+      </c>
+      <c r="C237" s="1">
+        <v>46</v>
+      </c>
+      <c r="D237" s="1">
+        <v>4640.9263600000004</v>
+      </c>
+      <c r="E237" s="1">
+        <v>101.85847</v>
+      </c>
+      <c r="F237" s="1">
+        <v>27.36129</v>
+      </c>
+      <c r="G237" s="1">
+        <v>257.77</v>
+      </c>
+      <c r="H237" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="I237" s="1">
+        <v>70.27</v>
+      </c>
+      <c r="J237" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="K237" s="1">
+        <v>317.31</v>
+      </c>
+      <c r="L237" s="1">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="M237" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="N237" s="1">
+        <v>885.86</v>
+      </c>
+      <c r="O237" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P237" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" s="1">
+        <v>46</v>
+      </c>
+      <c r="D238" s="1">
+        <v>4389.1629000000003</v>
+      </c>
+      <c r="E238" s="1">
+        <v>96.332790000000003</v>
+      </c>
+      <c r="F238" s="1">
+        <v>26.434100000000001</v>
+      </c>
+      <c r="G238" s="1">
+        <v>259.83</v>
+      </c>
+      <c r="H238" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="I238" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="J238" s="1">
+        <v>6.32</v>
+      </c>
+      <c r="K238" s="1">
+        <v>254.39</v>
+      </c>
+      <c r="L238" s="1">
+        <v>75.06</v>
+      </c>
+      <c r="M238" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="N238" s="1">
+        <v>784.91998999999998</v>
+      </c>
+      <c r="O238" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P238" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>34</v>
+      </c>
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" s="1">
+        <v>46</v>
+      </c>
+      <c r="D239" s="1">
+        <v>4621.6325999999999</v>
+      </c>
+      <c r="E239" s="1">
+        <v>101.43501000000001</v>
+      </c>
+      <c r="F239" s="1">
+        <v>22.26595</v>
+      </c>
+      <c r="G239" s="1">
+        <v>282.04000000000002</v>
+      </c>
+      <c r="H239" s="1">
+        <v>0</v>
+      </c>
+      <c r="I239" s="1">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="J239" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="K239" s="1">
+        <v>250.94</v>
+      </c>
+      <c r="L239" s="1">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="M239" s="1">
+        <v>0</v>
+      </c>
+      <c r="N239" s="1">
+        <v>778.76999000000001</v>
+      </c>
+      <c r="O239" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P239" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>36</v>
+      </c>
+      <c r="B240" t="s">
+        <v>26</v>
+      </c>
+      <c r="C240" s="1">
+        <v>46</v>
+      </c>
+      <c r="D240" s="1">
+        <v>4325.4939299999996</v>
+      </c>
+      <c r="E240" s="1">
+        <v>94.935389999999998</v>
+      </c>
+      <c r="F240" s="1">
+        <v>25.070709999999998</v>
+      </c>
+      <c r="G240" s="1">
+        <v>286.58999999999997</v>
+      </c>
+      <c r="H240" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="I240" s="1">
+        <v>92.33</v>
+      </c>
+      <c r="J240" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="K240" s="1">
+        <v>366.74</v>
+      </c>
+      <c r="L240" s="1">
+        <v>119.92</v>
+      </c>
+      <c r="M240" s="1">
+        <v>0</v>
+      </c>
+      <c r="N240" s="1">
+        <v>976.22</v>
+      </c>
+      <c r="O240" s="2">
+        <v>46036</v>
+      </c>
+      <c r="P240" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/carga.xlsx
+++ b/carga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucianogaliano/Desktop/gps_dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\CARGAPORMICROS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C76B38-57C9-1447-8DAB-0F77F4952FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1311047F-66A7-4AC4-BFD6-53AC49871C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="20740" windowHeight="11040" xr2:uid="{D0952F60-EA13-452A-8089-133E1849F9A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D0952F60-EA13-452A-8089-133E1849F9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="CARGA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -161,18 +161,6 @@
   </si>
   <si>
     <t>Sebastian Olmedo</t>
-  </si>
-  <si>
-    <t>Dario Sarmiento</t>
-  </si>
-  <si>
-    <t>Mauro Peinipil</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Entrenamiento</t>
   </si>
 </sst>
 </file>
@@ -719,9 +707,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -759,7 +747,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -865,7 +853,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1007,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,18 +1003,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBA7B75-84C1-4AE6-98BA-083E5BBCB190}">
-  <dimension ref="A1:Q240"/>
+  <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q240"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:P189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,11 +1063,8 @@
       <c r="P1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1128,11 +1113,8 @@
       <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1181,11 +1163,8 @@
       <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1234,11 +1213,8 @@
       <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1287,11 +1263,8 @@
       <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1340,11 +1313,8 @@
       <c r="P6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1393,11 +1363,8 @@
       <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1446,11 +1413,8 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1499,11 +1463,8 @@
       <c r="P9" s="1">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1552,11 +1513,8 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1605,11 +1563,8 @@
       <c r="P11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1658,11 +1613,8 @@
       <c r="P12" s="1">
         <v>1</v>
       </c>
-      <c r="Q12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1711,11 +1663,8 @@
       <c r="P13" s="1">
         <v>1</v>
       </c>
-      <c r="Q13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1764,11 +1713,8 @@
       <c r="P14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1817,11 +1763,8 @@
       <c r="P15" s="1">
         <v>1</v>
       </c>
-      <c r="Q15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1870,11 +1813,8 @@
       <c r="P16" s="1">
         <v>1</v>
       </c>
-      <c r="Q16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1923,11 +1863,8 @@
       <c r="P17" s="1">
         <v>1</v>
       </c>
-      <c r="Q17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1976,11 +1913,8 @@
       <c r="P18" s="1">
         <v>1</v>
       </c>
-      <c r="Q18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2029,11 +1963,8 @@
       <c r="P19" s="1">
         <v>1</v>
       </c>
-      <c r="Q19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2082,11 +2013,8 @@
       <c r="P20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2135,11 +2063,8 @@
       <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2188,11 +2113,8 @@
       <c r="P22" s="1">
         <v>1</v>
       </c>
-      <c r="Q22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2241,11 +2163,8 @@
       <c r="P23" s="1">
         <v>1</v>
       </c>
-      <c r="Q23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2294,11 +2213,8 @@
       <c r="P24" s="1">
         <v>1</v>
       </c>
-      <c r="Q24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2347,11 +2263,8 @@
       <c r="P25" s="1">
         <v>1</v>
       </c>
-      <c r="Q25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2400,11 +2313,8 @@
       <c r="P26" s="1">
         <v>1</v>
       </c>
-      <c r="Q26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2453,11 +2363,8 @@
       <c r="P27" s="1">
         <v>1</v>
       </c>
-      <c r="Q27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2506,11 +2413,8 @@
       <c r="P28" s="1">
         <v>1</v>
       </c>
-      <c r="Q28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2559,11 +2463,8 @@
       <c r="P29" s="1">
         <v>1</v>
       </c>
-      <c r="Q29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2612,11 +2513,8 @@
       <c r="P30" s="1">
         <v>1</v>
       </c>
-      <c r="Q30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2665,11 +2563,8 @@
       <c r="P31" s="1">
         <v>1</v>
       </c>
-      <c r="Q31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2718,11 +2613,8 @@
       <c r="P32" s="1">
         <v>1</v>
       </c>
-      <c r="Q32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2771,11 +2663,8 @@
       <c r="P33" s="1">
         <v>1</v>
       </c>
-      <c r="Q33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2824,11 +2713,8 @@
       <c r="P34" s="1">
         <v>1</v>
       </c>
-      <c r="Q34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2877,11 +2763,8 @@
       <c r="P35" s="1">
         <v>1</v>
       </c>
-      <c r="Q35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2930,11 +2813,8 @@
       <c r="P36" s="1">
         <v>1</v>
       </c>
-      <c r="Q36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2983,11 +2863,8 @@
       <c r="P37" s="1">
         <v>1</v>
       </c>
-      <c r="Q37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3036,11 +2913,8 @@
       <c r="P38" s="1">
         <v>1</v>
       </c>
-      <c r="Q38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3089,11 +2963,8 @@
       <c r="P39" s="1">
         <v>1</v>
       </c>
-      <c r="Q39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -3142,11 +3013,8 @@
       <c r="P40" s="1">
         <v>1</v>
       </c>
-      <c r="Q40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -3195,11 +3063,8 @@
       <c r="P41" s="1">
         <v>1</v>
       </c>
-      <c r="Q41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3248,11 +3113,8 @@
       <c r="P42" s="1">
         <v>2</v>
       </c>
-      <c r="Q42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -3301,11 +3163,8 @@
       <c r="P43" s="1">
         <v>2</v>
       </c>
-      <c r="Q43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -3354,11 +3213,8 @@
       <c r="P44" s="1">
         <v>2</v>
       </c>
-      <c r="Q44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -3407,11 +3263,8 @@
       <c r="P45" s="1">
         <v>2</v>
       </c>
-      <c r="Q45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -3460,11 +3313,8 @@
       <c r="P46" s="1">
         <v>2</v>
       </c>
-      <c r="Q46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -3513,11 +3363,8 @@
       <c r="P47" s="1">
         <v>2</v>
       </c>
-      <c r="Q47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -3566,11 +3413,8 @@
       <c r="P48" s="1">
         <v>2</v>
       </c>
-      <c r="Q48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3619,11 +3463,8 @@
       <c r="P49" s="1">
         <v>2</v>
       </c>
-      <c r="Q49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -3672,11 +3513,8 @@
       <c r="P50" s="1">
         <v>2</v>
       </c>
-      <c r="Q50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3725,11 +3563,8 @@
       <c r="P51" s="1">
         <v>2</v>
       </c>
-      <c r="Q51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -3778,11 +3613,8 @@
       <c r="P52" s="1">
         <v>2</v>
       </c>
-      <c r="Q52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3831,11 +3663,8 @@
       <c r="P53" s="1">
         <v>2</v>
       </c>
-      <c r="Q53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -3884,11 +3713,8 @@
       <c r="P54" s="1">
         <v>2</v>
       </c>
-      <c r="Q54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -3937,11 +3763,8 @@
       <c r="P55" s="1">
         <v>2</v>
       </c>
-      <c r="Q55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -3990,11 +3813,8 @@
       <c r="P56" s="1">
         <v>2</v>
       </c>
-      <c r="Q56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -4043,11 +3863,8 @@
       <c r="P57" s="1">
         <v>2</v>
       </c>
-      <c r="Q57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -4096,11 +3913,8 @@
       <c r="P58" s="1">
         <v>2</v>
       </c>
-      <c r="Q58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -4149,11 +3963,8 @@
       <c r="P59" s="1">
         <v>2</v>
       </c>
-      <c r="Q59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -4202,11 +4013,8 @@
       <c r="P60" s="1">
         <v>2</v>
       </c>
-      <c r="Q60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -4255,11 +4063,8 @@
       <c r="P61" s="1">
         <v>2</v>
       </c>
-      <c r="Q61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -4308,11 +4113,8 @@
       <c r="P62" s="1">
         <v>2</v>
       </c>
-      <c r="Q62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -4361,11 +4163,8 @@
       <c r="P63" s="1">
         <v>2</v>
       </c>
-      <c r="Q63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -4414,11 +4213,8 @@
       <c r="P64" s="1">
         <v>2</v>
       </c>
-      <c r="Q64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -4467,11 +4263,8 @@
       <c r="P65" s="1">
         <v>2</v>
       </c>
-      <c r="Q65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -4520,11 +4313,8 @@
       <c r="P66" s="1">
         <v>2</v>
       </c>
-      <c r="Q66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -4573,11 +4363,8 @@
       <c r="P67" s="1">
         <v>2</v>
       </c>
-      <c r="Q67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -4626,11 +4413,8 @@
       <c r="P68" s="1">
         <v>2</v>
       </c>
-      <c r="Q68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -4679,11 +4463,8 @@
       <c r="P69" s="1">
         <v>2</v>
       </c>
-      <c r="Q69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -4732,11 +4513,8 @@
       <c r="P70" s="1">
         <v>2</v>
       </c>
-      <c r="Q70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -4785,11 +4563,8 @@
       <c r="P71" s="1">
         <v>2</v>
       </c>
-      <c r="Q71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -4838,11 +4613,8 @@
       <c r="P72" s="1">
         <v>2</v>
       </c>
-      <c r="Q72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -4891,11 +4663,8 @@
       <c r="P73" s="1">
         <v>2</v>
       </c>
-      <c r="Q73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -4944,11 +4713,8 @@
       <c r="P74" s="1">
         <v>2</v>
       </c>
-      <c r="Q74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -4997,11 +4763,8 @@
       <c r="P75" s="1">
         <v>2</v>
       </c>
-      <c r="Q75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -5050,11 +4813,8 @@
       <c r="P76" s="1">
         <v>2</v>
       </c>
-      <c r="Q76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -5103,11 +4863,8 @@
       <c r="P77" s="1">
         <v>2</v>
       </c>
-      <c r="Q77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -5156,11 +4913,8 @@
       <c r="P78" s="1">
         <v>2</v>
       </c>
-      <c r="Q78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -5209,11 +4963,8 @@
       <c r="P79" s="1">
         <v>2</v>
       </c>
-      <c r="Q79" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -5262,11 +5013,8 @@
       <c r="P80" s="1">
         <v>2</v>
       </c>
-      <c r="Q80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -5315,11 +5063,8 @@
       <c r="P81" s="1">
         <v>2</v>
       </c>
-      <c r="Q81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -5368,11 +5113,8 @@
       <c r="P82" s="1">
         <v>2</v>
       </c>
-      <c r="Q82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -5421,11 +5163,8 @@
       <c r="P83" s="1">
         <v>2</v>
       </c>
-      <c r="Q83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>25</v>
       </c>
@@ -5474,11 +5213,8 @@
       <c r="P84" s="1">
         <v>2</v>
       </c>
-      <c r="Q84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -5527,11 +5263,8 @@
       <c r="P85" s="1">
         <v>2</v>
       </c>
-      <c r="Q85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -5580,11 +5313,8 @@
       <c r="P86" s="1">
         <v>2</v>
       </c>
-      <c r="Q86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -5633,11 +5363,8 @@
       <c r="P87" s="1">
         <v>2</v>
       </c>
-      <c r="Q87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -5686,11 +5413,8 @@
       <c r="P88" s="1">
         <v>2</v>
       </c>
-      <c r="Q88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -5739,11 +5463,8 @@
       <c r="P89" s="1">
         <v>2</v>
       </c>
-      <c r="Q89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -5792,11 +5513,8 @@
       <c r="P90" s="1">
         <v>2</v>
       </c>
-      <c r="Q90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -5845,11 +5563,8 @@
       <c r="P91" s="1">
         <v>2</v>
       </c>
-      <c r="Q91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -5898,11 +5613,8 @@
       <c r="P92" s="1">
         <v>2</v>
       </c>
-      <c r="Q92" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -5951,11 +5663,8 @@
       <c r="P93" s="1">
         <v>2</v>
       </c>
-      <c r="Q93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -6004,11 +5713,8 @@
       <c r="P94" s="1">
         <v>2</v>
       </c>
-      <c r="Q94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -6057,11 +5763,8 @@
       <c r="P95" s="1">
         <v>2</v>
       </c>
-      <c r="Q95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -6110,11 +5813,8 @@
       <c r="P96" s="1">
         <v>2</v>
       </c>
-      <c r="Q96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -6163,11 +5863,8 @@
       <c r="P97" s="1">
         <v>2</v>
       </c>
-      <c r="Q97" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -6216,11 +5913,8 @@
       <c r="P98" s="1">
         <v>2</v>
       </c>
-      <c r="Q98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -6269,11 +5963,8 @@
       <c r="P99" s="1">
         <v>2</v>
       </c>
-      <c r="Q99" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -6322,11 +6013,8 @@
       <c r="P100" s="1">
         <v>2</v>
       </c>
-      <c r="Q100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -6375,11 +6063,8 @@
       <c r="P101" s="1">
         <v>2</v>
       </c>
-      <c r="Q101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -6428,11 +6113,8 @@
       <c r="P102" s="1">
         <v>2</v>
       </c>
-      <c r="Q102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -6481,11 +6163,8 @@
       <c r="P103" s="1">
         <v>2</v>
       </c>
-      <c r="Q103" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -6534,11 +6213,8 @@
       <c r="P104" s="1">
         <v>2</v>
       </c>
-      <c r="Q104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -6587,11 +6263,8 @@
       <c r="P105" s="1">
         <v>2</v>
       </c>
-      <c r="Q105" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -6640,11 +6313,8 @@
       <c r="P106" s="1">
         <v>2</v>
       </c>
-      <c r="Q106" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -6693,11 +6363,8 @@
       <c r="P107" s="1">
         <v>2</v>
       </c>
-      <c r="Q107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -6746,11 +6413,8 @@
       <c r="P108" s="1">
         <v>2</v>
       </c>
-      <c r="Q108" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -6799,11 +6463,8 @@
       <c r="P109" s="1">
         <v>2</v>
       </c>
-      <c r="Q109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>28</v>
       </c>
@@ -6852,11 +6513,8 @@
       <c r="P110" s="1">
         <v>2</v>
       </c>
-      <c r="Q110" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -6905,11 +6563,8 @@
       <c r="P111" s="1">
         <v>2</v>
       </c>
-      <c r="Q111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -6958,11 +6613,8 @@
       <c r="P112" s="1">
         <v>2</v>
       </c>
-      <c r="Q112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -7011,11 +6663,8 @@
       <c r="P113" s="1">
         <v>2</v>
       </c>
-      <c r="Q113" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -7064,11 +6713,8 @@
       <c r="P114" s="1">
         <v>2</v>
       </c>
-      <c r="Q114" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -7117,11 +6763,8 @@
       <c r="P115" s="1">
         <v>2</v>
       </c>
-      <c r="Q115" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -7170,11 +6813,8 @@
       <c r="P116" s="1">
         <v>2</v>
       </c>
-      <c r="Q116" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -7223,11 +6863,8 @@
       <c r="P117" s="1">
         <v>2</v>
       </c>
-      <c r="Q117" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -7276,11 +6913,8 @@
       <c r="P118" s="1">
         <v>2</v>
       </c>
-      <c r="Q118" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -7329,11 +6963,8 @@
       <c r="P119" s="1">
         <v>2</v>
       </c>
-      <c r="Q119" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -7382,11 +7013,8 @@
       <c r="P120" s="1">
         <v>2</v>
       </c>
-      <c r="Q120" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -7435,11 +7063,8 @@
       <c r="P121" s="1">
         <v>2</v>
       </c>
-      <c r="Q121" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -7488,11 +7113,8 @@
       <c r="P122" s="1">
         <v>2</v>
       </c>
-      <c r="Q122" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -7541,11 +7163,8 @@
       <c r="P123" s="1">
         <v>2</v>
       </c>
-      <c r="Q123" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -7594,11 +7213,8 @@
       <c r="P124" s="1">
         <v>2</v>
       </c>
-      <c r="Q124" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -7647,11 +7263,8 @@
       <c r="P125" s="1">
         <v>2</v>
       </c>
-      <c r="Q125" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -7700,11 +7313,8 @@
       <c r="P126" s="1">
         <v>2</v>
       </c>
-      <c r="Q126" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -7753,11 +7363,8 @@
       <c r="P127" s="1">
         <v>2</v>
       </c>
-      <c r="Q127" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -7806,11 +7413,8 @@
       <c r="P128" s="1">
         <v>2</v>
       </c>
-      <c r="Q128" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -7859,11 +7463,8 @@
       <c r="P129" s="1">
         <v>2</v>
       </c>
-      <c r="Q129" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -7912,11 +7513,8 @@
       <c r="P130" s="1">
         <v>2</v>
       </c>
-      <c r="Q130" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -7965,11 +7563,8 @@
       <c r="P131" s="1">
         <v>2</v>
       </c>
-      <c r="Q131" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -8018,11 +7613,8 @@
       <c r="P132" s="1">
         <v>2</v>
       </c>
-      <c r="Q132" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -8071,11 +7663,8 @@
       <c r="P133" s="1">
         <v>2</v>
       </c>
-      <c r="Q133" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -8124,11 +7713,8 @@
       <c r="P134" s="1">
         <v>2</v>
       </c>
-      <c r="Q134" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -8177,11 +7763,8 @@
       <c r="P135" s="1">
         <v>2</v>
       </c>
-      <c r="Q135" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -8230,11 +7813,8 @@
       <c r="P136" s="1">
         <v>2</v>
       </c>
-      <c r="Q136" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -8283,11 +7863,8 @@
       <c r="P137" s="1">
         <v>2</v>
       </c>
-      <c r="Q137" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>44</v>
       </c>
@@ -8336,11 +7913,8 @@
       <c r="P138" s="1">
         <v>2</v>
       </c>
-      <c r="Q138" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>25</v>
       </c>
@@ -8389,11 +7963,8 @@
       <c r="P139" s="1">
         <v>2</v>
       </c>
-      <c r="Q139" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -8442,11 +8013,8 @@
       <c r="P140" s="1">
         <v>2</v>
       </c>
-      <c r="Q140" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -8495,11 +8063,8 @@
       <c r="P141" s="1">
         <v>2</v>
       </c>
-      <c r="Q141" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -8548,11 +8113,8 @@
       <c r="P142" s="1">
         <v>2</v>
       </c>
-      <c r="Q142" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -8601,11 +8163,8 @@
       <c r="P143" s="1">
         <v>2</v>
       </c>
-      <c r="Q143" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>43</v>
       </c>
@@ -8654,11 +8213,8 @@
       <c r="P144" s="1">
         <v>2</v>
       </c>
-      <c r="Q144" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -8707,11 +8263,8 @@
       <c r="P145" s="1">
         <v>2</v>
       </c>
-      <c r="Q145" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -8760,11 +8313,8 @@
       <c r="P146" s="1">
         <v>2</v>
       </c>
-      <c r="Q146" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>38</v>
       </c>
@@ -8813,11 +8363,8 @@
       <c r="P147" s="1">
         <v>2</v>
       </c>
-      <c r="Q147" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -8866,11 +8413,8 @@
       <c r="P148" s="1">
         <v>2</v>
       </c>
-      <c r="Q148" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -8919,11 +8463,8 @@
       <c r="P149" s="1">
         <v>2</v>
       </c>
-      <c r="Q149" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -8972,11 +8513,8 @@
       <c r="P150" s="1">
         <v>2</v>
       </c>
-      <c r="Q150" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -9025,11 +8563,8 @@
       <c r="P151" s="1">
         <v>2</v>
       </c>
-      <c r="Q151" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -9078,11 +8613,8 @@
       <c r="P152" s="1">
         <v>2</v>
       </c>
-      <c r="Q152" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -9131,11 +8663,8 @@
       <c r="P153" s="1">
         <v>2</v>
       </c>
-      <c r="Q153" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>44</v>
       </c>
@@ -9184,11 +8713,8 @@
       <c r="P154" s="1">
         <v>2</v>
       </c>
-      <c r="Q154" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -9237,11 +8763,8 @@
       <c r="P155" s="1">
         <v>2</v>
       </c>
-      <c r="Q155" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -9290,11 +8813,8 @@
       <c r="P156" s="1">
         <v>2</v>
       </c>
-      <c r="Q156" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -9343,11 +8863,8 @@
       <c r="P157" s="1">
         <v>2</v>
       </c>
-      <c r="Q157" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -9396,11 +8913,8 @@
       <c r="P158" s="1">
         <v>2</v>
       </c>
-      <c r="Q158" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -9449,11 +8963,8 @@
       <c r="P159" s="1">
         <v>2</v>
       </c>
-      <c r="Q159" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -9502,11 +9013,8 @@
       <c r="P160" s="1">
         <v>2</v>
       </c>
-      <c r="Q160" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>32</v>
       </c>
@@ -9555,11 +9063,8 @@
       <c r="P161" s="1">
         <v>2</v>
       </c>
-      <c r="Q161" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>25</v>
       </c>
@@ -9608,11 +9113,8 @@
       <c r="P162" s="1">
         <v>2</v>
       </c>
-      <c r="Q162" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -9661,11 +9163,8 @@
       <c r="P163" s="1">
         <v>2</v>
       </c>
-      <c r="Q163" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -9714,11 +9213,8 @@
       <c r="P164" s="1">
         <v>2</v>
       </c>
-      <c r="Q164" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -9767,11 +9263,8 @@
       <c r="P165" s="1">
         <v>2</v>
       </c>
-      <c r="Q165" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>45</v>
       </c>
@@ -9820,11 +9313,8 @@
       <c r="P166" s="1">
         <v>3</v>
       </c>
-      <c r="Q166" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -9873,11 +9363,8 @@
       <c r="P167" s="1">
         <v>3</v>
       </c>
-      <c r="Q167" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>35</v>
       </c>
@@ -9926,11 +9413,8 @@
       <c r="P168" s="1">
         <v>3</v>
       </c>
-      <c r="Q168" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -9979,11 +9463,8 @@
       <c r="P169" s="1">
         <v>3</v>
       </c>
-      <c r="Q169" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>25</v>
       </c>
@@ -10032,11 +9513,8 @@
       <c r="P170" s="1">
         <v>3</v>
       </c>
-      <c r="Q170" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -10085,11 +9563,8 @@
       <c r="P171" s="1">
         <v>3</v>
       </c>
-      <c r="Q171" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>43</v>
       </c>
@@ -10138,11 +9613,8 @@
       <c r="P172" s="1">
         <v>3</v>
       </c>
-      <c r="Q172" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>38</v>
       </c>
@@ -10191,11 +9663,8 @@
       <c r="P173" s="1">
         <v>3</v>
       </c>
-      <c r="Q173" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -10244,11 +9713,8 @@
       <c r="P174" s="1">
         <v>3</v>
       </c>
-      <c r="Q174" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>34</v>
       </c>
@@ -10297,11 +9763,8 @@
       <c r="P175" s="1">
         <v>3</v>
       </c>
-      <c r="Q175" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -10350,11 +9813,8 @@
       <c r="P176" s="1">
         <v>3</v>
       </c>
-      <c r="Q176" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -10403,11 +9863,8 @@
       <c r="P177" s="1">
         <v>3</v>
       </c>
-      <c r="Q177" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -10456,11 +9913,8 @@
       <c r="P178" s="1">
         <v>3</v>
       </c>
-      <c r="Q178" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -10509,11 +9963,8 @@
       <c r="P179" s="1">
         <v>3</v>
       </c>
-      <c r="Q179" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -10562,11 +10013,8 @@
       <c r="P180" s="1">
         <v>3</v>
       </c>
-      <c r="Q180" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>22</v>
       </c>
@@ -10615,11 +10063,8 @@
       <c r="P181" s="1">
         <v>3</v>
       </c>
-      <c r="Q181" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -10668,11 +10113,8 @@
       <c r="P182" s="1">
         <v>3</v>
       </c>
-      <c r="Q182" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -10721,11 +10163,8 @@
       <c r="P183" s="1">
         <v>3</v>
       </c>
-      <c r="Q183" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -10774,11 +10213,8 @@
       <c r="P184" s="1">
         <v>3</v>
       </c>
-      <c r="Q184" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -10827,11 +10263,8 @@
       <c r="P185" s="1">
         <v>3</v>
       </c>
-      <c r="Q185" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -10880,11 +10313,8 @@
       <c r="P186" s="1">
         <v>3</v>
       </c>
-      <c r="Q186" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>46</v>
       </c>
@@ -10933,11 +10363,8 @@
       <c r="P187" s="1">
         <v>3</v>
       </c>
-      <c r="Q187" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>32</v>
       </c>
@@ -10986,11 +10413,8 @@
       <c r="P188" s="1">
         <v>3</v>
       </c>
-      <c r="Q188" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>28</v>
       </c>
@@ -11038,2712 +10462,6 @@
       </c>
       <c r="P189" s="1">
         <v>3</v>
-      </c>
-      <c r="Q189" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>45</v>
-      </c>
-      <c r="B190" t="s">
-        <v>15</v>
-      </c>
-      <c r="C190" s="1">
-        <v>92</v>
-      </c>
-      <c r="D190">
-        <v>9292</v>
-      </c>
-      <c r="E190">
-        <v>77</v>
-      </c>
-      <c r="F190">
-        <v>24</v>
-      </c>
-      <c r="G190">
-        <v>335</v>
-      </c>
-      <c r="H190">
-        <v>14</v>
-      </c>
-      <c r="I190">
-        <v>52</v>
-      </c>
-      <c r="J190">
-        <v>87</v>
-      </c>
-      <c r="K190">
-        <v>1461</v>
-      </c>
-      <c r="L190">
-        <v>376</v>
-      </c>
-      <c r="M190">
-        <v>24</v>
-      </c>
-      <c r="N190">
-        <v>2029</v>
-      </c>
-      <c r="O190" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P190" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q190" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>20</v>
-      </c>
-      <c r="B191" t="s">
-        <v>21</v>
-      </c>
-      <c r="C191" s="1">
-        <v>92</v>
-      </c>
-      <c r="D191">
-        <v>10448</v>
-      </c>
-      <c r="E191">
-        <v>77</v>
-      </c>
-      <c r="F191">
-        <v>28</v>
-      </c>
-      <c r="G191">
-        <v>516</v>
-      </c>
-      <c r="H191">
-        <v>27</v>
-      </c>
-      <c r="I191">
-        <v>70</v>
-      </c>
-      <c r="J191">
-        <v>154</v>
-      </c>
-      <c r="K191">
-        <v>2026</v>
-      </c>
-      <c r="L191">
-        <v>916</v>
-      </c>
-      <c r="M191">
-        <v>75</v>
-      </c>
-      <c r="N191">
-        <v>3276</v>
-      </c>
-      <c r="O191" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P191" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q191" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>35</v>
-      </c>
-      <c r="B192" t="s">
-        <v>26</v>
-      </c>
-      <c r="C192" s="1">
-        <v>92</v>
-      </c>
-      <c r="D192">
-        <v>10522</v>
-      </c>
-      <c r="E192">
-        <v>77</v>
-      </c>
-      <c r="F192">
-        <v>28</v>
-      </c>
-      <c r="G192">
-        <v>631</v>
-      </c>
-      <c r="H192">
-        <v>27</v>
-      </c>
-      <c r="I192">
-        <v>91</v>
-      </c>
-      <c r="J192">
-        <v>178</v>
-      </c>
-      <c r="K192">
-        <v>1515</v>
-      </c>
-      <c r="L192">
-        <v>1484</v>
-      </c>
-      <c r="M192">
-        <v>83</v>
-      </c>
-      <c r="N192">
-        <v>3218</v>
-      </c>
-      <c r="O192" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P192" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>44</v>
-      </c>
-      <c r="B193" t="s">
-        <v>26</v>
-      </c>
-      <c r="C193" s="1">
-        <v>92</v>
-      </c>
-      <c r="D193">
-        <v>9922</v>
-      </c>
-      <c r="E193">
-        <v>77</v>
-      </c>
-      <c r="F193">
-        <v>25</v>
-      </c>
-      <c r="G193">
-        <v>526</v>
-      </c>
-      <c r="H193">
-        <v>11</v>
-      </c>
-      <c r="I193">
-        <v>63</v>
-      </c>
-      <c r="J193">
-        <v>131</v>
-      </c>
-      <c r="K193">
-        <v>2134</v>
-      </c>
-      <c r="L193">
-        <v>875</v>
-      </c>
-      <c r="M193">
-        <v>22</v>
-      </c>
-      <c r="N193">
-        <v>3200</v>
-      </c>
-      <c r="O193" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P193" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>25</v>
-      </c>
-      <c r="B194" t="s">
-        <v>26</v>
-      </c>
-      <c r="C194" s="1">
-        <v>92</v>
-      </c>
-      <c r="D194">
-        <v>10543</v>
-      </c>
-      <c r="E194">
-        <v>77</v>
-      </c>
-      <c r="F194">
-        <v>27</v>
-      </c>
-      <c r="G194">
-        <v>578</v>
-      </c>
-      <c r="H194">
-        <v>17</v>
-      </c>
-      <c r="I194">
-        <v>73</v>
-      </c>
-      <c r="J194">
-        <v>160</v>
-      </c>
-      <c r="K194">
-        <v>2419</v>
-      </c>
-      <c r="L194">
-        <v>866</v>
-      </c>
-      <c r="M194">
-        <v>76</v>
-      </c>
-      <c r="N194">
-        <v>3570</v>
-      </c>
-      <c r="O194" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P194" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q194" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>30</v>
-      </c>
-      <c r="B195" t="s">
-        <v>15</v>
-      </c>
-      <c r="C195" s="1">
-        <v>92</v>
-      </c>
-      <c r="D195">
-        <v>9559</v>
-      </c>
-      <c r="E195">
-        <v>77</v>
-      </c>
-      <c r="F195">
-        <v>25</v>
-      </c>
-      <c r="G195">
-        <v>475</v>
-      </c>
-      <c r="H195">
-        <v>3</v>
-      </c>
-      <c r="I195">
-        <v>62</v>
-      </c>
-      <c r="J195">
-        <v>86</v>
-      </c>
-      <c r="K195">
-        <v>1824</v>
-      </c>
-      <c r="L195">
-        <v>937</v>
-      </c>
-      <c r="M195">
-        <v>0</v>
-      </c>
-      <c r="N195">
-        <v>3110</v>
-      </c>
-      <c r="O195" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P195" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q195" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>43</v>
-      </c>
-      <c r="B196" t="s">
-        <v>29</v>
-      </c>
-      <c r="C196" s="1">
-        <v>92</v>
-      </c>
-      <c r="D196">
-        <v>9810</v>
-      </c>
-      <c r="E196">
-        <v>77</v>
-      </c>
-      <c r="F196">
-        <v>25</v>
-      </c>
-      <c r="G196">
-        <v>393</v>
-      </c>
-      <c r="H196">
-        <v>4</v>
-      </c>
-      <c r="I196">
-        <v>64</v>
-      </c>
-      <c r="J196">
-        <v>101</v>
-      </c>
-      <c r="K196">
-        <v>1789</v>
-      </c>
-      <c r="L196">
-        <v>898</v>
-      </c>
-      <c r="M196">
-        <v>0</v>
-      </c>
-      <c r="N196">
-        <v>3029</v>
-      </c>
-      <c r="O196" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P196" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q196" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>38</v>
-      </c>
-      <c r="B197" t="s">
-        <v>29</v>
-      </c>
-      <c r="C197" s="1">
-        <v>92</v>
-      </c>
-      <c r="D197">
-        <v>10004</v>
-      </c>
-      <c r="E197">
-        <v>77</v>
-      </c>
-      <c r="F197">
-        <v>24</v>
-      </c>
-      <c r="G197">
-        <v>568</v>
-      </c>
-      <c r="H197">
-        <v>24</v>
-      </c>
-      <c r="I197">
-        <v>66</v>
-      </c>
-      <c r="J197">
-        <v>149</v>
-      </c>
-      <c r="K197">
-        <v>1909</v>
-      </c>
-      <c r="L197">
-        <v>1003</v>
-      </c>
-      <c r="M197">
-        <v>57</v>
-      </c>
-      <c r="N197">
-        <v>3280</v>
-      </c>
-      <c r="O197" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P197" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q197" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>23</v>
-      </c>
-      <c r="B198" t="s">
-        <v>17</v>
-      </c>
-      <c r="C198" s="1">
-        <v>92</v>
-      </c>
-      <c r="D198">
-        <v>9639</v>
-      </c>
-      <c r="E198">
-        <v>77</v>
-      </c>
-      <c r="F198">
-        <v>26</v>
-      </c>
-      <c r="G198">
-        <v>422</v>
-      </c>
-      <c r="H198">
-        <v>15</v>
-      </c>
-      <c r="I198">
-        <v>76</v>
-      </c>
-      <c r="J198">
-        <v>118</v>
-      </c>
-      <c r="K198">
-        <v>1874</v>
-      </c>
-      <c r="L198">
-        <v>895</v>
-      </c>
-      <c r="M198">
-        <v>43</v>
-      </c>
-      <c r="N198">
-        <v>2962</v>
-      </c>
-      <c r="O198" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P198" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q198" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>34</v>
-      </c>
-      <c r="B199" t="s">
-        <v>15</v>
-      </c>
-      <c r="C199" s="1">
-        <v>92</v>
-      </c>
-      <c r="D199">
-        <v>8984</v>
-      </c>
-      <c r="E199">
-        <v>77</v>
-      </c>
-      <c r="F199">
-        <v>24</v>
-      </c>
-      <c r="G199">
-        <v>402</v>
-      </c>
-      <c r="H199">
-        <v>15</v>
-      </c>
-      <c r="I199">
-        <v>69</v>
-      </c>
-      <c r="J199">
-        <v>92</v>
-      </c>
-      <c r="K199">
-        <v>1975</v>
-      </c>
-      <c r="L199">
-        <v>482</v>
-      </c>
-      <c r="M199">
-        <v>4</v>
-      </c>
-      <c r="N199">
-        <v>2505</v>
-      </c>
-      <c r="O199" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P199" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q199" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>16</v>
-      </c>
-      <c r="B200" t="s">
-        <v>17</v>
-      </c>
-      <c r="C200" s="1">
-        <v>92</v>
-      </c>
-      <c r="D200">
-        <v>9493</v>
-      </c>
-      <c r="E200">
-        <v>77</v>
-      </c>
-      <c r="F200">
-        <v>25</v>
-      </c>
-      <c r="G200">
-        <v>537</v>
-      </c>
-      <c r="H200">
-        <v>11</v>
-      </c>
-      <c r="I200">
-        <v>66</v>
-      </c>
-      <c r="J200">
-        <v>110</v>
-      </c>
-      <c r="K200">
-        <v>1992</v>
-      </c>
-      <c r="L200">
-        <v>755</v>
-      </c>
-      <c r="M200">
-        <v>20</v>
-      </c>
-      <c r="N200">
-        <v>2860</v>
-      </c>
-      <c r="O200" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P200" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q200" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>24</v>
-      </c>
-      <c r="B201" t="s">
-        <v>29</v>
-      </c>
-      <c r="C201" s="1">
-        <v>92</v>
-      </c>
-      <c r="D201">
-        <v>8583</v>
-      </c>
-      <c r="E201">
-        <v>77</v>
-      </c>
-      <c r="F201">
-        <v>29</v>
-      </c>
-      <c r="G201">
-        <v>403</v>
-      </c>
-      <c r="H201">
-        <v>17</v>
-      </c>
-      <c r="I201">
-        <v>64</v>
-      </c>
-      <c r="J201">
-        <v>92</v>
-      </c>
-      <c r="K201">
-        <v>1873</v>
-      </c>
-      <c r="L201">
-        <v>629</v>
-      </c>
-      <c r="M201">
-        <v>24</v>
-      </c>
-      <c r="N201">
-        <v>2611</v>
-      </c>
-      <c r="O201" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P201" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q201" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>36</v>
-      </c>
-      <c r="B202" t="s">
-        <v>26</v>
-      </c>
-      <c r="C202" s="1">
-        <v>92</v>
-      </c>
-      <c r="D202">
-        <v>9657</v>
-      </c>
-      <c r="E202">
-        <v>77</v>
-      </c>
-      <c r="F202">
-        <v>26</v>
-      </c>
-      <c r="G202">
-        <v>535</v>
-      </c>
-      <c r="H202">
-        <v>18</v>
-      </c>
-      <c r="I202">
-        <v>77</v>
-      </c>
-      <c r="J202">
-        <v>143</v>
-      </c>
-      <c r="K202">
-        <v>1946</v>
-      </c>
-      <c r="L202">
-        <v>1069</v>
-      </c>
-      <c r="M202">
-        <v>9</v>
-      </c>
-      <c r="N202">
-        <v>3219</v>
-      </c>
-      <c r="O202" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P202" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q202" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>42</v>
-      </c>
-      <c r="B203" t="s">
-        <v>15</v>
-      </c>
-      <c r="C203" s="1">
-        <v>92</v>
-      </c>
-      <c r="D203">
-        <v>9493</v>
-      </c>
-      <c r="E203">
-        <v>77</v>
-      </c>
-      <c r="F203">
-        <v>23</v>
-      </c>
-      <c r="G203">
-        <v>284</v>
-      </c>
-      <c r="H203">
-        <v>7</v>
-      </c>
-      <c r="I203">
-        <v>30</v>
-      </c>
-      <c r="J203">
-        <v>69</v>
-      </c>
-      <c r="K203">
-        <v>1697</v>
-      </c>
-      <c r="L203">
-        <v>336</v>
-      </c>
-      <c r="M203">
-        <v>7</v>
-      </c>
-      <c r="N203">
-        <v>2152</v>
-      </c>
-      <c r="O203" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P203" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q203" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>31</v>
-      </c>
-      <c r="B204" t="s">
-        <v>19</v>
-      </c>
-      <c r="C204" s="1">
-        <v>92</v>
-      </c>
-      <c r="D204">
-        <v>8462</v>
-      </c>
-      <c r="E204">
-        <v>77</v>
-      </c>
-      <c r="F204">
-        <v>27</v>
-      </c>
-      <c r="G204">
-        <v>458</v>
-      </c>
-      <c r="H204">
-        <v>31</v>
-      </c>
-      <c r="I204">
-        <v>61</v>
-      </c>
-      <c r="J204">
-        <v>99</v>
-      </c>
-      <c r="K204">
-        <v>1945</v>
-      </c>
-      <c r="L204">
-        <v>577</v>
-      </c>
-      <c r="M204">
-        <v>42</v>
-      </c>
-      <c r="N204">
-        <v>2452</v>
-      </c>
-      <c r="O204" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P204" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>47</v>
-      </c>
-      <c r="B205" t="s">
-        <v>17</v>
-      </c>
-      <c r="C205" s="1">
-        <v>92</v>
-      </c>
-      <c r="D205">
-        <v>1815</v>
-      </c>
-      <c r="E205">
-        <v>77</v>
-      </c>
-      <c r="F205">
-        <v>20</v>
-      </c>
-      <c r="G205">
-        <v>132</v>
-      </c>
-      <c r="H205">
-        <v>2</v>
-      </c>
-      <c r="I205">
-        <v>28</v>
-      </c>
-      <c r="J205">
-        <v>28</v>
-      </c>
-      <c r="K205">
-        <v>83</v>
-      </c>
-      <c r="L205">
-        <v>0</v>
-      </c>
-      <c r="M205">
-        <v>0</v>
-      </c>
-      <c r="N205">
-        <v>345</v>
-      </c>
-      <c r="O205" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P205" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q205" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>22</v>
-      </c>
-      <c r="B206" t="s">
-        <v>17</v>
-      </c>
-      <c r="C206" s="1">
-        <v>92</v>
-      </c>
-      <c r="D206">
-        <v>9410</v>
-      </c>
-      <c r="E206">
-        <v>77</v>
-      </c>
-      <c r="F206">
-        <v>25</v>
-      </c>
-      <c r="G206">
-        <v>459</v>
-      </c>
-      <c r="H206">
-        <v>1</v>
-      </c>
-      <c r="I206">
-        <v>46</v>
-      </c>
-      <c r="J206">
-        <v>85</v>
-      </c>
-      <c r="K206">
-        <v>2028</v>
-      </c>
-      <c r="L206">
-        <v>570</v>
-      </c>
-      <c r="M206">
-        <v>0</v>
-      </c>
-      <c r="N206">
-        <v>2686</v>
-      </c>
-      <c r="O206" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P206" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q206" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>33</v>
-      </c>
-      <c r="B207" t="s">
-        <v>29</v>
-      </c>
-      <c r="C207" s="1">
-        <v>92</v>
-      </c>
-      <c r="D207">
-        <v>10316</v>
-      </c>
-      <c r="E207">
-        <v>77</v>
-      </c>
-      <c r="F207">
-        <v>25</v>
-      </c>
-      <c r="G207">
-        <v>579</v>
-      </c>
-      <c r="H207">
-        <v>11</v>
-      </c>
-      <c r="I207">
-        <v>87</v>
-      </c>
-      <c r="J207">
-        <v>162</v>
-      </c>
-      <c r="K207">
-        <v>1870</v>
-      </c>
-      <c r="L207">
-        <v>984</v>
-      </c>
-      <c r="M207">
-        <v>16</v>
-      </c>
-      <c r="N207">
-        <v>3324</v>
-      </c>
-      <c r="O207" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P207" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q207" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>37</v>
-      </c>
-      <c r="B208" t="s">
-        <v>17</v>
-      </c>
-      <c r="C208" s="1">
-        <v>92</v>
-      </c>
-      <c r="D208">
-        <v>9081</v>
-      </c>
-      <c r="E208">
-        <v>77</v>
-      </c>
-      <c r="F208">
-        <v>25</v>
-      </c>
-      <c r="G208">
-        <v>505</v>
-      </c>
-      <c r="H208">
-        <v>22</v>
-      </c>
-      <c r="I208">
-        <v>59</v>
-      </c>
-      <c r="J208">
-        <v>121</v>
-      </c>
-      <c r="K208">
-        <v>1970</v>
-      </c>
-      <c r="L208">
-        <v>693</v>
-      </c>
-      <c r="M208">
-        <v>60</v>
-      </c>
-      <c r="N208">
-        <v>2787</v>
-      </c>
-      <c r="O208" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P208" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q208" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>39</v>
-      </c>
-      <c r="B209" t="s">
-        <v>21</v>
-      </c>
-      <c r="C209" s="1">
-        <v>92</v>
-      </c>
-      <c r="D209">
-        <v>5703</v>
-      </c>
-      <c r="E209">
-        <v>77</v>
-      </c>
-      <c r="F209">
-        <v>23</v>
-      </c>
-      <c r="G209">
-        <v>319</v>
-      </c>
-      <c r="H209">
-        <v>21</v>
-      </c>
-      <c r="I209">
-        <v>95</v>
-      </c>
-      <c r="J209">
-        <v>125</v>
-      </c>
-      <c r="K209">
-        <v>1192</v>
-      </c>
-      <c r="L209">
-        <v>687</v>
-      </c>
-      <c r="M209">
-        <v>23</v>
-      </c>
-      <c r="N209">
-        <v>2194</v>
-      </c>
-      <c r="O209" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P209" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q209" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>27</v>
-      </c>
-      <c r="B210" t="s">
-        <v>19</v>
-      </c>
-      <c r="C210" s="1">
-        <v>92</v>
-      </c>
-      <c r="D210">
-        <v>9605</v>
-      </c>
-      <c r="E210">
-        <v>77</v>
-      </c>
-      <c r="F210">
-        <v>23</v>
-      </c>
-      <c r="G210">
-        <v>429</v>
-      </c>
-      <c r="H210">
-        <v>15</v>
-      </c>
-      <c r="I210">
-        <v>50</v>
-      </c>
-      <c r="J210">
-        <v>101</v>
-      </c>
-      <c r="K210">
-        <v>1767</v>
-      </c>
-      <c r="L210">
-        <v>774</v>
-      </c>
-      <c r="M210">
-        <v>0</v>
-      </c>
-      <c r="N210">
-        <v>2837</v>
-      </c>
-      <c r="O210" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P210" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q210" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>18</v>
-      </c>
-      <c r="B211" t="s">
-        <v>19</v>
-      </c>
-      <c r="C211" s="1">
-        <v>92</v>
-      </c>
-      <c r="D211">
-        <v>9640</v>
-      </c>
-      <c r="E211">
-        <v>77</v>
-      </c>
-      <c r="F211">
-        <v>25</v>
-      </c>
-      <c r="G211">
-        <v>484</v>
-      </c>
-      <c r="H211">
-        <v>5</v>
-      </c>
-      <c r="I211">
-        <v>69</v>
-      </c>
-      <c r="J211">
-        <v>105</v>
-      </c>
-      <c r="K211">
-        <v>1820</v>
-      </c>
-      <c r="L211">
-        <v>776</v>
-      </c>
-      <c r="M211">
-        <v>0</v>
-      </c>
-      <c r="N211">
-        <v>2829</v>
-      </c>
-      <c r="O211" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P211" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>46</v>
-      </c>
-      <c r="B212" t="s">
-        <v>19</v>
-      </c>
-      <c r="C212" s="1">
-        <v>92</v>
-      </c>
-      <c r="D212">
-        <v>8523</v>
-      </c>
-      <c r="E212">
-        <v>77</v>
-      </c>
-      <c r="F212">
-        <v>23</v>
-      </c>
-      <c r="G212">
-        <v>381</v>
-      </c>
-      <c r="H212">
-        <v>17</v>
-      </c>
-      <c r="I212">
-        <v>54</v>
-      </c>
-      <c r="J212">
-        <v>98</v>
-      </c>
-      <c r="K212">
-        <v>1699</v>
-      </c>
-      <c r="L212">
-        <v>700</v>
-      </c>
-      <c r="M212">
-        <v>17</v>
-      </c>
-      <c r="N212">
-        <v>2497</v>
-      </c>
-      <c r="O212" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P212" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>32</v>
-      </c>
-      <c r="B213" t="s">
-        <v>19</v>
-      </c>
-      <c r="C213" s="1">
-        <v>92</v>
-      </c>
-      <c r="D213">
-        <v>10037</v>
-      </c>
-      <c r="E213">
-        <v>77</v>
-      </c>
-      <c r="F213">
-        <v>29</v>
-      </c>
-      <c r="G213">
-        <v>484</v>
-      </c>
-      <c r="H213">
-        <v>23</v>
-      </c>
-      <c r="I213">
-        <v>84</v>
-      </c>
-      <c r="J213">
-        <v>193</v>
-      </c>
-      <c r="K213">
-        <v>1921</v>
-      </c>
-      <c r="L213">
-        <v>880</v>
-      </c>
-      <c r="M213">
-        <v>72</v>
-      </c>
-      <c r="N213">
-        <v>3127</v>
-      </c>
-      <c r="O213" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P213" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q213" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>28</v>
-      </c>
-      <c r="B214" t="s">
-        <v>29</v>
-      </c>
-      <c r="C214" s="1">
-        <v>92</v>
-      </c>
-      <c r="D214">
-        <v>8413</v>
-      </c>
-      <c r="E214">
-        <v>77</v>
-      </c>
-      <c r="F214">
-        <v>25</v>
-      </c>
-      <c r="G214">
-        <v>404</v>
-      </c>
-      <c r="H214">
-        <v>18</v>
-      </c>
-      <c r="I214">
-        <v>68</v>
-      </c>
-      <c r="J214">
-        <v>101</v>
-      </c>
-      <c r="K214">
-        <v>1661</v>
-      </c>
-      <c r="L214">
-        <v>672</v>
-      </c>
-      <c r="M214">
-        <v>3</v>
-      </c>
-      <c r="N214">
-        <v>2644</v>
-      </c>
-      <c r="O214" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P214" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>43</v>
-      </c>
-      <c r="B215" t="s">
-        <v>29</v>
-      </c>
-      <c r="C215" s="1">
-        <v>46</v>
-      </c>
-      <c r="D215" s="1">
-        <v>4502.21371</v>
-      </c>
-      <c r="E215" s="1">
-        <v>98.814019999999999</v>
-      </c>
-      <c r="F215" s="1">
-        <v>22.638660000000002</v>
-      </c>
-      <c r="G215" s="1">
-        <v>116.15</v>
-      </c>
-      <c r="H215" s="1">
-        <v>0</v>
-      </c>
-      <c r="I215" s="1">
-        <v>49.73</v>
-      </c>
-      <c r="J215" s="1">
-        <v>0</v>
-      </c>
-      <c r="K215" s="1">
-        <v>210.76</v>
-      </c>
-      <c r="L215" s="1">
-        <v>18.95</v>
-      </c>
-      <c r="M215" s="1">
-        <v>0</v>
-      </c>
-      <c r="N215" s="1">
-        <v>773.93998999999997</v>
-      </c>
-      <c r="O215" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P215" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>46</v>
-      </c>
-      <c r="B216" t="s">
-        <v>19</v>
-      </c>
-      <c r="C216" s="1">
-        <v>46</v>
-      </c>
-      <c r="D216" s="1">
-        <v>3946.6041599999999</v>
-      </c>
-      <c r="E216" s="1">
-        <v>86.619569999999996</v>
-      </c>
-      <c r="F216" s="1">
-        <v>25.675799999999999</v>
-      </c>
-      <c r="G216" s="1">
-        <v>126.79</v>
-      </c>
-      <c r="H216" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="I216" s="1">
-        <v>63.58</v>
-      </c>
-      <c r="J216" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="K216" s="1">
-        <v>112.65</v>
-      </c>
-      <c r="L216" s="1">
-        <v>16.309999999999999</v>
-      </c>
-      <c r="M216" s="1">
-        <v>3.84</v>
-      </c>
-      <c r="N216" s="1">
-        <v>480.69</v>
-      </c>
-      <c r="O216" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P216" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>42</v>
-      </c>
-      <c r="B217" t="s">
-        <v>15</v>
-      </c>
-      <c r="C217" s="1">
-        <v>46</v>
-      </c>
-      <c r="D217" s="1">
-        <v>4007.4099700000002</v>
-      </c>
-      <c r="E217" s="1">
-        <v>87.954130000000006</v>
-      </c>
-      <c r="F217" s="1">
-        <v>23.164719999999999</v>
-      </c>
-      <c r="G217" s="1">
-        <v>128.57</v>
-      </c>
-      <c r="H217" s="1">
-        <v>2.31</v>
-      </c>
-      <c r="I217" s="1">
-        <v>43.68</v>
-      </c>
-      <c r="J217" s="1">
-        <v>0</v>
-      </c>
-      <c r="K217" s="1">
-        <v>179.08</v>
-      </c>
-      <c r="L217" s="1">
-        <v>19.38</v>
-      </c>
-      <c r="M217" s="1">
-        <v>0</v>
-      </c>
-      <c r="N217" s="1">
-        <v>474.28998999999999</v>
-      </c>
-      <c r="O217" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P217" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>18</v>
-      </c>
-      <c r="B218" t="s">
-        <v>19</v>
-      </c>
-      <c r="C218" s="1">
-        <v>46</v>
-      </c>
-      <c r="D218" s="1">
-        <v>4335.0675700000002</v>
-      </c>
-      <c r="E218" s="1">
-        <v>95.145520000000005</v>
-      </c>
-      <c r="F218" s="1">
-        <v>24.361699999999999</v>
-      </c>
-      <c r="G218" s="1">
-        <v>134.46</v>
-      </c>
-      <c r="H218" s="1">
-        <v>0</v>
-      </c>
-      <c r="I218" s="1">
-        <v>58.34</v>
-      </c>
-      <c r="J218" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="K218" s="1">
-        <v>191.48</v>
-      </c>
-      <c r="L218" s="1">
-        <v>56.79</v>
-      </c>
-      <c r="M218" s="1">
-        <v>0</v>
-      </c>
-      <c r="N218" s="1">
-        <v>701.84001000000001</v>
-      </c>
-      <c r="O218" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P218" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q218" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>39</v>
-      </c>
-      <c r="B219" t="s">
-        <v>21</v>
-      </c>
-      <c r="C219" s="1">
-        <v>34</v>
-      </c>
-      <c r="D219" s="1">
-        <v>3966.2979399999999</v>
-      </c>
-      <c r="E219" s="1">
-        <v>117.60299000000001</v>
-      </c>
-      <c r="F219" s="1">
-        <v>24.261030000000002</v>
-      </c>
-      <c r="G219" s="1">
-        <v>138.68</v>
-      </c>
-      <c r="H219" s="1">
-        <v>0</v>
-      </c>
-      <c r="I219" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="J219" s="1">
-        <v>0</v>
-      </c>
-      <c r="K219" s="1">
-        <v>1319.2200499999999</v>
-      </c>
-      <c r="L219" s="1">
-        <v>1614.4499499999999</v>
-      </c>
-      <c r="M219" s="1">
-        <v>0</v>
-      </c>
-      <c r="N219" s="1">
-        <v>2788.5700099999999</v>
-      </c>
-      <c r="O219" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P219" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q219" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>25</v>
-      </c>
-      <c r="B220" t="s">
-        <v>26</v>
-      </c>
-      <c r="C220" s="1">
-        <v>46</v>
-      </c>
-      <c r="D220" s="1">
-        <v>4429.7229299999999</v>
-      </c>
-      <c r="E220" s="1">
-        <v>97.222999999999999</v>
-      </c>
-      <c r="F220" s="1">
-        <v>24.962219999999999</v>
-      </c>
-      <c r="G220" s="1">
-        <v>139.05000000000001</v>
-      </c>
-      <c r="H220" s="1">
-        <v>0</v>
-      </c>
-      <c r="I220" s="1">
-        <v>56.61</v>
-      </c>
-      <c r="J220" s="1">
-        <v>0</v>
-      </c>
-      <c r="K220" s="1">
-        <v>307.49</v>
-      </c>
-      <c r="L220" s="1">
-        <v>40.65</v>
-      </c>
-      <c r="M220" s="1">
-        <v>0</v>
-      </c>
-      <c r="N220" s="1">
-        <v>795.74998000000005</v>
-      </c>
-      <c r="O220" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P220" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>45</v>
-      </c>
-      <c r="B221" t="s">
-        <v>15</v>
-      </c>
-      <c r="C221" s="1">
-        <v>46</v>
-      </c>
-      <c r="D221" s="1">
-        <v>3635.0910899999999</v>
-      </c>
-      <c r="E221" s="1">
-        <v>79.782520000000005</v>
-      </c>
-      <c r="F221" s="1">
-        <v>22.75958</v>
-      </c>
-      <c r="G221" s="1">
-        <v>140.12</v>
-      </c>
-      <c r="H221" s="1">
-        <v>0</v>
-      </c>
-      <c r="I221" s="1">
-        <v>46.06</v>
-      </c>
-      <c r="J221" s="1">
-        <v>1.47</v>
-      </c>
-      <c r="K221" s="1">
-        <v>105.59</v>
-      </c>
-      <c r="L221" s="1">
-        <v>20.72</v>
-      </c>
-      <c r="M221" s="1">
-        <v>0</v>
-      </c>
-      <c r="N221" s="1">
-        <v>405.49</v>
-      </c>
-      <c r="O221" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P221" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q221" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>31</v>
-      </c>
-      <c r="B222" t="s">
-        <v>19</v>
-      </c>
-      <c r="C222" s="1">
-        <v>46</v>
-      </c>
-      <c r="D222" s="1">
-        <v>3675.5329299999999</v>
-      </c>
-      <c r="E222" s="1">
-        <v>80.67013</v>
-      </c>
-      <c r="F222" s="1">
-        <v>22.571739999999998</v>
-      </c>
-      <c r="G222" s="1">
-        <v>147.68</v>
-      </c>
-      <c r="H222" s="1">
-        <v>0</v>
-      </c>
-      <c r="I222" s="1">
-        <v>47.64</v>
-      </c>
-      <c r="J222" s="1">
-        <v>1.42</v>
-      </c>
-      <c r="K222" s="1">
-        <v>97.54</v>
-      </c>
-      <c r="L222" s="1">
-        <v>43.15</v>
-      </c>
-      <c r="M222" s="1">
-        <v>0</v>
-      </c>
-      <c r="N222" s="1">
-        <v>408.97998999999999</v>
-      </c>
-      <c r="O222" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P222" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q222" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>27</v>
-      </c>
-      <c r="B223" t="s">
-        <v>19</v>
-      </c>
-      <c r="C223" s="1">
-        <v>46</v>
-      </c>
-      <c r="D223" s="1">
-        <v>4251.0176099999999</v>
-      </c>
-      <c r="E223" s="1">
-        <v>93.300799999999995</v>
-      </c>
-      <c r="F223" s="1">
-        <v>23.937049999999999</v>
-      </c>
-      <c r="G223" s="1">
-        <v>168.84</v>
-      </c>
-      <c r="H223" s="1">
-        <v>2.67</v>
-      </c>
-      <c r="I223" s="1">
-        <v>54.94</v>
-      </c>
-      <c r="J223" s="1">
-        <v>1.61</v>
-      </c>
-      <c r="K223" s="1">
-        <v>154.75</v>
-      </c>
-      <c r="L223" s="1">
-        <v>21.66</v>
-      </c>
-      <c r="M223" s="1">
-        <v>0</v>
-      </c>
-      <c r="N223" s="1">
-        <v>592.62</v>
-      </c>
-      <c r="O223" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P223" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>24</v>
-      </c>
-      <c r="B224" t="s">
-        <v>21</v>
-      </c>
-      <c r="C224" s="1">
-        <v>46</v>
-      </c>
-      <c r="D224" s="1">
-        <v>4186.5508099999997</v>
-      </c>
-      <c r="E224" s="1">
-        <v>91.885890000000003</v>
-      </c>
-      <c r="F224" s="1">
-        <v>23.826519999999999</v>
-      </c>
-      <c r="G224" s="1">
-        <v>169.26</v>
-      </c>
-      <c r="H224" s="1">
-        <v>5.19</v>
-      </c>
-      <c r="I224" s="1">
-        <v>66</v>
-      </c>
-      <c r="J224" s="1">
-        <v>1.99</v>
-      </c>
-      <c r="K224" s="1">
-        <v>206.98</v>
-      </c>
-      <c r="L224" s="1">
-        <v>76.72</v>
-      </c>
-      <c r="M224" s="1">
-        <v>0</v>
-      </c>
-      <c r="N224" s="1">
-        <v>634.69000000000005</v>
-      </c>
-      <c r="O224" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P224" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>33</v>
-      </c>
-      <c r="B225" t="s">
-        <v>29</v>
-      </c>
-      <c r="C225" s="1">
-        <v>46</v>
-      </c>
-      <c r="D225" s="1">
-        <v>4322.8894</v>
-      </c>
-      <c r="E225" s="1">
-        <v>94.878230000000002</v>
-      </c>
-      <c r="F225" s="1">
-        <v>21.973739999999999</v>
-      </c>
-      <c r="G225" s="1">
-        <v>171.89</v>
-      </c>
-      <c r="H225" s="1">
-        <v>0</v>
-      </c>
-      <c r="I225" s="1">
-        <v>59.06</v>
-      </c>
-      <c r="J225" s="1">
-        <v>3.94</v>
-      </c>
-      <c r="K225" s="1">
-        <v>132.29</v>
-      </c>
-      <c r="L225" s="1">
-        <v>25.55</v>
-      </c>
-      <c r="M225" s="1">
-        <v>0</v>
-      </c>
-      <c r="N225" s="1">
-        <v>594.24</v>
-      </c>
-      <c r="O225" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P225" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q225" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>28</v>
-      </c>
-      <c r="B226" t="s">
-        <v>29</v>
-      </c>
-      <c r="C226" s="1">
-        <v>46</v>
-      </c>
-      <c r="D226" s="1">
-        <v>4176.3500700000004</v>
-      </c>
-      <c r="E226" s="1">
-        <v>91.662000000000006</v>
-      </c>
-      <c r="F226" s="1">
-        <v>23.493839999999999</v>
-      </c>
-      <c r="G226" s="1">
-        <v>191.71</v>
-      </c>
-      <c r="H226" s="1">
-        <v>0</v>
-      </c>
-      <c r="I226" s="1">
-        <v>54.05</v>
-      </c>
-      <c r="J226" s="1">
-        <v>2.16</v>
-      </c>
-      <c r="K226" s="1">
-        <v>204.64</v>
-      </c>
-      <c r="L226" s="1">
-        <v>20.47</v>
-      </c>
-      <c r="M226" s="1">
-        <v>0</v>
-      </c>
-      <c r="N226" s="1">
-        <v>686.28</v>
-      </c>
-      <c r="O226" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P226" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q226" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>37</v>
-      </c>
-      <c r="B227" t="s">
-        <v>17</v>
-      </c>
-      <c r="C227" s="1">
-        <v>46</v>
-      </c>
-      <c r="D227" s="1">
-        <v>4289.0539900000003</v>
-      </c>
-      <c r="E227" s="1">
-        <v>94.135620000000003</v>
-      </c>
-      <c r="F227" s="1">
-        <v>25.59329</v>
-      </c>
-      <c r="G227" s="1">
-        <v>192.47</v>
-      </c>
-      <c r="H227" s="1">
-        <v>3.93</v>
-      </c>
-      <c r="I227" s="1">
-        <v>68.41</v>
-      </c>
-      <c r="J227" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="K227" s="1">
-        <v>253.73</v>
-      </c>
-      <c r="L227" s="1">
-        <v>66.08</v>
-      </c>
-      <c r="M227" s="1">
-        <v>4.08</v>
-      </c>
-      <c r="N227" s="1">
-        <v>741.26999000000001</v>
-      </c>
-      <c r="O227" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P227" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>44</v>
-      </c>
-      <c r="B228" t="s">
-        <v>26</v>
-      </c>
-      <c r="C228" s="1">
-        <v>46</v>
-      </c>
-      <c r="D228" s="1">
-        <v>4386.7055099999998</v>
-      </c>
-      <c r="E228" s="1">
-        <v>96.278859999999995</v>
-      </c>
-      <c r="F228" s="1">
-        <v>24.26887</v>
-      </c>
-      <c r="G228" s="1">
-        <v>194.03</v>
-      </c>
-      <c r="H228" s="1">
-        <v>0</v>
-      </c>
-      <c r="I228" s="1">
-        <v>64.59</v>
-      </c>
-      <c r="J228" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="K228" s="1">
-        <v>234.5</v>
-      </c>
-      <c r="L228" s="1">
-        <v>63.4</v>
-      </c>
-      <c r="M228" s="1">
-        <v>0</v>
-      </c>
-      <c r="N228" s="1">
-        <v>757.03998999999999</v>
-      </c>
-      <c r="O228" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P228" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>47</v>
-      </c>
-      <c r="B229" t="s">
-        <v>17</v>
-      </c>
-      <c r="C229" s="1">
-        <v>46</v>
-      </c>
-      <c r="D229" s="1">
-        <v>4283.1275900000001</v>
-      </c>
-      <c r="E229" s="1">
-        <v>94.005539999999996</v>
-      </c>
-      <c r="F229" s="1">
-        <v>22.965620000000001</v>
-      </c>
-      <c r="G229" s="1">
-        <v>197.34</v>
-      </c>
-      <c r="H229" s="1">
-        <v>5.56</v>
-      </c>
-      <c r="I229" s="1">
-        <v>76.069999999999993</v>
-      </c>
-      <c r="J229" s="1">
-        <v>4.21</v>
-      </c>
-      <c r="K229" s="1">
-        <v>227.56</v>
-      </c>
-      <c r="L229" s="1">
-        <v>55.47</v>
-      </c>
-      <c r="M229" s="1">
-        <v>0</v>
-      </c>
-      <c r="N229" s="1">
-        <v>697.31998999999996</v>
-      </c>
-      <c r="O229" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P229" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q229" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>23</v>
-      </c>
-      <c r="B230" t="s">
-        <v>17</v>
-      </c>
-      <c r="C230" s="1">
-        <v>46</v>
-      </c>
-      <c r="D230" s="1">
-        <v>4527.23056</v>
-      </c>
-      <c r="E230" s="1">
-        <v>99.363079999999997</v>
-      </c>
-      <c r="F230" s="1">
-        <v>25.841619999999999</v>
-      </c>
-      <c r="G230" s="1">
-        <v>200.37</v>
-      </c>
-      <c r="H230" s="1">
-        <v>3.43</v>
-      </c>
-      <c r="I230" s="1">
-        <v>67.55</v>
-      </c>
-      <c r="J230" s="1">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K230" s="1">
-        <v>204.89999</v>
-      </c>
-      <c r="L230" s="1">
-        <v>30.92</v>
-      </c>
-      <c r="M230" s="1">
-        <v>8.57</v>
-      </c>
-      <c r="N230" s="1">
-        <v>730.86000999999999</v>
-      </c>
-      <c r="O230" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P230" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q230" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>48</v>
-      </c>
-      <c r="B231" t="s">
-        <v>26</v>
-      </c>
-      <c r="C231" s="1">
-        <v>46</v>
-      </c>
-      <c r="D231" s="1">
-        <v>4717.9655499999999</v>
-      </c>
-      <c r="E231" s="1">
-        <v>103.54931000000001</v>
-      </c>
-      <c r="F231" s="1">
-        <v>29.248609999999999</v>
-      </c>
-      <c r="G231" s="1">
-        <v>206.39</v>
-      </c>
-      <c r="H231" s="1">
-        <v>7.55</v>
-      </c>
-      <c r="I231" s="1">
-        <v>72.97</v>
-      </c>
-      <c r="J231" s="1">
-        <v>4.79</v>
-      </c>
-      <c r="K231" s="1">
-        <v>322.75</v>
-      </c>
-      <c r="L231" s="1">
-        <v>89.88</v>
-      </c>
-      <c r="M231" s="1">
-        <v>22.43</v>
-      </c>
-      <c r="N231" s="1">
-        <v>881.94</v>
-      </c>
-      <c r="O231" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P231" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q231" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>32</v>
-      </c>
-      <c r="B232" t="s">
-        <v>19</v>
-      </c>
-      <c r="C232" s="1">
-        <v>46</v>
-      </c>
-      <c r="D232" s="1">
-        <v>4854.3618800000004</v>
-      </c>
-      <c r="E232" s="1">
-        <v>106.54292</v>
-      </c>
-      <c r="F232" s="1">
-        <v>25.027339999999999</v>
-      </c>
-      <c r="G232" s="1">
-        <v>209.51</v>
-      </c>
-      <c r="H232" s="1">
-        <v>0</v>
-      </c>
-      <c r="I232" s="1">
-        <v>88.55</v>
-      </c>
-      <c r="J232" s="1">
-        <v>3.76</v>
-      </c>
-      <c r="K232" s="1">
-        <v>279.54000000000002</v>
-      </c>
-      <c r="L232" s="1">
-        <v>77.75</v>
-      </c>
-      <c r="M232" s="1">
-        <v>0</v>
-      </c>
-      <c r="N232" s="1">
-        <v>824.06998999999996</v>
-      </c>
-      <c r="O232" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P232" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q232" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>30</v>
-      </c>
-      <c r="B233" t="s">
-        <v>15</v>
-      </c>
-      <c r="C233" s="1">
-        <v>46</v>
-      </c>
-      <c r="D233" s="1">
-        <v>4537.6557300000004</v>
-      </c>
-      <c r="E233" s="1">
-        <v>99.591899999999995</v>
-      </c>
-      <c r="F233" s="1">
-        <v>20.429639999999999</v>
-      </c>
-      <c r="G233" s="1">
-        <v>213.02</v>
-      </c>
-      <c r="H233" s="1">
-        <v>0</v>
-      </c>
-      <c r="I233" s="1">
-        <v>65.84</v>
-      </c>
-      <c r="J233" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="K233" s="1">
-        <v>214.85</v>
-      </c>
-      <c r="L233" s="1">
-        <v>5.68</v>
-      </c>
-      <c r="M233" s="1">
-        <v>0</v>
-      </c>
-      <c r="N233" s="1">
-        <v>865.75001999999995</v>
-      </c>
-      <c r="O233" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P233" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q233" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>38</v>
-      </c>
-      <c r="B234" t="s">
-        <v>29</v>
-      </c>
-      <c r="C234" s="1">
-        <v>46</v>
-      </c>
-      <c r="D234" s="1">
-        <v>4569.4333500000002</v>
-      </c>
-      <c r="E234" s="1">
-        <v>100.28935</v>
-      </c>
-      <c r="F234" s="1">
-        <v>25.789470000000001</v>
-      </c>
-      <c r="G234" s="1">
-        <v>242.78</v>
-      </c>
-      <c r="H234" s="1">
-        <v>0</v>
-      </c>
-      <c r="I234" s="1">
-        <v>89.56</v>
-      </c>
-      <c r="J234" s="1">
-        <v>2.68</v>
-      </c>
-      <c r="K234" s="1">
-        <v>402.78</v>
-      </c>
-      <c r="L234" s="1">
-        <v>78.89</v>
-      </c>
-      <c r="M234" s="1">
-        <v>5.35</v>
-      </c>
-      <c r="N234" s="1">
-        <v>978.84</v>
-      </c>
-      <c r="O234" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P234" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q234" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>16</v>
-      </c>
-      <c r="B235" t="s">
-        <v>17</v>
-      </c>
-      <c r="C235" s="1">
-        <v>46</v>
-      </c>
-      <c r="D235" s="1">
-        <v>4192.3646900000003</v>
-      </c>
-      <c r="E235" s="1">
-        <v>92.013490000000004</v>
-      </c>
-      <c r="F235" s="1">
-        <v>24.021709999999999</v>
-      </c>
-      <c r="G235" s="1">
-        <v>250.55</v>
-      </c>
-      <c r="H235" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="I235" s="1">
-        <v>75.62</v>
-      </c>
-      <c r="J235" s="1">
-        <v>2.19</v>
-      </c>
-      <c r="K235" s="1">
-        <v>252.7</v>
-      </c>
-      <c r="L235" s="1">
-        <v>56.96</v>
-      </c>
-      <c r="M235" s="1">
-        <v>0</v>
-      </c>
-      <c r="N235" s="1">
-        <v>752.19001000000003</v>
-      </c>
-      <c r="O235" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P235" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>35</v>
-      </c>
-      <c r="B236" t="s">
-        <v>26</v>
-      </c>
-      <c r="C236" s="1">
-        <v>46</v>
-      </c>
-      <c r="D236" s="1">
-        <v>5056.18732</v>
-      </c>
-      <c r="E236" s="1">
-        <v>110.97256</v>
-      </c>
-      <c r="F236" s="1">
-        <v>27.657060000000001</v>
-      </c>
-      <c r="G236" s="1">
-        <v>253.8</v>
-      </c>
-      <c r="H236" s="1">
-        <v>11.73</v>
-      </c>
-      <c r="I236" s="1">
-        <v>83.1</v>
-      </c>
-      <c r="J236" s="1">
-        <v>6.74</v>
-      </c>
-      <c r="K236" s="1">
-        <v>352.5</v>
-      </c>
-      <c r="L236" s="1">
-        <v>135.57</v>
-      </c>
-      <c r="M236" s="1">
-        <v>24.67</v>
-      </c>
-      <c r="N236" s="1">
-        <v>935.04998999999998</v>
-      </c>
-      <c r="O236" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P236" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q236" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>22</v>
-      </c>
-      <c r="B237" t="s">
-        <v>17</v>
-      </c>
-      <c r="C237" s="1">
-        <v>46</v>
-      </c>
-      <c r="D237" s="1">
-        <v>4640.9263600000004</v>
-      </c>
-      <c r="E237" s="1">
-        <v>101.85847</v>
-      </c>
-      <c r="F237" s="1">
-        <v>27.36129</v>
-      </c>
-      <c r="G237" s="1">
-        <v>257.77</v>
-      </c>
-      <c r="H237" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="I237" s="1">
-        <v>70.27</v>
-      </c>
-      <c r="J237" s="1">
-        <v>1.57</v>
-      </c>
-      <c r="K237" s="1">
-        <v>317.31</v>
-      </c>
-      <c r="L237" s="1">
-        <v>74.510000000000005</v>
-      </c>
-      <c r="M237" s="1">
-        <v>7.52</v>
-      </c>
-      <c r="N237" s="1">
-        <v>885.86</v>
-      </c>
-      <c r="O237" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P237" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q237" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>20</v>
-      </c>
-      <c r="B238" t="s">
-        <v>21</v>
-      </c>
-      <c r="C238" s="1">
-        <v>46</v>
-      </c>
-      <c r="D238" s="1">
-        <v>4389.1629000000003</v>
-      </c>
-      <c r="E238" s="1">
-        <v>96.332790000000003</v>
-      </c>
-      <c r="F238" s="1">
-        <v>26.434100000000001</v>
-      </c>
-      <c r="G238" s="1">
-        <v>259.83</v>
-      </c>
-      <c r="H238" s="1">
-        <v>2.68</v>
-      </c>
-      <c r="I238" s="1">
-        <v>92.03</v>
-      </c>
-      <c r="J238" s="1">
-        <v>6.32</v>
-      </c>
-      <c r="K238" s="1">
-        <v>254.39</v>
-      </c>
-      <c r="L238" s="1">
-        <v>75.06</v>
-      </c>
-      <c r="M238" s="1">
-        <v>15.77</v>
-      </c>
-      <c r="N238" s="1">
-        <v>784.91998999999998</v>
-      </c>
-      <c r="O238" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P238" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q238" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>34</v>
-      </c>
-      <c r="B239" t="s">
-        <v>15</v>
-      </c>
-      <c r="C239" s="1">
-        <v>46</v>
-      </c>
-      <c r="D239" s="1">
-        <v>4621.6325999999999</v>
-      </c>
-      <c r="E239" s="1">
-        <v>101.43501000000001</v>
-      </c>
-      <c r="F239" s="1">
-        <v>22.26595</v>
-      </c>
-      <c r="G239" s="1">
-        <v>282.04000000000002</v>
-      </c>
-      <c r="H239" s="1">
-        <v>0</v>
-      </c>
-      <c r="I239" s="1">
-        <v>74.819999999999993</v>
-      </c>
-      <c r="J239" s="1">
-        <v>2.04</v>
-      </c>
-      <c r="K239" s="1">
-        <v>250.94</v>
-      </c>
-      <c r="L239" s="1">
-        <v>36.380000000000003</v>
-      </c>
-      <c r="M239" s="1">
-        <v>0</v>
-      </c>
-      <c r="N239" s="1">
-        <v>778.76999000000001</v>
-      </c>
-      <c r="O239" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P239" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q239" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>36</v>
-      </c>
-      <c r="B240" t="s">
-        <v>26</v>
-      </c>
-      <c r="C240" s="1">
-        <v>46</v>
-      </c>
-      <c r="D240" s="1">
-        <v>4325.4939299999996</v>
-      </c>
-      <c r="E240" s="1">
-        <v>94.935389999999998</v>
-      </c>
-      <c r="F240" s="1">
-        <v>25.070709999999998</v>
-      </c>
-      <c r="G240" s="1">
-        <v>286.58999999999997</v>
-      </c>
-      <c r="H240" s="1">
-        <v>1.62</v>
-      </c>
-      <c r="I240" s="1">
-        <v>92.33</v>
-      </c>
-      <c r="J240" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="K240" s="1">
-        <v>366.74</v>
-      </c>
-      <c r="L240" s="1">
-        <v>119.92</v>
-      </c>
-      <c r="M240" s="1">
-        <v>0</v>
-      </c>
-      <c r="N240" s="1">
-        <v>976.22</v>
-      </c>
-      <c r="O240" s="2">
-        <v>46036</v>
-      </c>
-      <c r="P240" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q240" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/carga.xlsx
+++ b/carga.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucianogaliano/Desktop/gps_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C76B38-57C9-1447-8DAB-0F77F4952FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19C04D4-9722-1E4C-9442-32ADA5F21F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="20740" windowHeight="11040" xr2:uid="{D0952F60-EA13-452A-8089-133E1849F9A5}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20740" windowHeight="11040" activeTab="1" xr2:uid="{D0952F60-EA13-452A-8089-133E1849F9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="CARGA" sheetId="1" r:id="rId1"/>
+    <sheet name="Baselines" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -169,10 +170,7 @@
     <t>Mauro Peinipil</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Entrenamiento</t>
+    <t xml:space="preserve">Acc Mts 2-4 m/ss </t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBA7B75-84C1-4AE6-98BA-083E5BBCB190}">
-  <dimension ref="A1:Q240"/>
+  <dimension ref="A1:P317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q240"/>
+    <sheetView topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1024,7 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,11 +1073,8 @@
       <c r="P1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1128,11 +1123,8 @@
       <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1181,11 +1173,8 @@
       <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1234,11 +1223,8 @@
       <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1287,11 +1273,8 @@
       <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1340,11 +1323,8 @@
       <c r="P6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1393,11 +1373,8 @@
       <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1446,11 +1423,8 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1499,11 +1473,8 @@
       <c r="P9" s="1">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1552,11 +1523,8 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1605,11 +1573,8 @@
       <c r="P11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1658,11 +1623,8 @@
       <c r="P12" s="1">
         <v>1</v>
       </c>
-      <c r="Q12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1711,11 +1673,8 @@
       <c r="P13" s="1">
         <v>1</v>
       </c>
-      <c r="Q13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1764,11 +1723,8 @@
       <c r="P14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1817,11 +1773,8 @@
       <c r="P15" s="1">
         <v>1</v>
       </c>
-      <c r="Q15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1870,11 +1823,8 @@
       <c r="P16" s="1">
         <v>1</v>
       </c>
-      <c r="Q16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1923,11 +1873,8 @@
       <c r="P17" s="1">
         <v>1</v>
       </c>
-      <c r="Q17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1976,11 +1923,8 @@
       <c r="P18" s="1">
         <v>1</v>
       </c>
-      <c r="Q18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2029,11 +1973,8 @@
       <c r="P19" s="1">
         <v>1</v>
       </c>
-      <c r="Q19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2082,11 +2023,8 @@
       <c r="P20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2135,11 +2073,8 @@
       <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2188,11 +2123,8 @@
       <c r="P22" s="1">
         <v>1</v>
       </c>
-      <c r="Q22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2241,11 +2173,8 @@
       <c r="P23" s="1">
         <v>1</v>
       </c>
-      <c r="Q23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2294,11 +2223,8 @@
       <c r="P24" s="1">
         <v>1</v>
       </c>
-      <c r="Q24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2347,11 +2273,8 @@
       <c r="P25" s="1">
         <v>1</v>
       </c>
-      <c r="Q25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2400,11 +2323,8 @@
       <c r="P26" s="1">
         <v>1</v>
       </c>
-      <c r="Q26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2453,11 +2373,8 @@
       <c r="P27" s="1">
         <v>1</v>
       </c>
-      <c r="Q27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2506,11 +2423,8 @@
       <c r="P28" s="1">
         <v>1</v>
       </c>
-      <c r="Q28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2559,11 +2473,8 @@
       <c r="P29" s="1">
         <v>1</v>
       </c>
-      <c r="Q29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2612,11 +2523,8 @@
       <c r="P30" s="1">
         <v>1</v>
       </c>
-      <c r="Q30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2665,11 +2573,8 @@
       <c r="P31" s="1">
         <v>1</v>
       </c>
-      <c r="Q31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2718,11 +2623,8 @@
       <c r="P32" s="1">
         <v>1</v>
       </c>
-      <c r="Q32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2771,11 +2673,8 @@
       <c r="P33" s="1">
         <v>1</v>
       </c>
-      <c r="Q33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2824,11 +2723,8 @@
       <c r="P34" s="1">
         <v>1</v>
       </c>
-      <c r="Q34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2877,11 +2773,8 @@
       <c r="P35" s="1">
         <v>1</v>
       </c>
-      <c r="Q35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2930,11 +2823,8 @@
       <c r="P36" s="1">
         <v>1</v>
       </c>
-      <c r="Q36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2983,11 +2873,8 @@
       <c r="P37" s="1">
         <v>1</v>
       </c>
-      <c r="Q37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3036,11 +2923,8 @@
       <c r="P38" s="1">
         <v>1</v>
       </c>
-      <c r="Q38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3089,11 +2973,8 @@
       <c r="P39" s="1">
         <v>1</v>
       </c>
-      <c r="Q39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -3142,11 +3023,8 @@
       <c r="P40" s="1">
         <v>1</v>
       </c>
-      <c r="Q40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -3195,11 +3073,8 @@
       <c r="P41" s="1">
         <v>1</v>
       </c>
-      <c r="Q41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3248,11 +3123,8 @@
       <c r="P42" s="1">
         <v>2</v>
       </c>
-      <c r="Q42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -3301,11 +3173,8 @@
       <c r="P43" s="1">
         <v>2</v>
       </c>
-      <c r="Q43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -3354,11 +3223,8 @@
       <c r="P44" s="1">
         <v>2</v>
       </c>
-      <c r="Q44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -3407,11 +3273,8 @@
       <c r="P45" s="1">
         <v>2</v>
       </c>
-      <c r="Q45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -3460,11 +3323,8 @@
       <c r="P46" s="1">
         <v>2</v>
       </c>
-      <c r="Q46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -3513,11 +3373,8 @@
       <c r="P47" s="1">
         <v>2</v>
       </c>
-      <c r="Q47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -3566,11 +3423,8 @@
       <c r="P48" s="1">
         <v>2</v>
       </c>
-      <c r="Q48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3619,11 +3473,8 @@
       <c r="P49" s="1">
         <v>2</v>
       </c>
-      <c r="Q49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -3672,11 +3523,8 @@
       <c r="P50" s="1">
         <v>2</v>
       </c>
-      <c r="Q50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3725,11 +3573,8 @@
       <c r="P51" s="1">
         <v>2</v>
       </c>
-      <c r="Q51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -3778,11 +3623,8 @@
       <c r="P52" s="1">
         <v>2</v>
       </c>
-      <c r="Q52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3831,11 +3673,8 @@
       <c r="P53" s="1">
         <v>2</v>
       </c>
-      <c r="Q53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -3884,11 +3723,8 @@
       <c r="P54" s="1">
         <v>2</v>
       </c>
-      <c r="Q54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -3937,11 +3773,8 @@
       <c r="P55" s="1">
         <v>2</v>
       </c>
-      <c r="Q55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -3990,11 +3823,8 @@
       <c r="P56" s="1">
         <v>2</v>
       </c>
-      <c r="Q56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -4043,11 +3873,8 @@
       <c r="P57" s="1">
         <v>2</v>
       </c>
-      <c r="Q57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -4096,11 +3923,8 @@
       <c r="P58" s="1">
         <v>2</v>
       </c>
-      <c r="Q58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -4149,11 +3973,8 @@
       <c r="P59" s="1">
         <v>2</v>
       </c>
-      <c r="Q59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -4202,11 +4023,8 @@
       <c r="P60" s="1">
         <v>2</v>
       </c>
-      <c r="Q60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -4255,11 +4073,8 @@
       <c r="P61" s="1">
         <v>2</v>
       </c>
-      <c r="Q61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -4308,11 +4123,8 @@
       <c r="P62" s="1">
         <v>2</v>
       </c>
-      <c r="Q62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -4361,11 +4173,8 @@
       <c r="P63" s="1">
         <v>2</v>
       </c>
-      <c r="Q63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -4414,11 +4223,8 @@
       <c r="P64" s="1">
         <v>2</v>
       </c>
-      <c r="Q64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -4467,11 +4273,8 @@
       <c r="P65" s="1">
         <v>2</v>
       </c>
-      <c r="Q65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -4520,11 +4323,8 @@
       <c r="P66" s="1">
         <v>2</v>
       </c>
-      <c r="Q66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -4573,11 +4373,8 @@
       <c r="P67" s="1">
         <v>2</v>
       </c>
-      <c r="Q67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -4626,11 +4423,8 @@
       <c r="P68" s="1">
         <v>2</v>
       </c>
-      <c r="Q68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -4679,11 +4473,8 @@
       <c r="P69" s="1">
         <v>2</v>
       </c>
-      <c r="Q69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -4732,11 +4523,8 @@
       <c r="P70" s="1">
         <v>2</v>
       </c>
-      <c r="Q70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -4785,11 +4573,8 @@
       <c r="P71" s="1">
         <v>2</v>
       </c>
-      <c r="Q71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -4838,11 +4623,8 @@
       <c r="P72" s="1">
         <v>2</v>
       </c>
-      <c r="Q72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -4891,11 +4673,8 @@
       <c r="P73" s="1">
         <v>2</v>
       </c>
-      <c r="Q73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -4944,11 +4723,8 @@
       <c r="P74" s="1">
         <v>2</v>
       </c>
-      <c r="Q74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -4997,11 +4773,8 @@
       <c r="P75" s="1">
         <v>2</v>
       </c>
-      <c r="Q75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -5050,11 +4823,8 @@
       <c r="P76" s="1">
         <v>2</v>
       </c>
-      <c r="Q76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -5103,11 +4873,8 @@
       <c r="P77" s="1">
         <v>2</v>
       </c>
-      <c r="Q77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -5156,11 +4923,8 @@
       <c r="P78" s="1">
         <v>2</v>
       </c>
-      <c r="Q78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -5209,11 +4973,8 @@
       <c r="P79" s="1">
         <v>2</v>
       </c>
-      <c r="Q79" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -5262,11 +5023,8 @@
       <c r="P80" s="1">
         <v>2</v>
       </c>
-      <c r="Q80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -5315,11 +5073,8 @@
       <c r="P81" s="1">
         <v>2</v>
       </c>
-      <c r="Q81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -5368,11 +5123,8 @@
       <c r="P82" s="1">
         <v>2</v>
       </c>
-      <c r="Q82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -5421,11 +5173,8 @@
       <c r="P83" s="1">
         <v>2</v>
       </c>
-      <c r="Q83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>25</v>
       </c>
@@ -5474,11 +5223,8 @@
       <c r="P84" s="1">
         <v>2</v>
       </c>
-      <c r="Q84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -5527,11 +5273,8 @@
       <c r="P85" s="1">
         <v>2</v>
       </c>
-      <c r="Q85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -5580,11 +5323,8 @@
       <c r="P86" s="1">
         <v>2</v>
       </c>
-      <c r="Q86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -5633,11 +5373,8 @@
       <c r="P87" s="1">
         <v>2</v>
       </c>
-      <c r="Q87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -5686,11 +5423,8 @@
       <c r="P88" s="1">
         <v>2</v>
       </c>
-      <c r="Q88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -5739,11 +5473,8 @@
       <c r="P89" s="1">
         <v>2</v>
       </c>
-      <c r="Q89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -5792,11 +5523,8 @@
       <c r="P90" s="1">
         <v>2</v>
       </c>
-      <c r="Q90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -5845,11 +5573,8 @@
       <c r="P91" s="1">
         <v>2</v>
       </c>
-      <c r="Q91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -5898,11 +5623,8 @@
       <c r="P92" s="1">
         <v>2</v>
       </c>
-      <c r="Q92" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -5951,11 +5673,8 @@
       <c r="P93" s="1">
         <v>2</v>
       </c>
-      <c r="Q93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -6004,11 +5723,8 @@
       <c r="P94" s="1">
         <v>2</v>
       </c>
-      <c r="Q94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -6057,11 +5773,8 @@
       <c r="P95" s="1">
         <v>2</v>
       </c>
-      <c r="Q95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -6110,11 +5823,8 @@
       <c r="P96" s="1">
         <v>2</v>
       </c>
-      <c r="Q96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -6163,11 +5873,8 @@
       <c r="P97" s="1">
         <v>2</v>
       </c>
-      <c r="Q97" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -6216,11 +5923,8 @@
       <c r="P98" s="1">
         <v>2</v>
       </c>
-      <c r="Q98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -6269,11 +5973,8 @@
       <c r="P99" s="1">
         <v>2</v>
       </c>
-      <c r="Q99" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -6322,11 +6023,8 @@
       <c r="P100" s="1">
         <v>2</v>
       </c>
-      <c r="Q100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -6375,11 +6073,8 @@
       <c r="P101" s="1">
         <v>2</v>
       </c>
-      <c r="Q101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -6428,11 +6123,8 @@
       <c r="P102" s="1">
         <v>2</v>
       </c>
-      <c r="Q102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -6481,11 +6173,8 @@
       <c r="P103" s="1">
         <v>2</v>
       </c>
-      <c r="Q103" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -6534,11 +6223,8 @@
       <c r="P104" s="1">
         <v>2</v>
       </c>
-      <c r="Q104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -6587,11 +6273,8 @@
       <c r="P105" s="1">
         <v>2</v>
       </c>
-      <c r="Q105" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -6640,11 +6323,8 @@
       <c r="P106" s="1">
         <v>2</v>
       </c>
-      <c r="Q106" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -6693,11 +6373,8 @@
       <c r="P107" s="1">
         <v>2</v>
       </c>
-      <c r="Q107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -6746,11 +6423,8 @@
       <c r="P108" s="1">
         <v>2</v>
       </c>
-      <c r="Q108" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -6799,11 +6473,8 @@
       <c r="P109" s="1">
         <v>2</v>
       </c>
-      <c r="Q109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>28</v>
       </c>
@@ -6852,11 +6523,8 @@
       <c r="P110" s="1">
         <v>2</v>
       </c>
-      <c r="Q110" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -6905,11 +6573,8 @@
       <c r="P111" s="1">
         <v>2</v>
       </c>
-      <c r="Q111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -6958,11 +6623,8 @@
       <c r="P112" s="1">
         <v>2</v>
       </c>
-      <c r="Q112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -7011,11 +6673,8 @@
       <c r="P113" s="1">
         <v>2</v>
       </c>
-      <c r="Q113" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -7064,11 +6723,8 @@
       <c r="P114" s="1">
         <v>2</v>
       </c>
-      <c r="Q114" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -7117,11 +6773,8 @@
       <c r="P115" s="1">
         <v>2</v>
       </c>
-      <c r="Q115" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -7170,11 +6823,8 @@
       <c r="P116" s="1">
         <v>2</v>
       </c>
-      <c r="Q116" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -7223,11 +6873,8 @@
       <c r="P117" s="1">
         <v>2</v>
       </c>
-      <c r="Q117" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -7276,11 +6923,8 @@
       <c r="P118" s="1">
         <v>2</v>
       </c>
-      <c r="Q118" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -7329,11 +6973,8 @@
       <c r="P119" s="1">
         <v>2</v>
       </c>
-      <c r="Q119" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -7382,11 +7023,8 @@
       <c r="P120" s="1">
         <v>2</v>
       </c>
-      <c r="Q120" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -7435,11 +7073,8 @@
       <c r="P121" s="1">
         <v>2</v>
       </c>
-      <c r="Q121" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -7488,11 +7123,8 @@
       <c r="P122" s="1">
         <v>2</v>
       </c>
-      <c r="Q122" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -7541,11 +7173,8 @@
       <c r="P123" s="1">
         <v>2</v>
       </c>
-      <c r="Q123" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -7594,11 +7223,8 @@
       <c r="P124" s="1">
         <v>2</v>
       </c>
-      <c r="Q124" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -7647,11 +7273,8 @@
       <c r="P125" s="1">
         <v>2</v>
       </c>
-      <c r="Q125" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -7700,11 +7323,8 @@
       <c r="P126" s="1">
         <v>2</v>
       </c>
-      <c r="Q126" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -7753,11 +7373,8 @@
       <c r="P127" s="1">
         <v>2</v>
       </c>
-      <c r="Q127" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -7806,11 +7423,8 @@
       <c r="P128" s="1">
         <v>2</v>
       </c>
-      <c r="Q128" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -7859,11 +7473,8 @@
       <c r="P129" s="1">
         <v>2</v>
       </c>
-      <c r="Q129" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -7912,11 +7523,8 @@
       <c r="P130" s="1">
         <v>2</v>
       </c>
-      <c r="Q130" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -7965,11 +7573,8 @@
       <c r="P131" s="1">
         <v>2</v>
       </c>
-      <c r="Q131" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -8018,11 +7623,8 @@
       <c r="P132" s="1">
         <v>2</v>
       </c>
-      <c r="Q132" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -8071,11 +7673,8 @@
       <c r="P133" s="1">
         <v>2</v>
       </c>
-      <c r="Q133" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -8124,11 +7723,8 @@
       <c r="P134" s="1">
         <v>2</v>
       </c>
-      <c r="Q134" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -8177,11 +7773,8 @@
       <c r="P135" s="1">
         <v>2</v>
       </c>
-      <c r="Q135" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -8230,11 +7823,8 @@
       <c r="P136" s="1">
         <v>2</v>
       </c>
-      <c r="Q136" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -8283,11 +7873,8 @@
       <c r="P137" s="1">
         <v>2</v>
       </c>
-      <c r="Q137" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>44</v>
       </c>
@@ -8336,11 +7923,8 @@
       <c r="P138" s="1">
         <v>2</v>
       </c>
-      <c r="Q138" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>25</v>
       </c>
@@ -8389,11 +7973,8 @@
       <c r="P139" s="1">
         <v>2</v>
       </c>
-      <c r="Q139" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -8442,11 +8023,8 @@
       <c r="P140" s="1">
         <v>2</v>
       </c>
-      <c r="Q140" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -8495,11 +8073,8 @@
       <c r="P141" s="1">
         <v>2</v>
       </c>
-      <c r="Q141" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -8548,11 +8123,8 @@
       <c r="P142" s="1">
         <v>2</v>
       </c>
-      <c r="Q142" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -8601,11 +8173,8 @@
       <c r="P143" s="1">
         <v>2</v>
       </c>
-      <c r="Q143" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>43</v>
       </c>
@@ -8654,11 +8223,8 @@
       <c r="P144" s="1">
         <v>2</v>
       </c>
-      <c r="Q144" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -8707,11 +8273,8 @@
       <c r="P145" s="1">
         <v>2</v>
       </c>
-      <c r="Q145" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -8760,11 +8323,8 @@
       <c r="P146" s="1">
         <v>2</v>
       </c>
-      <c r="Q146" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>38</v>
       </c>
@@ -8813,11 +8373,8 @@
       <c r="P147" s="1">
         <v>2</v>
       </c>
-      <c r="Q147" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -8866,11 +8423,8 @@
       <c r="P148" s="1">
         <v>2</v>
       </c>
-      <c r="Q148" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -8919,11 +8473,8 @@
       <c r="P149" s="1">
         <v>2</v>
       </c>
-      <c r="Q149" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -8972,11 +8523,8 @@
       <c r="P150" s="1">
         <v>2</v>
       </c>
-      <c r="Q150" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -9025,11 +8573,8 @@
       <c r="P151" s="1">
         <v>2</v>
       </c>
-      <c r="Q151" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -9078,11 +8623,8 @@
       <c r="P152" s="1">
         <v>2</v>
       </c>
-      <c r="Q152" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -9131,11 +8673,8 @@
       <c r="P153" s="1">
         <v>2</v>
       </c>
-      <c r="Q153" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>44</v>
       </c>
@@ -9184,11 +8723,8 @@
       <c r="P154" s="1">
         <v>2</v>
       </c>
-      <c r="Q154" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -9237,11 +8773,8 @@
       <c r="P155" s="1">
         <v>2</v>
       </c>
-      <c r="Q155" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -9290,11 +8823,8 @@
       <c r="P156" s="1">
         <v>2</v>
       </c>
-      <c r="Q156" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -9343,11 +8873,8 @@
       <c r="P157" s="1">
         <v>2</v>
       </c>
-      <c r="Q157" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -9396,11 +8923,8 @@
       <c r="P158" s="1">
         <v>2</v>
       </c>
-      <c r="Q158" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -9449,11 +8973,8 @@
       <c r="P159" s="1">
         <v>2</v>
       </c>
-      <c r="Q159" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -9502,11 +9023,8 @@
       <c r="P160" s="1">
         <v>2</v>
       </c>
-      <c r="Q160" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>32</v>
       </c>
@@ -9555,11 +9073,8 @@
       <c r="P161" s="1">
         <v>2</v>
       </c>
-      <c r="Q161" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>25</v>
       </c>
@@ -9608,11 +9123,8 @@
       <c r="P162" s="1">
         <v>2</v>
       </c>
-      <c r="Q162" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -9661,11 +9173,8 @@
       <c r="P163" s="1">
         <v>2</v>
       </c>
-      <c r="Q163" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -9714,11 +9223,8 @@
       <c r="P164" s="1">
         <v>2</v>
       </c>
-      <c r="Q164" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -9767,11 +9273,8 @@
       <c r="P165" s="1">
         <v>2</v>
       </c>
-      <c r="Q165" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>45</v>
       </c>
@@ -9820,11 +9323,8 @@
       <c r="P166" s="1">
         <v>3</v>
       </c>
-      <c r="Q166" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -9873,11 +9373,8 @@
       <c r="P167" s="1">
         <v>3</v>
       </c>
-      <c r="Q167" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>35</v>
       </c>
@@ -9926,11 +9423,8 @@
       <c r="P168" s="1">
         <v>3</v>
       </c>
-      <c r="Q168" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -9979,11 +9473,8 @@
       <c r="P169" s="1">
         <v>3</v>
       </c>
-      <c r="Q169" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>25</v>
       </c>
@@ -10032,11 +9523,8 @@
       <c r="P170" s="1">
         <v>3</v>
       </c>
-      <c r="Q170" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -10085,11 +9573,8 @@
       <c r="P171" s="1">
         <v>3</v>
       </c>
-      <c r="Q171" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>43</v>
       </c>
@@ -10138,11 +9623,8 @@
       <c r="P172" s="1">
         <v>3</v>
       </c>
-      <c r="Q172" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>38</v>
       </c>
@@ -10191,11 +9673,8 @@
       <c r="P173" s="1">
         <v>3</v>
       </c>
-      <c r="Q173" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -10244,11 +9723,8 @@
       <c r="P174" s="1">
         <v>3</v>
       </c>
-      <c r="Q174" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>34</v>
       </c>
@@ -10297,11 +9773,8 @@
       <c r="P175" s="1">
         <v>3</v>
       </c>
-      <c r="Q175" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -10350,11 +9823,8 @@
       <c r="P176" s="1">
         <v>3</v>
       </c>
-      <c r="Q176" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -10403,11 +9873,8 @@
       <c r="P177" s="1">
         <v>3</v>
       </c>
-      <c r="Q177" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -10456,11 +9923,8 @@
       <c r="P178" s="1">
         <v>3</v>
       </c>
-      <c r="Q178" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -10509,11 +9973,8 @@
       <c r="P179" s="1">
         <v>3</v>
       </c>
-      <c r="Q179" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -10562,11 +10023,8 @@
       <c r="P180" s="1">
         <v>3</v>
       </c>
-      <c r="Q180" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>22</v>
       </c>
@@ -10615,11 +10073,8 @@
       <c r="P181" s="1">
         <v>3</v>
       </c>
-      <c r="Q181" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -10668,11 +10123,8 @@
       <c r="P182" s="1">
         <v>3</v>
       </c>
-      <c r="Q182" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -10721,11 +10173,8 @@
       <c r="P183" s="1">
         <v>3</v>
       </c>
-      <c r="Q183" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -10774,11 +10223,8 @@
       <c r="P184" s="1">
         <v>3</v>
       </c>
-      <c r="Q184" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -10827,11 +10273,8 @@
       <c r="P185" s="1">
         <v>3</v>
       </c>
-      <c r="Q185" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -10880,11 +10323,8 @@
       <c r="P186" s="1">
         <v>3</v>
       </c>
-      <c r="Q186" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>46</v>
       </c>
@@ -10933,11 +10373,8 @@
       <c r="P187" s="1">
         <v>3</v>
       </c>
-      <c r="Q187" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>32</v>
       </c>
@@ -10986,11 +10423,8 @@
       <c r="P188" s="1">
         <v>3</v>
       </c>
-      <c r="Q188" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>28</v>
       </c>
@@ -11039,11 +10473,8 @@
       <c r="P189" s="1">
         <v>3</v>
       </c>
-      <c r="Q189" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>45</v>
       </c>
@@ -11092,11 +10523,8 @@
       <c r="P190" s="1">
         <v>3</v>
       </c>
-      <c r="Q190" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>20</v>
       </c>
@@ -11145,11 +10573,8 @@
       <c r="P191" s="1">
         <v>3</v>
       </c>
-      <c r="Q191" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -11198,11 +10623,8 @@
       <c r="P192" s="1">
         <v>3</v>
       </c>
-      <c r="Q192" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>44</v>
       </c>
@@ -11251,11 +10673,8 @@
       <c r="P193" s="1">
         <v>3</v>
       </c>
-      <c r="Q193" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>25</v>
       </c>
@@ -11304,11 +10723,8 @@
       <c r="P194" s="1">
         <v>3</v>
       </c>
-      <c r="Q194" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>30</v>
       </c>
@@ -11357,11 +10773,8 @@
       <c r="P195" s="1">
         <v>3</v>
       </c>
-      <c r="Q195" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>43</v>
       </c>
@@ -11410,11 +10823,8 @@
       <c r="P196" s="1">
         <v>3</v>
       </c>
-      <c r="Q196" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>38</v>
       </c>
@@ -11463,11 +10873,8 @@
       <c r="P197" s="1">
         <v>3</v>
       </c>
-      <c r="Q197" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -11516,11 +10923,8 @@
       <c r="P198" s="1">
         <v>3</v>
       </c>
-      <c r="Q198" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -11569,11 +10973,8 @@
       <c r="P199" s="1">
         <v>3</v>
       </c>
-      <c r="Q199" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -11622,11 +11023,8 @@
       <c r="P200" s="1">
         <v>3</v>
       </c>
-      <c r="Q200" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -11675,11 +11073,8 @@
       <c r="P201" s="1">
         <v>3</v>
       </c>
-      <c r="Q201" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>36</v>
       </c>
@@ -11728,11 +11123,8 @@
       <c r="P202" s="1">
         <v>3</v>
       </c>
-      <c r="Q202" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>42</v>
       </c>
@@ -11781,11 +11173,8 @@
       <c r="P203" s="1">
         <v>3</v>
       </c>
-      <c r="Q203" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>31</v>
       </c>
@@ -11834,11 +11223,8 @@
       <c r="P204" s="1">
         <v>3</v>
       </c>
-      <c r="Q204" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>47</v>
       </c>
@@ -11887,11 +11273,8 @@
       <c r="P205" s="1">
         <v>3</v>
       </c>
-      <c r="Q205" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -11940,11 +11323,8 @@
       <c r="P206" s="1">
         <v>3</v>
       </c>
-      <c r="Q206" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>33</v>
       </c>
@@ -11993,11 +11373,8 @@
       <c r="P207" s="1">
         <v>3</v>
       </c>
-      <c r="Q207" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -12046,11 +11423,8 @@
       <c r="P208" s="1">
         <v>3</v>
       </c>
-      <c r="Q208" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>39</v>
       </c>
@@ -12099,11 +11473,8 @@
       <c r="P209" s="1">
         <v>3</v>
       </c>
-      <c r="Q209" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>27</v>
       </c>
@@ -12152,11 +11523,8 @@
       <c r="P210" s="1">
         <v>3</v>
       </c>
-      <c r="Q210" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -12205,11 +11573,8 @@
       <c r="P211" s="1">
         <v>3</v>
       </c>
-      <c r="Q211" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>46</v>
       </c>
@@ -12258,11 +11623,8 @@
       <c r="P212" s="1">
         <v>3</v>
       </c>
-      <c r="Q212" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -12311,11 +11673,8 @@
       <c r="P213" s="1">
         <v>3</v>
       </c>
-      <c r="Q213" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>28</v>
       </c>
@@ -12364,11 +11723,8 @@
       <c r="P214" s="1">
         <v>3</v>
       </c>
-      <c r="Q214" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>43</v>
       </c>
@@ -12417,11 +11773,8 @@
       <c r="P215" s="1">
         <v>3</v>
       </c>
-      <c r="Q215" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>46</v>
       </c>
@@ -12470,11 +11823,8 @@
       <c r="P216" s="1">
         <v>3</v>
       </c>
-      <c r="Q216" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>42</v>
       </c>
@@ -12523,11 +11873,8 @@
       <c r="P217" s="1">
         <v>3</v>
       </c>
-      <c r="Q217" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>18</v>
       </c>
@@ -12576,11 +11923,8 @@
       <c r="P218" s="1">
         <v>3</v>
       </c>
-      <c r="Q218" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>39</v>
       </c>
@@ -12629,11 +11973,8 @@
       <c r="P219" s="1">
         <v>3</v>
       </c>
-      <c r="Q219" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>25</v>
       </c>
@@ -12682,11 +12023,8 @@
       <c r="P220" s="1">
         <v>3</v>
       </c>
-      <c r="Q220" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>45</v>
       </c>
@@ -12735,11 +12073,8 @@
       <c r="P221" s="1">
         <v>3</v>
       </c>
-      <c r="Q221" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>31</v>
       </c>
@@ -12788,11 +12123,8 @@
       <c r="P222" s="1">
         <v>3</v>
       </c>
-      <c r="Q222" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>27</v>
       </c>
@@ -12841,11 +12173,8 @@
       <c r="P223" s="1">
         <v>3</v>
       </c>
-      <c r="Q223" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -12894,11 +12223,8 @@
       <c r="P224" s="1">
         <v>3</v>
       </c>
-      <c r="Q224" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>33</v>
       </c>
@@ -12947,11 +12273,8 @@
       <c r="P225" s="1">
         <v>3</v>
       </c>
-      <c r="Q225" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>28</v>
       </c>
@@ -13000,11 +12323,8 @@
       <c r="P226" s="1">
         <v>3</v>
       </c>
-      <c r="Q226" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>37</v>
       </c>
@@ -13053,11 +12373,8 @@
       <c r="P227" s="1">
         <v>3</v>
       </c>
-      <c r="Q227" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>44</v>
       </c>
@@ -13106,11 +12423,8 @@
       <c r="P228" s="1">
         <v>3</v>
       </c>
-      <c r="Q228" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>47</v>
       </c>
@@ -13159,11 +12473,8 @@
       <c r="P229" s="1">
         <v>3</v>
       </c>
-      <c r="Q229" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>23</v>
       </c>
@@ -13212,11 +12523,8 @@
       <c r="P230" s="1">
         <v>3</v>
       </c>
-      <c r="Q230" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>48</v>
       </c>
@@ -13265,11 +12573,8 @@
       <c r="P231" s="1">
         <v>3</v>
       </c>
-      <c r="Q231" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>32</v>
       </c>
@@ -13318,11 +12623,8 @@
       <c r="P232" s="1">
         <v>3</v>
       </c>
-      <c r="Q232" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>30</v>
       </c>
@@ -13371,11 +12673,8 @@
       <c r="P233" s="1">
         <v>3</v>
       </c>
-      <c r="Q233" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>38</v>
       </c>
@@ -13424,11 +12723,8 @@
       <c r="P234" s="1">
         <v>3</v>
       </c>
-      <c r="Q234" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>16</v>
       </c>
@@ -13477,11 +12773,8 @@
       <c r="P235" s="1">
         <v>3</v>
       </c>
-      <c r="Q235" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>35</v>
       </c>
@@ -13530,11 +12823,8 @@
       <c r="P236" s="1">
         <v>3</v>
       </c>
-      <c r="Q236" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>22</v>
       </c>
@@ -13583,11 +12873,8 @@
       <c r="P237" s="1">
         <v>3</v>
       </c>
-      <c r="Q237" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -13636,11 +12923,8 @@
       <c r="P238" s="1">
         <v>3</v>
       </c>
-      <c r="Q238" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>34</v>
       </c>
@@ -13689,11 +12973,8 @@
       <c r="P239" s="1">
         <v>3</v>
       </c>
-      <c r="Q239" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>36</v>
       </c>
@@ -13742,12 +13023,4157 @@
       <c r="P240" s="1">
         <v>3</v>
       </c>
-      <c r="Q240" t="s">
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>42</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241" s="1">
+        <v>68</v>
+      </c>
+      <c r="D241" s="1">
+        <v>5832.9998599999999</v>
+      </c>
+      <c r="E241" s="1">
+        <v>85.69896</v>
+      </c>
+      <c r="F241" s="1">
+        <v>26.750360000000001</v>
+      </c>
+      <c r="G241" s="1">
+        <v>168.05</v>
+      </c>
+      <c r="H241" s="1">
+        <v>0</v>
+      </c>
+      <c r="I241" s="1">
+        <v>43.19</v>
+      </c>
+      <c r="J241" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="K241" s="1">
+        <v>1424.6500100000001</v>
+      </c>
+      <c r="L241" s="1">
+        <v>381.81000999999998</v>
+      </c>
+      <c r="M241" s="1">
+        <v>24.91</v>
+      </c>
+      <c r="N241" s="1">
+        <v>1809.35006</v>
+      </c>
+      <c r="O241" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P241" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>43</v>
+      </c>
+      <c r="B242" t="s">
+        <v>29</v>
+      </c>
+      <c r="C242" s="1">
+        <v>68</v>
+      </c>
+      <c r="D242" s="1">
+        <v>5868.88393</v>
+      </c>
+      <c r="E242" s="1">
+        <v>86.226169999999996</v>
+      </c>
+      <c r="F242" s="1">
+        <v>25.300750000000001</v>
+      </c>
+      <c r="G242" s="1">
+        <v>179.51</v>
+      </c>
+      <c r="H242" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="I242" s="1">
+        <v>43.26</v>
+      </c>
+      <c r="J242" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="K242" s="1">
+        <v>1479.85996</v>
+      </c>
+      <c r="L242" s="1">
+        <v>792.54998999999998</v>
+      </c>
+      <c r="M242" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N242" s="1">
+        <v>2269.5299500000001</v>
+      </c>
+      <c r="O242" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P242" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>34</v>
+      </c>
+      <c r="B243" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" s="1">
+        <v>68</v>
+      </c>
+      <c r="D243" s="1">
+        <v>5361.4060399999998</v>
+      </c>
+      <c r="E243" s="1">
+        <v>78.770259999999993</v>
+      </c>
+      <c r="F243" s="1">
+        <v>29.160209999999999</v>
+      </c>
+      <c r="G243" s="1">
+        <v>194.72</v>
+      </c>
+      <c r="H243" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="I243" s="1">
+        <v>54.49</v>
+      </c>
+      <c r="J243" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="K243" s="1">
+        <v>1496.16994</v>
+      </c>
+      <c r="L243" s="1">
+        <v>653.27999</v>
+      </c>
+      <c r="M243" s="1">
+        <v>89.09</v>
+      </c>
+      <c r="N243" s="1">
+        <v>2006.35996</v>
+      </c>
+      <c r="O243" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P243" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>27</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" s="1">
+        <v>68</v>
+      </c>
+      <c r="D244" s="1">
+        <v>5923.1701700000003</v>
+      </c>
+      <c r="E244" s="1">
+        <v>87.023750000000007</v>
+      </c>
+      <c r="F244" s="1">
+        <v>30.147110000000001</v>
+      </c>
+      <c r="G244" s="1">
+        <v>195.29</v>
+      </c>
+      <c r="H244" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="I244" s="1">
+        <v>41.86</v>
+      </c>
+      <c r="J244" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="K244" s="1">
+        <v>1481.4500399999999</v>
+      </c>
+      <c r="L244" s="1">
+        <v>805.08001999999999</v>
+      </c>
+      <c r="M244" s="1">
+        <v>87.26</v>
+      </c>
+      <c r="N244" s="1">
+        <v>2213.6399700000002</v>
+      </c>
+      <c r="O244" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P244" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>24</v>
+      </c>
+      <c r="B245" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245" s="1">
+        <v>68</v>
+      </c>
+      <c r="D245" s="1">
+        <v>5503.6831400000001</v>
+      </c>
+      <c r="E245" s="1">
+        <v>80.860609999999994</v>
+      </c>
+      <c r="F245" s="1">
+        <v>26.961279999999999</v>
+      </c>
+      <c r="G245" s="1">
+        <v>197.16</v>
+      </c>
+      <c r="H245" s="1">
+        <v>0</v>
+      </c>
+      <c r="I245" s="1">
+        <v>46.69</v>
+      </c>
+      <c r="J245" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="K245" s="1">
+        <v>1214.56999</v>
+      </c>
+      <c r="L245" s="1">
+        <v>990.82997999999998</v>
+      </c>
+      <c r="M245" s="1">
+        <v>27.77</v>
+      </c>
+      <c r="N245" s="1">
+        <v>2114.2500599999998</v>
+      </c>
+      <c r="O245" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P245" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>39</v>
+      </c>
+      <c r="B246" t="s">
+        <v>21</v>
+      </c>
+      <c r="C246" s="1">
+        <v>62</v>
+      </c>
+      <c r="D246" s="1">
+        <v>3202.2309300000002</v>
+      </c>
+      <c r="E246" s="1">
+        <v>51.377499999999998</v>
+      </c>
+      <c r="F246" s="1">
+        <v>21.909389999999998</v>
+      </c>
+      <c r="G246" s="1">
+        <v>198.05</v>
+      </c>
+      <c r="H246" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I246" s="1">
+        <v>59.43</v>
+      </c>
+      <c r="J246" s="1">
+        <v>0</v>
+      </c>
+      <c r="K246" s="1">
+        <v>80.84</v>
+      </c>
+      <c r="L246" s="1">
+        <v>29.59</v>
+      </c>
+      <c r="M246" s="1">
+        <v>0</v>
+      </c>
+      <c r="N246" s="1">
+        <v>444.19999000000001</v>
+      </c>
+      <c r="O246" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P246" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" s="1">
+        <v>68</v>
+      </c>
+      <c r="D247" s="1">
+        <v>5743.9562100000003</v>
+      </c>
+      <c r="E247" s="1">
+        <v>84.390720000000002</v>
+      </c>
+      <c r="F247" s="1">
+        <v>26.10699</v>
+      </c>
+      <c r="G247" s="1">
+        <v>201.47</v>
+      </c>
+      <c r="H247" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="I247" s="1">
+        <v>57.46</v>
+      </c>
+      <c r="J247" s="1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K247" s="1">
+        <v>1495.81997</v>
+      </c>
+      <c r="L247" s="1">
+        <v>770.86999000000003</v>
+      </c>
+      <c r="M247" s="1">
+        <v>18.78</v>
+      </c>
+      <c r="N247" s="1">
+        <v>2212.13996</v>
+      </c>
+      <c r="O247" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P247" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>48</v>
+      </c>
+      <c r="B248" t="s">
+        <v>26</v>
+      </c>
+      <c r="C248" s="1">
+        <v>68</v>
+      </c>
+      <c r="D248" s="1">
+        <v>6005.8698100000001</v>
+      </c>
+      <c r="E248" s="1">
+        <v>88.238780000000006</v>
+      </c>
+      <c r="F248" s="1">
+        <v>30.622800000000002</v>
+      </c>
+      <c r="G248" s="1">
+        <v>204.79</v>
+      </c>
+      <c r="H248" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="I248" s="1">
+        <v>63.49</v>
+      </c>
+      <c r="J248" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="K248" s="1">
+        <v>1384.11004</v>
+      </c>
+      <c r="L248" s="1">
+        <v>863.73999000000003</v>
+      </c>
+      <c r="M248" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="N248" s="1">
+        <v>2233.4499700000001</v>
+      </c>
+      <c r="O248" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P248" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>30</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" s="1">
+        <v>68</v>
+      </c>
+      <c r="D249" s="1">
+        <v>5890.2978599999997</v>
+      </c>
+      <c r="E249" s="1">
+        <v>86.540790000000001</v>
+      </c>
+      <c r="F249" s="1">
+        <v>25.698550000000001</v>
+      </c>
+      <c r="G249" s="1">
+        <v>212.77</v>
+      </c>
+      <c r="H249" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="I249" s="1">
+        <v>57.44</v>
+      </c>
+      <c r="J249" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="K249" s="1">
+        <v>1503.47</v>
+      </c>
+      <c r="L249" s="1">
+        <v>808.99996999999996</v>
+      </c>
+      <c r="M249" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="N249" s="1">
+        <v>2382.06</v>
+      </c>
+      <c r="O249" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P249" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>33</v>
+      </c>
+      <c r="B250" t="s">
+        <v>29</v>
+      </c>
+      <c r="C250" s="1">
+        <v>68</v>
+      </c>
+      <c r="D250" s="1">
+        <v>5857.39545</v>
+      </c>
+      <c r="E250" s="1">
+        <v>86.057379999999995</v>
+      </c>
+      <c r="F250" s="1">
+        <v>27.184349999999998</v>
+      </c>
+      <c r="G250" s="1">
+        <v>216.91</v>
+      </c>
+      <c r="H250" s="1">
+        <v>0</v>
+      </c>
+      <c r="I250" s="1">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="J250" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K250" s="1">
+        <v>1496.6499899999999</v>
+      </c>
+      <c r="L250" s="1">
+        <v>905.75998000000004</v>
+      </c>
+      <c r="M250" s="1">
+        <v>31.03</v>
+      </c>
+      <c r="N250" s="1">
+        <v>2459.3899900000001</v>
+      </c>
+      <c r="O250" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P250" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>31</v>
+      </c>
+      <c r="B251" t="s">
+        <v>19</v>
+      </c>
+      <c r="C251" s="1">
+        <v>68</v>
+      </c>
+      <c r="D251" s="1">
+        <v>5722.9438899999996</v>
+      </c>
+      <c r="E251" s="1">
+        <v>84.082009999999997</v>
+      </c>
+      <c r="F251" s="1">
+        <v>29.94821</v>
+      </c>
+      <c r="G251" s="1">
+        <v>225.48</v>
+      </c>
+      <c r="H251" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="I251" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="J251" s="1">
+        <v>4.53</v>
+      </c>
+      <c r="K251" s="1">
+        <v>1535.97002</v>
+      </c>
+      <c r="L251" s="1">
+        <v>694.46001000000001</v>
+      </c>
+      <c r="M251" s="1">
+        <v>71.45</v>
+      </c>
+      <c r="N251" s="1">
+        <v>2214.6899800000001</v>
+      </c>
+      <c r="O251" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P251" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>25</v>
+      </c>
+      <c r="B252" t="s">
+        <v>26</v>
+      </c>
+      <c r="C252" s="1">
+        <v>68</v>
+      </c>
+      <c r="D252" s="1">
+        <v>5952.6805000000004</v>
+      </c>
+      <c r="E252" s="1">
+        <v>87.457319999999996</v>
+      </c>
+      <c r="F252" s="1">
+        <v>28.675509999999999</v>
+      </c>
+      <c r="G252" s="1">
+        <v>226.55</v>
+      </c>
+      <c r="H252" s="1">
+        <v>10.86</v>
+      </c>
+      <c r="I252" s="1">
+        <v>66.150000000000006</v>
+      </c>
+      <c r="J252" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="K252" s="1">
+        <v>1339.1299899999999</v>
+      </c>
+      <c r="L252" s="1">
+        <v>982.78997000000004</v>
+      </c>
+      <c r="M252" s="1">
+        <v>167.22</v>
+      </c>
+      <c r="N252" s="1">
+        <v>2284.25</v>
+      </c>
+      <c r="O252" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P252" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>46</v>
+      </c>
+      <c r="B253" t="s">
+        <v>19</v>
+      </c>
+      <c r="C253" s="1">
+        <v>68</v>
+      </c>
+      <c r="D253" s="1">
+        <v>6069.1282499999998</v>
+      </c>
+      <c r="E253" s="1">
+        <v>89.168180000000007</v>
+      </c>
+      <c r="F253" s="1">
+        <v>27.53267</v>
+      </c>
+      <c r="G253" s="1">
+        <v>227.49</v>
+      </c>
+      <c r="H253" s="1">
+        <v>0</v>
+      </c>
+      <c r="I253" s="1">
+        <v>73.36</v>
+      </c>
+      <c r="J253" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="K253" s="1">
+        <v>1674.1399699999999</v>
+      </c>
+      <c r="L253" s="1">
+        <v>641.77</v>
+      </c>
+      <c r="M253" s="1">
+        <v>23.29</v>
+      </c>
+      <c r="N253" s="1">
+        <v>2222.82996</v>
+      </c>
+      <c r="O253" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P253" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>18</v>
+      </c>
+      <c r="B254" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254" s="1">
+        <v>68</v>
+      </c>
+      <c r="D254" s="1">
+        <v>5698.6677900000004</v>
+      </c>
+      <c r="E254" s="1">
+        <v>83.725340000000003</v>
+      </c>
+      <c r="F254" s="1">
+        <v>28.185089999999999</v>
+      </c>
+      <c r="G254" s="1">
+        <v>231.06</v>
+      </c>
+      <c r="H254" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I254" s="1">
+        <v>62.73</v>
+      </c>
+      <c r="J254" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="K254" s="1">
+        <v>1566.7400600000001</v>
+      </c>
+      <c r="L254" s="1">
+        <v>688.37999000000002</v>
+      </c>
+      <c r="M254" s="1">
+        <v>24.76</v>
+      </c>
+      <c r="N254" s="1">
+        <v>2224.2200499999999</v>
+      </c>
+      <c r="O254" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P254" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>32</v>
+      </c>
+      <c r="B255" t="s">
+        <v>19</v>
+      </c>
+      <c r="C255" s="1">
+        <v>68</v>
+      </c>
+      <c r="D255" s="1">
+        <v>5928.0492599999998</v>
+      </c>
+      <c r="E255" s="1">
+        <v>87.095439999999996</v>
+      </c>
+      <c r="F255" s="1">
+        <v>30.34497</v>
+      </c>
+      <c r="G255" s="1">
+        <v>233.89</v>
+      </c>
+      <c r="H255" s="1">
+        <v>4.58</v>
+      </c>
+      <c r="I255" s="1">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="J255" s="1">
+        <v>8.89</v>
+      </c>
+      <c r="K255" s="1">
+        <v>1270.17001</v>
+      </c>
+      <c r="L255" s="1">
+        <v>957.29998000000001</v>
+      </c>
+      <c r="M255" s="1">
+        <v>138.66</v>
+      </c>
+      <c r="N255" s="1">
+        <v>2296.9700499999999</v>
+      </c>
+      <c r="O255" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P255" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>28</v>
+      </c>
+      <c r="B256" t="s">
+        <v>29</v>
+      </c>
+      <c r="C256" s="1">
+        <v>68</v>
+      </c>
+      <c r="D256" s="1">
+        <v>5188.89588</v>
+      </c>
+      <c r="E256" s="1">
+        <v>76.235730000000004</v>
+      </c>
+      <c r="F256" s="1">
+        <v>27.036349999999999</v>
+      </c>
+      <c r="G256" s="1">
+        <v>237.24</v>
+      </c>
+      <c r="H256" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="I256" s="1">
+        <v>73.510000000000005</v>
+      </c>
+      <c r="J256" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="K256" s="1">
+        <v>1369.2999400000001</v>
+      </c>
+      <c r="L256" s="1">
+        <v>713.78</v>
+      </c>
+      <c r="M256" s="1">
+        <v>28.68</v>
+      </c>
+      <c r="N256" s="1">
+        <v>2165.3299900000002</v>
+      </c>
+      <c r="O256" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P256" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>45</v>
+      </c>
+      <c r="B257" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257" s="1">
+        <v>68</v>
+      </c>
+      <c r="D257" s="1">
+        <v>6189.1201600000004</v>
+      </c>
+      <c r="E257" s="1">
+        <v>90.931110000000004</v>
+      </c>
+      <c r="F257" s="1">
+        <v>28.176110000000001</v>
+      </c>
+      <c r="G257" s="1">
+        <v>237.33</v>
+      </c>
+      <c r="H257" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="I257" s="1">
+        <v>74.94</v>
+      </c>
+      <c r="J257" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="K257" s="1">
+        <v>1594.09</v>
+      </c>
+      <c r="L257" s="1">
+        <v>284.33999</v>
+      </c>
+      <c r="M257" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N257" s="1">
+        <v>1909.40996</v>
+      </c>
+      <c r="O257" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P257" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>16</v>
+      </c>
+      <c r="B258" t="s">
+        <v>17</v>
+      </c>
+      <c r="C258" s="1">
+        <v>68</v>
+      </c>
+      <c r="D258" s="1">
+        <v>5539.4201199999998</v>
+      </c>
+      <c r="E258" s="1">
+        <v>81.385660000000001</v>
+      </c>
+      <c r="F258" s="1">
+        <v>30.20626</v>
+      </c>
+      <c r="G258" s="1">
+        <v>245.6</v>
+      </c>
+      <c r="H258" s="1">
+        <v>8</v>
+      </c>
+      <c r="I258" s="1">
+        <v>72.66</v>
+      </c>
+      <c r="J258" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="K258" s="1">
+        <v>1521.95003</v>
+      </c>
+      <c r="L258" s="1">
+        <v>673.63001999999994</v>
+      </c>
+      <c r="M258" s="1">
+        <v>122.05</v>
+      </c>
+      <c r="N258" s="1">
+        <v>2111.2299499999999</v>
+      </c>
+      <c r="O258" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P258" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>37</v>
+      </c>
+      <c r="B259" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" s="1">
+        <v>68</v>
+      </c>
+      <c r="D259" s="1">
+        <v>5659.2581899999996</v>
+      </c>
+      <c r="E259" s="1">
+        <v>83.146330000000006</v>
+      </c>
+      <c r="F259" s="1">
+        <v>29.635349999999999</v>
+      </c>
+      <c r="G259" s="1">
+        <v>256.13</v>
+      </c>
+      <c r="H259" s="1">
+        <v>9.56</v>
+      </c>
+      <c r="I259" s="1">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="J259" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="K259" s="1">
+        <v>1331.7199499999999</v>
+      </c>
+      <c r="L259" s="1">
+        <v>845.65003000000002</v>
+      </c>
+      <c r="M259" s="1">
+        <v>165.81001000000001</v>
+      </c>
+      <c r="N259" s="1">
+        <v>2105.4199600000002</v>
+      </c>
+      <c r="O259" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P259" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>20</v>
+      </c>
+      <c r="B260" t="s">
+        <v>21</v>
+      </c>
+      <c r="C260" s="1">
+        <v>68</v>
+      </c>
+      <c r="D260" s="1">
+        <v>5822.4362899999996</v>
+      </c>
+      <c r="E260" s="1">
+        <v>85.543760000000006</v>
+      </c>
+      <c r="F260" s="1">
+        <v>29.778120000000001</v>
+      </c>
+      <c r="G260" s="1">
+        <v>258.97000000000003</v>
+      </c>
+      <c r="H260" s="1">
+        <v>17.09</v>
+      </c>
+      <c r="I260" s="1">
+        <v>69.430000000000007</v>
+      </c>
+      <c r="J260" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="K260" s="1">
+        <v>1403.8700200000001</v>
+      </c>
+      <c r="L260" s="1">
+        <v>862.97001</v>
+      </c>
+      <c r="M260" s="1">
+        <v>198.4</v>
+      </c>
+      <c r="N260" s="1">
+        <v>2220.0299599999998</v>
+      </c>
+      <c r="O260" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P260" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>22</v>
+      </c>
+      <c r="B261" t="s">
+        <v>17</v>
+      </c>
+      <c r="C261" s="1">
+        <v>68</v>
+      </c>
+      <c r="D261" s="1">
+        <v>5397.1676399999997</v>
+      </c>
+      <c r="E261" s="1">
+        <v>79.295680000000004</v>
+      </c>
+      <c r="F261" s="1">
+        <v>28.92022</v>
+      </c>
+      <c r="G261" s="1">
+        <v>274.11</v>
+      </c>
+      <c r="H261" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I261" s="1">
+        <v>64.55</v>
+      </c>
+      <c r="J261" s="1">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="K261" s="1">
+        <v>1239.36004</v>
+      </c>
+      <c r="L261" s="1">
+        <v>926.30998</v>
+      </c>
+      <c r="M261" s="1">
+        <v>114.75</v>
+      </c>
+      <c r="N261" s="1">
+        <v>1995.51001</v>
+      </c>
+      <c r="O261" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P261" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>38</v>
+      </c>
+      <c r="B262" t="s">
+        <v>29</v>
+      </c>
+      <c r="C262" s="1">
+        <v>68</v>
+      </c>
+      <c r="D262" s="1">
+        <v>5859.9429600000003</v>
+      </c>
+      <c r="E262" s="1">
+        <v>86.094809999999995</v>
+      </c>
+      <c r="F262" s="1">
+        <v>29.336950000000002</v>
+      </c>
+      <c r="G262" s="1">
+        <v>274.88</v>
+      </c>
+      <c r="H262" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="I262" s="1">
+        <v>73.31</v>
+      </c>
+      <c r="J262" s="1">
+        <v>5.43</v>
+      </c>
+      <c r="K262" s="1">
+        <v>1526.89005</v>
+      </c>
+      <c r="L262" s="1">
+        <v>834.94998999999996</v>
+      </c>
+      <c r="M262" s="1">
+        <v>72.61</v>
+      </c>
+      <c r="N262" s="1">
+        <v>2342.8900400000002</v>
+      </c>
+      <c r="O262" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P262" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>36</v>
+      </c>
+      <c r="B263" t="s">
+        <v>26</v>
+      </c>
+      <c r="C263" s="1">
+        <v>68</v>
+      </c>
+      <c r="D263" s="1">
+        <v>5585.0713400000004</v>
+      </c>
+      <c r="E263" s="1">
+        <v>82.056370000000001</v>
+      </c>
+      <c r="F263" s="1">
+        <v>28.04748</v>
+      </c>
+      <c r="G263" s="1">
+        <v>275.63</v>
+      </c>
+      <c r="H263" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I263" s="1">
+        <v>63.62</v>
+      </c>
+      <c r="J263" s="1">
+        <v>11.49</v>
+      </c>
+      <c r="K263" s="1">
+        <v>1474.08995</v>
+      </c>
+      <c r="L263" s="1">
+        <v>908.86</v>
+      </c>
+      <c r="M263" s="1">
+        <v>115.56</v>
+      </c>
+      <c r="N263" s="1">
+        <v>2336.9600700000001</v>
+      </c>
+      <c r="O263" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P263" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>47</v>
+      </c>
+      <c r="B264" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264" s="1">
+        <v>68</v>
+      </c>
+      <c r="D264" s="1">
+        <v>5890.16212</v>
+      </c>
+      <c r="E264" s="1">
+        <v>86.538799999999995</v>
+      </c>
+      <c r="F264" s="1">
+        <v>30.723939999999999</v>
+      </c>
+      <c r="G264" s="1">
+        <v>287.20001000000002</v>
+      </c>
+      <c r="H264" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="I264" s="1">
+        <v>74.03</v>
+      </c>
+      <c r="J264" s="1">
+        <v>4.58</v>
+      </c>
+      <c r="K264" s="1">
+        <v>1307.4799599999999</v>
+      </c>
+      <c r="L264" s="1">
+        <v>873.99999000000003</v>
+      </c>
+      <c r="M264" s="1">
+        <v>265.42</v>
+      </c>
+      <c r="N264" s="1">
+        <v>2253.4999400000002</v>
+      </c>
+      <c r="O264" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P264" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>44</v>
+      </c>
+      <c r="B265" t="s">
+        <v>26</v>
+      </c>
+      <c r="C265" s="1">
+        <v>68</v>
+      </c>
+      <c r="D265" s="1">
+        <v>5891.04259</v>
+      </c>
+      <c r="E265" s="1">
+        <v>86.551730000000006</v>
+      </c>
+      <c r="F265" s="1">
+        <v>27.702839999999998</v>
+      </c>
+      <c r="G265" s="1">
+        <v>289.20999999999998</v>
+      </c>
+      <c r="H265" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="I265" s="1">
+        <v>84.93</v>
+      </c>
+      <c r="J265" s="1">
+        <v>6.27</v>
+      </c>
+      <c r="K265" s="1">
+        <v>1421.2900099999999</v>
+      </c>
+      <c r="L265" s="1">
+        <v>1009.03</v>
+      </c>
+      <c r="M265" s="1">
+        <v>141</v>
+      </c>
+      <c r="N265" s="1">
+        <v>2468.6000199999999</v>
+      </c>
+      <c r="O265" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P265" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>35</v>
+      </c>
+      <c r="B266" t="s">
+        <v>26</v>
+      </c>
+      <c r="C266" s="1">
+        <v>68</v>
+      </c>
+      <c r="D266" s="1">
+        <v>5995.4263499999997</v>
+      </c>
+      <c r="E266" s="1">
+        <v>88.085350000000005</v>
+      </c>
+      <c r="F266" s="1">
+        <v>29.71733</v>
+      </c>
+      <c r="G266" s="1">
+        <v>297.14</v>
+      </c>
+      <c r="H266" s="1">
+        <v>12.16</v>
+      </c>
+      <c r="I266" s="1">
+        <v>85.97</v>
+      </c>
+      <c r="J266" s="1">
+        <v>9.57</v>
+      </c>
+      <c r="K266" s="1">
+        <v>1032.3000099999999</v>
+      </c>
+      <c r="L266" s="1">
+        <v>1301.5699500000001</v>
+      </c>
+      <c r="M266" s="1">
+        <v>196.17</v>
+      </c>
+      <c r="N266" s="1">
+        <v>2395.3100599999998</v>
+      </c>
+      <c r="O266" s="2">
+        <v>46037</v>
+      </c>
+      <c r="P266" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>45</v>
+      </c>
+      <c r="B267" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" s="1">
+        <v>77</v>
+      </c>
+      <c r="D267">
+        <v>7162</v>
+      </c>
+      <c r="E267" s="1">
+        <v>82</v>
+      </c>
+      <c r="F267" s="1">
+        <v>26</v>
+      </c>
+      <c r="G267">
+        <v>237</v>
+      </c>
+      <c r="H267">
+        <v>5</v>
+      </c>
+      <c r="I267">
+        <v>94</v>
+      </c>
+      <c r="J267">
+        <v>100</v>
+      </c>
+      <c r="K267">
+        <v>381</v>
+      </c>
+      <c r="L267">
+        <v>171</v>
+      </c>
+      <c r="M267">
+        <v>24</v>
+      </c>
+      <c r="N267">
+        <v>1109</v>
+      </c>
+      <c r="O267" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P267" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>20</v>
+      </c>
+      <c r="B268" t="s">
+        <v>21</v>
+      </c>
+      <c r="C268" s="1">
+        <v>77</v>
+      </c>
+      <c r="D268">
+        <v>8024</v>
+      </c>
+      <c r="E268" s="1">
+        <v>82</v>
+      </c>
+      <c r="F268" s="1">
+        <v>26</v>
+      </c>
+      <c r="G268">
+        <v>327</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>119</v>
+      </c>
+      <c r="J268">
+        <v>133</v>
+      </c>
+      <c r="K268">
+        <v>588</v>
+      </c>
+      <c r="L268">
+        <v>151</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>1548</v>
+      </c>
+      <c r="O268" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P268" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>35</v>
+      </c>
+      <c r="B269" t="s">
+        <v>26</v>
+      </c>
+      <c r="C269" s="1">
+        <v>77</v>
+      </c>
+      <c r="D269">
+        <v>8685</v>
+      </c>
+      <c r="E269" s="1">
+        <v>82</v>
+      </c>
+      <c r="F269" s="1">
+        <v>26</v>
+      </c>
+      <c r="G269">
+        <v>438</v>
+      </c>
+      <c r="H269">
+        <v>4</v>
+      </c>
+      <c r="I269">
+        <v>133</v>
+      </c>
+      <c r="J269">
+        <v>151</v>
+      </c>
+      <c r="K269">
+        <v>645</v>
+      </c>
+      <c r="L269">
+        <v>344</v>
+      </c>
+      <c r="M269">
+        <v>55</v>
+      </c>
+      <c r="N269">
+        <v>1545</v>
+      </c>
+      <c r="O269" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P269" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>47</v>
+      </c>
+      <c r="B270" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="1">
+        <v>77</v>
+      </c>
+      <c r="D270">
+        <v>6967</v>
+      </c>
+      <c r="E270" s="1">
+        <v>82</v>
+      </c>
+      <c r="F270" s="1">
+        <v>26</v>
+      </c>
+      <c r="G270">
+        <v>344</v>
+      </c>
+      <c r="H270">
+        <v>6</v>
+      </c>
+      <c r="I270">
+        <v>117</v>
+      </c>
+      <c r="J270">
+        <v>120</v>
+      </c>
+      <c r="K270">
+        <v>509</v>
+      </c>
+      <c r="L270">
+        <v>218</v>
+      </c>
+      <c r="M270">
+        <v>24</v>
+      </c>
+      <c r="N270">
+        <v>1215</v>
+      </c>
+      <c r="O270" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P270" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>44</v>
+      </c>
+      <c r="B271" t="s">
+        <v>26</v>
+      </c>
+      <c r="C271" s="1">
+        <v>77</v>
+      </c>
+      <c r="D271">
+        <v>6833</v>
+      </c>
+      <c r="E271" s="1">
+        <v>82</v>
+      </c>
+      <c r="F271" s="1">
+        <v>25</v>
+      </c>
+      <c r="G271">
+        <v>279</v>
+      </c>
+      <c r="H271">
+        <v>3</v>
+      </c>
+      <c r="I271">
+        <v>96</v>
+      </c>
+      <c r="J271">
+        <v>105</v>
+      </c>
+      <c r="K271">
+        <v>360</v>
+      </c>
+      <c r="L271">
+        <v>232</v>
+      </c>
+      <c r="M271">
+        <v>49</v>
+      </c>
+      <c r="N271">
+        <v>1112</v>
+      </c>
+      <c r="O271" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P271" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>25</v>
+      </c>
+      <c r="B272" t="s">
+        <v>26</v>
+      </c>
+      <c r="C272" s="1">
+        <v>77</v>
+      </c>
+      <c r="D272">
+        <v>7670</v>
+      </c>
+      <c r="E272" s="1">
+        <v>82</v>
+      </c>
+      <c r="F272" s="1">
+        <v>26</v>
+      </c>
+      <c r="G272">
+        <v>274</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>94</v>
+      </c>
+      <c r="J272">
+        <v>97</v>
+      </c>
+      <c r="K272">
+        <v>421</v>
+      </c>
+      <c r="L272">
+        <v>238</v>
+      </c>
+      <c r="M272">
+        <v>77</v>
+      </c>
+      <c r="N272">
+        <v>1182</v>
+      </c>
+      <c r="O272" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P272" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>30</v>
+      </c>
+      <c r="B273" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273" s="1">
+        <v>77</v>
+      </c>
+      <c r="D273">
+        <v>6870</v>
+      </c>
+      <c r="E273" s="1">
+        <v>82</v>
+      </c>
+      <c r="F273" s="1">
+        <v>26</v>
+      </c>
+      <c r="G273">
+        <v>290</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>100</v>
+      </c>
+      <c r="J273">
+        <v>101</v>
+      </c>
+      <c r="K273">
+        <v>470</v>
+      </c>
+      <c r="L273">
+        <v>169</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>1406</v>
+      </c>
+      <c r="O273" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P273" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>43</v>
+      </c>
+      <c r="B274" t="s">
+        <v>29</v>
+      </c>
+      <c r="C274" s="1">
+        <v>77</v>
+      </c>
+      <c r="D274">
+        <v>7428</v>
+      </c>
+      <c r="E274" s="1">
+        <v>82</v>
+      </c>
+      <c r="F274" s="1">
+        <v>26</v>
+      </c>
+      <c r="G274">
+        <v>179</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>70</v>
+      </c>
+      <c r="J274">
+        <v>72</v>
+      </c>
+      <c r="K274">
+        <v>314</v>
+      </c>
+      <c r="L274">
+        <v>16</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>1183</v>
+      </c>
+      <c r="O274" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P274" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>38</v>
+      </c>
+      <c r="B275" t="s">
+        <v>29</v>
+      </c>
+      <c r="C275" s="1">
+        <v>77</v>
+      </c>
+      <c r="D275">
+        <v>7717</v>
+      </c>
+      <c r="E275" s="1">
+        <v>82</v>
+      </c>
+      <c r="F275" s="1">
+        <v>26</v>
+      </c>
+      <c r="G275">
+        <v>323</v>
+      </c>
+      <c r="H275">
+        <v>3</v>
+      </c>
+      <c r="I275">
+        <v>110</v>
+      </c>
+      <c r="J275">
+        <v>116</v>
+      </c>
+      <c r="K275">
+        <v>660</v>
+      </c>
+      <c r="L275">
+        <v>202</v>
+      </c>
+      <c r="M275">
+        <v>29</v>
+      </c>
+      <c r="N275">
+        <v>1755</v>
+      </c>
+      <c r="O275" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P275" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>23</v>
+      </c>
+      <c r="B276" t="s">
+        <v>17</v>
+      </c>
+      <c r="C276" s="1">
+        <v>77</v>
+      </c>
+      <c r="D276">
+        <v>6888</v>
+      </c>
+      <c r="E276" s="1">
+        <v>82</v>
+      </c>
+      <c r="F276" s="1">
+        <v>26</v>
+      </c>
+      <c r="G276">
+        <v>282</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276">
+        <v>93</v>
+      </c>
+      <c r="J276">
+        <v>95</v>
+      </c>
+      <c r="K276">
+        <v>402</v>
+      </c>
+      <c r="L276">
+        <v>124</v>
+      </c>
+      <c r="M276">
+        <v>27</v>
+      </c>
+      <c r="N276">
+        <v>1150</v>
+      </c>
+      <c r="O276" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P276" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>34</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" s="1">
+        <v>77</v>
+      </c>
+      <c r="D277">
+        <v>5339</v>
+      </c>
+      <c r="E277" s="1">
+        <v>82</v>
+      </c>
+      <c r="F277" s="1">
+        <v>26</v>
+      </c>
+      <c r="G277">
+        <v>191</v>
+      </c>
+      <c r="H277">
+        <v>3</v>
+      </c>
+      <c r="I277">
+        <v>58</v>
+      </c>
+      <c r="J277">
+        <v>59</v>
+      </c>
+      <c r="K277">
+        <v>206</v>
+      </c>
+      <c r="L277">
+        <v>51</v>
+      </c>
+      <c r="M277">
+        <v>2</v>
+      </c>
+      <c r="N277">
+        <v>714</v>
+      </c>
+      <c r="O277" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P277" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>16</v>
+      </c>
+      <c r="B278" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" s="1">
+        <v>77</v>
+      </c>
+      <c r="D278">
+        <v>7464</v>
+      </c>
+      <c r="E278" s="1">
+        <v>82</v>
+      </c>
+      <c r="F278" s="1">
+        <v>26</v>
+      </c>
+      <c r="G278">
+        <v>396</v>
+      </c>
+      <c r="H278">
+        <v>2</v>
+      </c>
+      <c r="I278">
+        <v>146</v>
+      </c>
+      <c r="J278">
+        <v>157</v>
+      </c>
+      <c r="K278">
+        <v>605</v>
+      </c>
+      <c r="L278">
+        <v>346</v>
+      </c>
+      <c r="M278">
+        <v>19</v>
+      </c>
+      <c r="N278">
+        <v>1356</v>
+      </c>
+      <c r="O278" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P278" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>24</v>
+      </c>
+      <c r="B279" t="s">
+        <v>21</v>
+      </c>
+      <c r="C279" s="1">
+        <v>77</v>
+      </c>
+      <c r="D279">
+        <v>3467</v>
+      </c>
+      <c r="E279" s="1">
+        <v>82</v>
+      </c>
+      <c r="F279" s="1">
+        <v>26</v>
+      </c>
+      <c r="G279">
+        <v>156</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>44</v>
+      </c>
+      <c r="J279">
+        <v>45</v>
+      </c>
+      <c r="K279">
+        <v>185</v>
+      </c>
+      <c r="L279">
+        <v>49</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>535</v>
+      </c>
+      <c r="O279" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P279" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>36</v>
+      </c>
+      <c r="B280" t="s">
+        <v>26</v>
+      </c>
+      <c r="C280" s="1">
+        <v>77</v>
+      </c>
+      <c r="D280">
+        <v>6700</v>
+      </c>
+      <c r="E280" s="1">
+        <v>82</v>
+      </c>
+      <c r="F280" s="1">
+        <v>26</v>
+      </c>
+      <c r="G280">
+        <v>311</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>94</v>
+      </c>
+      <c r="J280">
+        <v>103</v>
+      </c>
+      <c r="K280">
+        <v>519</v>
+      </c>
+      <c r="L280">
+        <v>323</v>
+      </c>
+      <c r="M280">
+        <v>71</v>
+      </c>
+      <c r="N280">
+        <v>1220</v>
+      </c>
+      <c r="O280" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P280" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>42</v>
+      </c>
+      <c r="B281" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" s="1">
+        <v>77</v>
+      </c>
+      <c r="D281">
+        <v>7355</v>
+      </c>
+      <c r="E281" s="1">
+        <v>82</v>
+      </c>
+      <c r="F281" s="1">
+        <v>26</v>
+      </c>
+      <c r="G281">
+        <v>142</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>55</v>
+      </c>
+      <c r="J281">
+        <v>57</v>
+      </c>
+      <c r="K281">
+        <v>325</v>
+      </c>
+      <c r="L281">
+        <v>123</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>935</v>
+      </c>
+      <c r="O281" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P281" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>31</v>
+      </c>
+      <c r="B282" t="s">
+        <v>19</v>
+      </c>
+      <c r="C282" s="1">
+        <v>77</v>
+      </c>
+      <c r="D282">
+        <v>6763</v>
+      </c>
+      <c r="E282" s="1">
+        <v>82</v>
+      </c>
+      <c r="F282" s="1">
+        <v>26</v>
+      </c>
+      <c r="G282">
+        <v>204</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>69</v>
+      </c>
+      <c r="J282">
+        <v>70</v>
+      </c>
+      <c r="K282">
+        <v>204</v>
+      </c>
+      <c r="L282">
+        <v>76</v>
+      </c>
+      <c r="M282">
+        <v>17</v>
+      </c>
+      <c r="N282">
+        <v>793</v>
+      </c>
+      <c r="O282" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P282" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283" s="1">
+        <v>77</v>
+      </c>
+      <c r="D283">
+        <v>7178</v>
+      </c>
+      <c r="E283" s="1">
+        <v>82</v>
+      </c>
+      <c r="F283" s="1">
+        <v>26</v>
+      </c>
+      <c r="G283">
+        <v>351</v>
+      </c>
+      <c r="H283">
+        <v>3</v>
+      </c>
+      <c r="I283">
+        <v>109</v>
+      </c>
+      <c r="J283">
+        <v>112</v>
+      </c>
+      <c r="K283">
+        <v>520</v>
+      </c>
+      <c r="L283">
+        <v>364</v>
+      </c>
+      <c r="M283">
+        <v>53</v>
+      </c>
+      <c r="N283">
+        <v>1325</v>
+      </c>
+      <c r="O283" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P283" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>33</v>
+      </c>
+      <c r="B284" t="s">
+        <v>29</v>
+      </c>
+      <c r="C284" s="1">
+        <v>77</v>
+      </c>
+      <c r="D284">
+        <v>7637</v>
+      </c>
+      <c r="E284" s="1">
+        <v>82</v>
+      </c>
+      <c r="F284" s="1">
+        <v>26</v>
+      </c>
+      <c r="G284">
+        <v>253</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>104</v>
+      </c>
+      <c r="J284">
+        <v>106</v>
+      </c>
+      <c r="K284">
+        <v>563</v>
+      </c>
+      <c r="L284">
+        <v>89</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>1500</v>
+      </c>
+      <c r="O284" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P284" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>48</v>
+      </c>
+      <c r="B285" t="s">
+        <v>26</v>
+      </c>
+      <c r="C285" s="1">
+        <v>77</v>
+      </c>
+      <c r="D285">
+        <v>6880</v>
+      </c>
+      <c r="E285" s="1">
+        <v>82</v>
+      </c>
+      <c r="F285" s="1">
+        <v>26</v>
+      </c>
+      <c r="G285">
+        <v>260</v>
+      </c>
+      <c r="H285">
+        <v>6</v>
+      </c>
+      <c r="I285">
+        <v>85</v>
+      </c>
+      <c r="J285">
+        <v>87</v>
+      </c>
+      <c r="K285">
+        <v>374</v>
+      </c>
+      <c r="L285">
+        <v>213</v>
+      </c>
+      <c r="M285">
+        <v>65</v>
+      </c>
+      <c r="N285">
+        <v>1106</v>
+      </c>
+      <c r="O285" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P285" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>37</v>
+      </c>
+      <c r="B286" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286" s="1">
+        <v>77</v>
+      </c>
+      <c r="D286">
+        <v>5779</v>
+      </c>
+      <c r="E286" s="1">
+        <v>82</v>
+      </c>
+      <c r="F286" s="1">
+        <v>26</v>
+      </c>
+      <c r="G286">
+        <v>378</v>
+      </c>
+      <c r="H286">
+        <v>2</v>
+      </c>
+      <c r="I286">
+        <v>88</v>
+      </c>
+      <c r="J286">
+        <v>94</v>
+      </c>
+      <c r="K286">
+        <v>285</v>
+      </c>
+      <c r="L286">
+        <v>107</v>
+      </c>
+      <c r="M286">
+        <v>53</v>
+      </c>
+      <c r="N286">
+        <v>918</v>
+      </c>
+      <c r="O286" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P286" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>39</v>
+      </c>
+      <c r="B287" t="s">
+        <v>29</v>
+      </c>
+      <c r="C287" s="1">
+        <v>77</v>
+      </c>
+      <c r="D287">
+        <v>3781</v>
+      </c>
+      <c r="E287" s="1">
+        <v>82</v>
+      </c>
+      <c r="F287" s="1">
+        <v>26</v>
+      </c>
+      <c r="G287">
+        <v>307</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>30</v>
+      </c>
+      <c r="J287">
+        <v>30</v>
+      </c>
+      <c r="K287">
+        <v>529</v>
+      </c>
+      <c r="L287">
+        <v>1219</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>1721</v>
+      </c>
+      <c r="O287" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P287" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>27</v>
+      </c>
+      <c r="B288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C288" s="1">
+        <v>77</v>
+      </c>
+      <c r="D288">
+        <v>6816</v>
+      </c>
+      <c r="E288" s="1">
+        <v>82</v>
+      </c>
+      <c r="F288" s="1">
+        <v>26</v>
+      </c>
+      <c r="G288">
+        <v>169</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>43</v>
+      </c>
+      <c r="J288">
+        <v>45</v>
+      </c>
+      <c r="K288">
+        <v>128</v>
+      </c>
+      <c r="L288">
+        <v>31</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>712</v>
+      </c>
+      <c r="O288" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P288" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289" t="s">
+        <v>19</v>
+      </c>
+      <c r="C289" s="1">
+        <v>77</v>
+      </c>
+      <c r="D289">
+        <v>7005</v>
+      </c>
+      <c r="E289" s="1">
+        <v>82</v>
+      </c>
+      <c r="F289" s="1">
+        <v>26</v>
+      </c>
+      <c r="G289">
+        <v>213</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>75</v>
+      </c>
+      <c r="J289">
+        <v>77</v>
+      </c>
+      <c r="K289">
+        <v>267</v>
+      </c>
+      <c r="L289">
+        <v>84</v>
+      </c>
+      <c r="M289">
+        <v>5</v>
+      </c>
+      <c r="N289">
+        <v>1035</v>
+      </c>
+      <c r="O289" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P289" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>46</v>
+      </c>
+      <c r="B290" t="s">
+        <v>19</v>
+      </c>
+      <c r="C290" s="1">
+        <v>77</v>
+      </c>
+      <c r="D290">
+        <v>6927</v>
+      </c>
+      <c r="E290" s="1">
+        <v>82</v>
+      </c>
+      <c r="F290" s="1">
+        <v>26</v>
+      </c>
+      <c r="G290">
+        <v>261</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>78</v>
+      </c>
+      <c r="J290">
+        <v>80</v>
+      </c>
+      <c r="K290">
+        <v>318</v>
+      </c>
+      <c r="L290">
+        <v>72</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>1017</v>
+      </c>
+      <c r="O290" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P290" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>32</v>
+      </c>
+      <c r="B291" t="s">
+        <v>19</v>
+      </c>
+      <c r="C291" s="1">
+        <v>77</v>
+      </c>
+      <c r="D291">
+        <v>5525</v>
+      </c>
+      <c r="E291" s="1">
+        <v>82</v>
+      </c>
+      <c r="F291" s="1">
+        <v>26</v>
+      </c>
+      <c r="G291">
+        <v>174</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>48</v>
+      </c>
+      <c r="J291">
+        <v>48</v>
+      </c>
+      <c r="K291">
+        <v>105</v>
+      </c>
+      <c r="L291">
+        <v>31</v>
+      </c>
+      <c r="M291">
+        <v>43</v>
+      </c>
+      <c r="N291">
+        <v>597</v>
+      </c>
+      <c r="O291" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P291" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>28</v>
+      </c>
+      <c r="B292" t="s">
+        <v>29</v>
+      </c>
+      <c r="C292" s="1">
+        <v>77</v>
+      </c>
+      <c r="D292">
+        <v>5486</v>
+      </c>
+      <c r="E292" s="1">
+        <v>82</v>
+      </c>
+      <c r="F292" s="1">
+        <v>26</v>
+      </c>
+      <c r="G292">
+        <v>299</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>44</v>
+      </c>
+      <c r="J292">
+        <v>46</v>
+      </c>
+      <c r="K292">
+        <v>182</v>
+      </c>
+      <c r="L292">
+        <v>35</v>
+      </c>
+      <c r="M292">
+        <v>5</v>
+      </c>
+      <c r="N292">
+        <v>832</v>
+      </c>
+      <c r="O292" s="2">
+        <v>46038</v>
+      </c>
+      <c r="P292" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>32</v>
+      </c>
+      <c r="B293" t="s">
+        <v>19</v>
+      </c>
+      <c r="C293">
         <v>50</v>
+      </c>
+      <c r="D293" s="1">
+        <v>2756.6235999999999</v>
+      </c>
+      <c r="E293" s="1">
+        <v>55.275080000000003</v>
+      </c>
+      <c r="F293" s="1">
+        <v>21.234169999999999</v>
+      </c>
+      <c r="G293" s="1">
+        <v>77.92</v>
+      </c>
+      <c r="H293" s="1">
+        <v>0</v>
+      </c>
+      <c r="I293" s="1">
+        <v>21.59</v>
+      </c>
+      <c r="J293" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K293" s="1">
+        <v>74.86</v>
+      </c>
+      <c r="L293" s="1">
+        <v>10.74</v>
+      </c>
+      <c r="M293" s="1">
+        <v>0</v>
+      </c>
+      <c r="N293" s="1">
+        <v>211.5</v>
+      </c>
+      <c r="O293" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P293" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>24</v>
+      </c>
+      <c r="B294" t="s">
+        <v>21</v>
+      </c>
+      <c r="C294">
+        <v>53</v>
+      </c>
+      <c r="D294" s="1">
+        <v>2666.2482</v>
+      </c>
+      <c r="E294" s="1">
+        <v>50.39087</v>
+      </c>
+      <c r="F294" s="1">
+        <v>22.149010000000001</v>
+      </c>
+      <c r="G294" s="1">
+        <v>96.39</v>
+      </c>
+      <c r="H294" s="1">
+        <v>0</v>
+      </c>
+      <c r="I294" s="1">
+        <v>20.75</v>
+      </c>
+      <c r="J294" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="K294" s="1">
+        <v>128.55000000000001</v>
+      </c>
+      <c r="L294" s="1">
+        <v>23.36</v>
+      </c>
+      <c r="M294" s="1">
+        <v>0</v>
+      </c>
+      <c r="N294" s="1">
+        <v>284.18</v>
+      </c>
+      <c r="O294" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P294" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>42</v>
+      </c>
+      <c r="B295" t="s">
+        <v>15</v>
+      </c>
+      <c r="C295">
+        <v>55</v>
+      </c>
+      <c r="D295" s="1">
+        <v>5357.8419800000001</v>
+      </c>
+      <c r="E295" s="1">
+        <v>97.06353</v>
+      </c>
+      <c r="F295" s="1">
+        <v>25.27215</v>
+      </c>
+      <c r="G295" s="1">
+        <v>109.73</v>
+      </c>
+      <c r="H295" s="1">
+        <v>0</v>
+      </c>
+      <c r="I295" s="1">
+        <v>27.85</v>
+      </c>
+      <c r="J295" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="K295" s="1">
+        <v>177.26000999999999</v>
+      </c>
+      <c r="L295" s="1">
+        <v>94.95</v>
+      </c>
+      <c r="M295" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="N295" s="1">
+        <v>495.53</v>
+      </c>
+      <c r="O295" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P295" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>45</v>
+      </c>
+      <c r="B296" t="s">
+        <v>15</v>
+      </c>
+      <c r="C296">
+        <v>55</v>
+      </c>
+      <c r="D296" s="1">
+        <v>5110.7061800000001</v>
+      </c>
+      <c r="E296" s="1">
+        <v>92.586380000000005</v>
+      </c>
+      <c r="F296" s="1">
+        <v>25.48387</v>
+      </c>
+      <c r="G296" s="1">
+        <v>112.75</v>
+      </c>
+      <c r="H296" s="1">
+        <v>0</v>
+      </c>
+      <c r="I296" s="1">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="J296" s="1">
+        <v>2.78</v>
+      </c>
+      <c r="K296" s="1">
+        <v>290.67</v>
+      </c>
+      <c r="L296" s="1">
+        <v>92.43</v>
+      </c>
+      <c r="M296" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N296" s="1">
+        <v>558.59999000000005</v>
+      </c>
+      <c r="O296" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P296" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>28</v>
+      </c>
+      <c r="B297" t="s">
+        <v>29</v>
+      </c>
+      <c r="C297">
+        <v>50</v>
+      </c>
+      <c r="D297" s="1">
+        <v>2886.5020100000002</v>
+      </c>
+      <c r="E297" s="1">
+        <v>57.879370000000002</v>
+      </c>
+      <c r="F297" s="1">
+        <v>23.68666</v>
+      </c>
+      <c r="G297" s="1">
+        <v>118.3</v>
+      </c>
+      <c r="H297" s="1">
+        <v>0</v>
+      </c>
+      <c r="I297" s="1">
+        <v>30.88</v>
+      </c>
+      <c r="J297" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="K297" s="1">
+        <v>71.05</v>
+      </c>
+      <c r="L297" s="1">
+        <v>47.57</v>
+      </c>
+      <c r="M297" s="1">
+        <v>0</v>
+      </c>
+      <c r="N297" s="1">
+        <v>256.70999999999998</v>
+      </c>
+      <c r="O297" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P297" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>43</v>
+      </c>
+      <c r="B298" t="s">
+        <v>29</v>
+      </c>
+      <c r="C298">
+        <v>61</v>
+      </c>
+      <c r="D298" s="1">
+        <v>6187.4178199999997</v>
+      </c>
+      <c r="E298" s="1">
+        <v>102.00778</v>
+      </c>
+      <c r="F298" s="1">
+        <v>24.193190000000001</v>
+      </c>
+      <c r="G298" s="1">
+        <v>151.01</v>
+      </c>
+      <c r="H298" s="1">
+        <v>0</v>
+      </c>
+      <c r="I298" s="1">
+        <v>46.97</v>
+      </c>
+      <c r="J298" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="K298" s="1">
+        <v>487.83</v>
+      </c>
+      <c r="L298" s="1">
+        <v>100.63</v>
+      </c>
+      <c r="M298" s="1">
+        <v>0</v>
+      </c>
+      <c r="N298" s="1">
+        <v>1026.76999</v>
+      </c>
+      <c r="O298" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P298" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>34</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299">
+        <v>53</v>
+      </c>
+      <c r="D299" s="1">
+        <v>3972.30269</v>
+      </c>
+      <c r="E299" s="1">
+        <v>75.074700000000007</v>
+      </c>
+      <c r="F299" s="1">
+        <v>26.542380000000001</v>
+      </c>
+      <c r="G299" s="1">
+        <v>155.88</v>
+      </c>
+      <c r="H299" s="1">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I299" s="1">
+        <v>42.65</v>
+      </c>
+      <c r="J299" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="K299" s="1">
+        <v>226.02</v>
+      </c>
+      <c r="L299" s="1">
+        <v>101.7</v>
+      </c>
+      <c r="M299" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="N299" s="1">
+        <v>532.79998999999998</v>
+      </c>
+      <c r="O299" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P299" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>18</v>
+      </c>
+      <c r="B300" t="s">
+        <v>19</v>
+      </c>
+      <c r="C300">
+        <v>61</v>
+      </c>
+      <c r="D300" s="1">
+        <v>5547.3707299999996</v>
+      </c>
+      <c r="E300" s="1">
+        <v>91.455749999999995</v>
+      </c>
+      <c r="F300" s="1">
+        <v>27.80743</v>
+      </c>
+      <c r="G300" s="1">
+        <v>165.13</v>
+      </c>
+      <c r="H300" s="1">
+        <v>0</v>
+      </c>
+      <c r="I300" s="1">
+        <v>56.02</v>
+      </c>
+      <c r="J300" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="K300" s="1">
+        <v>316.15001000000001</v>
+      </c>
+      <c r="L300" s="1">
+        <v>176.99</v>
+      </c>
+      <c r="M300" s="1">
+        <v>24.33</v>
+      </c>
+      <c r="N300" s="1">
+        <v>883.56001000000003</v>
+      </c>
+      <c r="O300" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P300" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>27</v>
+      </c>
+      <c r="B301" t="s">
+        <v>19</v>
+      </c>
+      <c r="C301">
+        <v>61</v>
+      </c>
+      <c r="D301" s="1">
+        <v>5661.0393100000001</v>
+      </c>
+      <c r="E301" s="1">
+        <v>93.329729999999998</v>
+      </c>
+      <c r="F301" s="1">
+        <v>28.37379</v>
+      </c>
+      <c r="G301" s="1">
+        <v>168.96</v>
+      </c>
+      <c r="H301" s="1">
+        <v>0</v>
+      </c>
+      <c r="I301" s="1">
+        <v>51.84</v>
+      </c>
+      <c r="J301" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K301" s="1">
+        <v>289.06</v>
+      </c>
+      <c r="L301" s="1">
+        <v>140.86000000000001</v>
+      </c>
+      <c r="M301" s="1">
+        <v>62.12</v>
+      </c>
+      <c r="N301" s="1">
+        <v>772.12</v>
+      </c>
+      <c r="O301" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P301" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>44</v>
+      </c>
+      <c r="B302" t="s">
+        <v>26</v>
+      </c>
+      <c r="C302">
+        <v>61</v>
+      </c>
+      <c r="D302" s="1">
+        <v>5860.4605099999999</v>
+      </c>
+      <c r="E302" s="1">
+        <v>96.617450000000005</v>
+      </c>
+      <c r="F302" s="1">
+        <v>26.918669999999999</v>
+      </c>
+      <c r="G302" s="1">
+        <v>175.1</v>
+      </c>
+      <c r="H302" s="1">
+        <v>0</v>
+      </c>
+      <c r="I302" s="1">
+        <v>61.13</v>
+      </c>
+      <c r="J302" s="1">
+        <v>9.64</v>
+      </c>
+      <c r="K302" s="1">
+        <v>515.57002</v>
+      </c>
+      <c r="L302" s="1">
+        <v>185.27</v>
+      </c>
+      <c r="M302" s="1">
+        <v>40.78</v>
+      </c>
+      <c r="N302" s="1">
+        <v>1082.6000100000001</v>
+      </c>
+      <c r="O302" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P302" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>46</v>
+      </c>
+      <c r="B303" t="s">
+        <v>19</v>
+      </c>
+      <c r="C303">
+        <v>61</v>
+      </c>
+      <c r="D303" s="1">
+        <v>5488.4634999999998</v>
+      </c>
+      <c r="E303" s="1">
+        <v>90.484589999999997</v>
+      </c>
+      <c r="F303" s="1">
+        <v>24.240459999999999</v>
+      </c>
+      <c r="G303" s="1">
+        <v>184.62</v>
+      </c>
+      <c r="H303" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I303" s="1">
+        <v>42.46</v>
+      </c>
+      <c r="J303" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="K303" s="1">
+        <v>396.52</v>
+      </c>
+      <c r="L303" s="1">
+        <v>81.56</v>
+      </c>
+      <c r="M303" s="1">
+        <v>0</v>
+      </c>
+      <c r="N303" s="1">
+        <v>799.62</v>
+      </c>
+      <c r="O303" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P303" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304">
+        <v>61</v>
+      </c>
+      <c r="D304" s="1">
+        <v>5968.1564900000003</v>
+      </c>
+      <c r="E304" s="1">
+        <v>98.392970000000005</v>
+      </c>
+      <c r="F304" s="1">
+        <v>25.515450000000001</v>
+      </c>
+      <c r="G304" s="1">
+        <v>185.32</v>
+      </c>
+      <c r="H304" s="1">
+        <v>0</v>
+      </c>
+      <c r="I304" s="1">
+        <v>67.94</v>
+      </c>
+      <c r="J304" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="K304" s="1">
+        <v>625.28998999999999</v>
+      </c>
+      <c r="L304" s="1">
+        <v>215.54</v>
+      </c>
+      <c r="M304" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="N304" s="1">
+        <v>1230.5200299999999</v>
+      </c>
+      <c r="O304" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P304" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>31</v>
+      </c>
+      <c r="B305" t="s">
+        <v>19</v>
+      </c>
+      <c r="C305">
+        <v>61</v>
+      </c>
+      <c r="D305" s="1">
+        <v>5427.8586400000004</v>
+      </c>
+      <c r="E305" s="1">
+        <v>89.485439999999997</v>
+      </c>
+      <c r="F305" s="1">
+        <v>30.56015</v>
+      </c>
+      <c r="G305" s="1">
+        <v>198.87</v>
+      </c>
+      <c r="H305" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="I305" s="1">
+        <v>63.71</v>
+      </c>
+      <c r="J305" s="1">
+        <v>5.43</v>
+      </c>
+      <c r="K305" s="1">
+        <v>317.24</v>
+      </c>
+      <c r="L305" s="1">
+        <v>169.53</v>
+      </c>
+      <c r="M305" s="1">
+        <v>72.44</v>
+      </c>
+      <c r="N305" s="1">
+        <v>772.05998999999997</v>
+      </c>
+      <c r="O305" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P305" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>37</v>
+      </c>
+      <c r="B306" t="s">
+        <v>17</v>
+      </c>
+      <c r="C306">
+        <v>53</v>
+      </c>
+      <c r="D306" s="1">
+        <v>3835.2998499999999</v>
+      </c>
+      <c r="E306" s="1">
+        <v>72.485410000000002</v>
+      </c>
+      <c r="F306" s="1">
+        <v>26.262640000000001</v>
+      </c>
+      <c r="G306" s="1">
+        <v>204.1</v>
+      </c>
+      <c r="H306" s="1">
+        <v>0</v>
+      </c>
+      <c r="I306" s="1">
+        <v>62.04</v>
+      </c>
+      <c r="J306" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K306" s="1">
+        <v>280.12000999999998</v>
+      </c>
+      <c r="L306" s="1">
+        <v>139.5</v>
+      </c>
+      <c r="M306" s="1">
+        <v>13.43</v>
+      </c>
+      <c r="N306" s="1">
+        <v>612.77999</v>
+      </c>
+      <c r="O306" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P306" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>38</v>
+      </c>
+      <c r="B307" t="s">
+        <v>29</v>
+      </c>
+      <c r="C307">
+        <v>61</v>
+      </c>
+      <c r="D307" s="1">
+        <v>6285.8790900000004</v>
+      </c>
+      <c r="E307" s="1">
+        <v>103.63104</v>
+      </c>
+      <c r="F307" s="1">
+        <v>26.06155</v>
+      </c>
+      <c r="G307" s="1">
+        <v>204.19</v>
+      </c>
+      <c r="H307" s="1">
+        <v>3</v>
+      </c>
+      <c r="I307" s="1">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="J307" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="K307" s="1">
+        <v>506.44999000000001</v>
+      </c>
+      <c r="L307" s="1">
+        <v>160.44</v>
+      </c>
+      <c r="M307" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="N307" s="1">
+        <v>1265.4699900000001</v>
+      </c>
+      <c r="O307" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P307" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>22</v>
+      </c>
+      <c r="B308" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308">
+        <v>61</v>
+      </c>
+      <c r="D308" s="1">
+        <v>6056.3881499999998</v>
+      </c>
+      <c r="E308" s="1">
+        <v>99.847579999999994</v>
+      </c>
+      <c r="F308" s="1">
+        <v>27.945209999999999</v>
+      </c>
+      <c r="G308" s="1">
+        <v>207.59</v>
+      </c>
+      <c r="H308" s="1">
+        <v>0</v>
+      </c>
+      <c r="I308" s="1">
+        <v>54.26</v>
+      </c>
+      <c r="J308" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="K308" s="1">
+        <v>443.89001000000002</v>
+      </c>
+      <c r="L308" s="1">
+        <v>186.42</v>
+      </c>
+      <c r="M308" s="1">
+        <v>45.71</v>
+      </c>
+      <c r="N308" s="1">
+        <v>1006.47001</v>
+      </c>
+      <c r="O308" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P308" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>25</v>
+      </c>
+      <c r="B309" t="s">
+        <v>26</v>
+      </c>
+      <c r="C309">
+        <v>61</v>
+      </c>
+      <c r="D309" s="1">
+        <v>6047.8567199999998</v>
+      </c>
+      <c r="E309" s="1">
+        <v>99.70693</v>
+      </c>
+      <c r="F309" s="1">
+        <v>27.420089999999998</v>
+      </c>
+      <c r="G309" s="1">
+        <v>217.09</v>
+      </c>
+      <c r="H309" s="1">
+        <v>0</v>
+      </c>
+      <c r="I309" s="1">
+        <v>70.48</v>
+      </c>
+      <c r="J309" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="K309" s="1">
+        <v>581.96</v>
+      </c>
+      <c r="L309" s="1">
+        <v>385.96998000000002</v>
+      </c>
+      <c r="M309" s="1">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="N309" s="1">
+        <v>1234.8000199999999</v>
+      </c>
+      <c r="O309" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P309" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>33</v>
+      </c>
+      <c r="B310" t="s">
+        <v>29</v>
+      </c>
+      <c r="C310">
+        <v>61</v>
+      </c>
+      <c r="D310" s="1">
+        <v>6592.8236399999996</v>
+      </c>
+      <c r="E310" s="1">
+        <v>108.69143</v>
+      </c>
+      <c r="F310" s="1">
+        <v>25.86636</v>
+      </c>
+      <c r="G310" s="1">
+        <v>222.16</v>
+      </c>
+      <c r="H310" s="1">
+        <v>0</v>
+      </c>
+      <c r="I310" s="1">
+        <v>64.97</v>
+      </c>
+      <c r="J310" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="K310" s="1">
+        <v>567.50999000000002</v>
+      </c>
+      <c r="L310" s="1">
+        <v>199.54</v>
+      </c>
+      <c r="M310" s="1">
+        <v>10.52</v>
+      </c>
+      <c r="N310" s="1">
+        <v>1263.22002</v>
+      </c>
+      <c r="O310" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P310" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311" t="s">
+        <v>17</v>
+      </c>
+      <c r="C311">
+        <v>61</v>
+      </c>
+      <c r="D311" s="1">
+        <v>5731.2940399999998</v>
+      </c>
+      <c r="E311" s="1">
+        <v>94.487970000000004</v>
+      </c>
+      <c r="F311" s="1">
+        <v>28.659199999999998</v>
+      </c>
+      <c r="G311" s="1">
+        <v>232.83</v>
+      </c>
+      <c r="H311" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I311" s="1">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="J311" s="1">
+        <v>5.76</v>
+      </c>
+      <c r="K311" s="1">
+        <v>465.11998999999997</v>
+      </c>
+      <c r="L311" s="1">
+        <v>129</v>
+      </c>
+      <c r="M311" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="N311" s="1">
+        <v>987.18002000000001</v>
+      </c>
+      <c r="O311" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P311" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>48</v>
+      </c>
+      <c r="B312" t="s">
+        <v>26</v>
+      </c>
+      <c r="C312">
+        <v>61</v>
+      </c>
+      <c r="D312" s="1">
+        <v>5852.4949299999998</v>
+      </c>
+      <c r="E312" s="1">
+        <v>96.486130000000003</v>
+      </c>
+      <c r="F312" s="1">
+        <v>28.351009999999999</v>
+      </c>
+      <c r="G312" s="1">
+        <v>246.93</v>
+      </c>
+      <c r="H312" s="1">
+        <v>0</v>
+      </c>
+      <c r="I312" s="1">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="J312" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="K312" s="1">
+        <v>484.91998000000001</v>
+      </c>
+      <c r="L312" s="1">
+        <v>302.86</v>
+      </c>
+      <c r="M312" s="1">
+        <v>107.33</v>
+      </c>
+      <c r="N312" s="1">
+        <v>1211.01998</v>
+      </c>
+      <c r="O312" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P312" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>20</v>
+      </c>
+      <c r="B313" t="s">
+        <v>21</v>
+      </c>
+      <c r="C313">
+        <v>61</v>
+      </c>
+      <c r="D313" s="1">
+        <v>6321.3228799999997</v>
+      </c>
+      <c r="E313" s="1">
+        <v>104.21538</v>
+      </c>
+      <c r="F313" s="1">
+        <v>30.14546</v>
+      </c>
+      <c r="G313" s="1">
+        <v>260.52999999999997</v>
+      </c>
+      <c r="H313" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I313" s="1">
+        <v>84.65</v>
+      </c>
+      <c r="J313" s="1">
+        <v>7.39</v>
+      </c>
+      <c r="K313" s="1">
+        <v>435.84</v>
+      </c>
+      <c r="L313" s="1">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="M313" s="1">
+        <v>60.14</v>
+      </c>
+      <c r="N313" s="1">
+        <v>1149.96002</v>
+      </c>
+      <c r="O313" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P313" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>47</v>
+      </c>
+      <c r="B314" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314">
+        <v>61</v>
+      </c>
+      <c r="D314" s="1">
+        <v>6006.9755599999999</v>
+      </c>
+      <c r="E314" s="1">
+        <v>99.03295</v>
+      </c>
+      <c r="F314" s="1">
+        <v>28.285679999999999</v>
+      </c>
+      <c r="G314" s="1">
+        <v>269.77999999999997</v>
+      </c>
+      <c r="H314" s="1">
+        <v>0</v>
+      </c>
+      <c r="I314" s="1">
+        <v>71.14</v>
+      </c>
+      <c r="J314" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="K314" s="1">
+        <v>613.08998999999994</v>
+      </c>
+      <c r="L314" s="1">
+        <v>297.60998999999998</v>
+      </c>
+      <c r="M314" s="1">
+        <v>60.21</v>
+      </c>
+      <c r="N314" s="1">
+        <v>1191.3699899999999</v>
+      </c>
+      <c r="O314" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P314" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>36</v>
+      </c>
+      <c r="B315" t="s">
+        <v>26</v>
+      </c>
+      <c r="C315">
+        <v>61</v>
+      </c>
+      <c r="D315" s="1">
+        <v>5976.61276</v>
+      </c>
+      <c r="E315" s="1">
+        <v>98.532380000000003</v>
+      </c>
+      <c r="F315" s="1">
+        <v>25.42154</v>
+      </c>
+      <c r="G315" s="1">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="H315" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="I315" s="1">
+        <v>87.12</v>
+      </c>
+      <c r="J315" s="1">
+        <v>5.98</v>
+      </c>
+      <c r="K315" s="1">
+        <v>618.65998000000002</v>
+      </c>
+      <c r="L315" s="1">
+        <v>253.1</v>
+      </c>
+      <c r="M315" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="N315" s="1">
+        <v>1290.6099999999999</v>
+      </c>
+      <c r="O315" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P315" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>16</v>
+      </c>
+      <c r="B316" t="s">
+        <v>17</v>
+      </c>
+      <c r="C316">
+        <v>61</v>
+      </c>
+      <c r="D316" s="1">
+        <v>5756.2476800000004</v>
+      </c>
+      <c r="E316" s="1">
+        <v>94.899370000000005</v>
+      </c>
+      <c r="F316" s="1">
+        <v>26.48978</v>
+      </c>
+      <c r="G316" s="1">
+        <v>302.36</v>
+      </c>
+      <c r="H316" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="I316" s="1">
+        <v>82.73</v>
+      </c>
+      <c r="J316" s="1">
+        <v>5.34</v>
+      </c>
+      <c r="K316" s="1">
+        <v>412.68000999999998</v>
+      </c>
+      <c r="L316" s="1">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="M316" s="1">
+        <v>22.85</v>
+      </c>
+      <c r="N316" s="1">
+        <v>990.04001000000005</v>
+      </c>
+      <c r="O316" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P316" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>35</v>
+      </c>
+      <c r="B317" t="s">
+        <v>26</v>
+      </c>
+      <c r="C317">
+        <v>61</v>
+      </c>
+      <c r="D317" s="1">
+        <v>6412.8598599999996</v>
+      </c>
+      <c r="E317" s="1">
+        <v>105.72449</v>
+      </c>
+      <c r="F317" s="1">
+        <v>30.363569999999999</v>
+      </c>
+      <c r="G317" s="1">
+        <v>312.7</v>
+      </c>
+      <c r="H317" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="I317" s="1">
+        <v>84.04</v>
+      </c>
+      <c r="J317" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="K317" s="1">
+        <v>629.10999000000004</v>
+      </c>
+      <c r="L317" s="1">
+        <v>295.57</v>
+      </c>
+      <c r="M317" s="1">
+        <v>145.22</v>
+      </c>
+      <c r="N317" s="1">
+        <v>1291.97003</v>
+      </c>
+      <c r="O317" s="2">
+        <v>46039</v>
+      </c>
+      <c r="P317" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB46A08-976D-2345-8EB6-F6EE61697789}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1216</v>
+      </c>
+      <c r="C2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2101</v>
+      </c>
+      <c r="C3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>2589</v>
+      </c>
+      <c r="C4">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>1098</v>
+      </c>
+      <c r="C5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>1935</v>
+      </c>
+      <c r="C6">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>1870</v>
+      </c>
+      <c r="C7">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>1804</v>
+      </c>
+      <c r="C8">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>1408</v>
+      </c>
+      <c r="C9">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>2296</v>
+      </c>
+      <c r="C10">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>1818</v>
+      </c>
+      <c r="C11">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>1843</v>
+      </c>
+      <c r="C12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>2272</v>
+      </c>
+      <c r="C13">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1504</v>
+      </c>
+      <c r="C14">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>2245</v>
+      </c>
+      <c r="C15">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>1077</v>
+      </c>
+      <c r="C16">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>1711</v>
+      </c>
+      <c r="C17">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>2047</v>
+      </c>
+      <c r="C18">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>2025</v>
+      </c>
+      <c r="C19">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>918</v>
+      </c>
+      <c r="C20">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>1987</v>
+      </c>
+      <c r="C21">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>1479</v>
+      </c>
+      <c r="C22">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>1722</v>
+      </c>
+      <c r="C23">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>1546</v>
+      </c>
+      <c r="C24">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>1584</v>
+      </c>
+      <c r="C25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>1739</v>
+      </c>
+      <c r="C26">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/carga.xlsx
+++ b/carga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucianogaliano/Desktop/gps_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19C04D4-9722-1E4C-9442-32ADA5F21F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77BA4BA-1F9D-A84C-8FFE-A58FB6730F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="20740" windowHeight="11040" activeTab="1" xr2:uid="{D0952F60-EA13-452A-8089-133E1849F9A5}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -170,7 +170,10 @@
     <t>Mauro Peinipil</t>
   </si>
   <si>
-    <t xml:space="preserve">Acc Mts 2-4 m/ss </t>
+    <t>Acc Mts 2-4 m/ss T</t>
+  </si>
+  <si>
+    <t>Decc Mts 2-4m/ss T</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBA7B75-84C1-4AE6-98BA-083E5BBCB190}">
-  <dimension ref="A1:P317"/>
+  <dimension ref="A1:P469"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView topLeftCell="C405" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P471" sqref="P471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16874,6 +16877,7606 @@
         <v>3</v>
       </c>
     </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>27</v>
+      </c>
+      <c r="B318" t="s">
+        <v>19</v>
+      </c>
+      <c r="C318" s="1">
+        <v>64</v>
+      </c>
+      <c r="D318" s="1">
+        <v>4033.7958100000001</v>
+      </c>
+      <c r="E318" s="1">
+        <v>63.468870000000003</v>
+      </c>
+      <c r="F318" s="1">
+        <v>22.12575</v>
+      </c>
+      <c r="G318" s="1">
+        <v>127.2</v>
+      </c>
+      <c r="H318" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="I318" s="1">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="J318" s="1">
+        <v>0</v>
+      </c>
+      <c r="K318" s="1">
+        <v>190.11</v>
+      </c>
+      <c r="L318" s="1">
+        <v>16.62</v>
+      </c>
+      <c r="M318" s="1">
+        <v>0</v>
+      </c>
+      <c r="N318" s="1">
+        <v>530.49998000000005</v>
+      </c>
+      <c r="O318" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P318" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>43</v>
+      </c>
+      <c r="B319" t="s">
+        <v>29</v>
+      </c>
+      <c r="C319" s="1">
+        <v>64</v>
+      </c>
+      <c r="D319" s="1">
+        <v>4412.3927299999996</v>
+      </c>
+      <c r="E319" s="1">
+        <v>69.425820000000002</v>
+      </c>
+      <c r="F319" s="1">
+        <v>23.549250000000001</v>
+      </c>
+      <c r="G319" s="1">
+        <v>147.84</v>
+      </c>
+      <c r="H319" s="1">
+        <v>0</v>
+      </c>
+      <c r="I319" s="1">
+        <v>51.79</v>
+      </c>
+      <c r="J319" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K319" s="1">
+        <v>403.86000999999999</v>
+      </c>
+      <c r="L319" s="1">
+        <v>51.62</v>
+      </c>
+      <c r="M319" s="1">
+        <v>0</v>
+      </c>
+      <c r="N319" s="1">
+        <v>790.88999000000001</v>
+      </c>
+      <c r="O319" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P319" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>42</v>
+      </c>
+      <c r="B320" t="s">
+        <v>15</v>
+      </c>
+      <c r="C320" s="1">
+        <v>64</v>
+      </c>
+      <c r="D320" s="1">
+        <v>4270.1494400000001</v>
+      </c>
+      <c r="E320" s="1">
+        <v>67.187719999999999</v>
+      </c>
+      <c r="F320" s="1">
+        <v>25.191330000000001</v>
+      </c>
+      <c r="G320" s="1">
+        <v>148.04</v>
+      </c>
+      <c r="H320" s="1">
+        <v>0</v>
+      </c>
+      <c r="I320" s="1">
+        <v>52</v>
+      </c>
+      <c r="J320" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="K320" s="1">
+        <v>318.64001000000002</v>
+      </c>
+      <c r="L320" s="1">
+        <v>85.31</v>
+      </c>
+      <c r="M320" s="1">
+        <v>0</v>
+      </c>
+      <c r="N320" s="1">
+        <v>656.65998000000002</v>
+      </c>
+      <c r="O320" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P320" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>18</v>
+      </c>
+      <c r="B321" t="s">
+        <v>19</v>
+      </c>
+      <c r="C321" s="1">
+        <v>64</v>
+      </c>
+      <c r="D321" s="1">
+        <v>4186.5053200000002</v>
+      </c>
+      <c r="E321" s="1">
+        <v>65.871639999999999</v>
+      </c>
+      <c r="F321" s="1">
+        <v>24.032879999999999</v>
+      </c>
+      <c r="G321" s="1">
+        <v>193.4</v>
+      </c>
+      <c r="H321" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="I321" s="1">
+        <v>61.39</v>
+      </c>
+      <c r="J321" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="K321" s="1">
+        <v>287.2</v>
+      </c>
+      <c r="L321" s="1">
+        <v>44.88</v>
+      </c>
+      <c r="M321" s="1">
+        <v>0</v>
+      </c>
+      <c r="N321" s="1">
+        <v>681.11</v>
+      </c>
+      <c r="O321" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P321" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>31</v>
+      </c>
+      <c r="B322" t="s">
+        <v>19</v>
+      </c>
+      <c r="C322" s="1">
+        <v>64</v>
+      </c>
+      <c r="D322" s="1">
+        <v>4334.2496700000002</v>
+      </c>
+      <c r="E322" s="1">
+        <v>68.196299999999994</v>
+      </c>
+      <c r="F322" s="1">
+        <v>24.908370000000001</v>
+      </c>
+      <c r="G322" s="1">
+        <v>196.09</v>
+      </c>
+      <c r="H322" s="1">
+        <v>0</v>
+      </c>
+      <c r="I322" s="1">
+        <v>61.81</v>
+      </c>
+      <c r="J322" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="K322" s="1">
+        <v>311.91998999999998</v>
+      </c>
+      <c r="L322" s="1">
+        <v>122.9</v>
+      </c>
+      <c r="M322" s="1">
+        <v>0</v>
+      </c>
+      <c r="N322" s="1">
+        <v>723.37</v>
+      </c>
+      <c r="O322" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P322" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>45</v>
+      </c>
+      <c r="B323" t="s">
+        <v>15</v>
+      </c>
+      <c r="C323" s="1">
+        <v>64</v>
+      </c>
+      <c r="D323" s="1">
+        <v>4469.4245899999996</v>
+      </c>
+      <c r="E323" s="1">
+        <v>70.323179999999994</v>
+      </c>
+      <c r="F323" s="1">
+        <v>24.174499999999998</v>
+      </c>
+      <c r="G323" s="1">
+        <v>199.13</v>
+      </c>
+      <c r="H323" s="1">
+        <v>0</v>
+      </c>
+      <c r="I323" s="1">
+        <v>58.99</v>
+      </c>
+      <c r="J323" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K323" s="1">
+        <v>259.44</v>
+      </c>
+      <c r="L323" s="1">
+        <v>70.02</v>
+      </c>
+      <c r="M323" s="1">
+        <v>0</v>
+      </c>
+      <c r="N323" s="1">
+        <v>693.98000999999999</v>
+      </c>
+      <c r="O323" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P323" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>16</v>
+      </c>
+      <c r="B324" t="s">
+        <v>17</v>
+      </c>
+      <c r="C324" s="1">
+        <v>64</v>
+      </c>
+      <c r="D324" s="1">
+        <v>4245.6638499999999</v>
+      </c>
+      <c r="E324" s="1">
+        <v>66.802459999999996</v>
+      </c>
+      <c r="F324" s="1">
+        <v>28.691310000000001</v>
+      </c>
+      <c r="G324" s="1">
+        <v>202.49</v>
+      </c>
+      <c r="H324" s="1">
+        <v>0</v>
+      </c>
+      <c r="I324" s="1">
+        <v>65.16</v>
+      </c>
+      <c r="J324" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="K324" s="1">
+        <v>370.96001000000001</v>
+      </c>
+      <c r="L324" s="1">
+        <v>137.12</v>
+      </c>
+      <c r="M324" s="1">
+        <v>32.25</v>
+      </c>
+      <c r="N324" s="1">
+        <v>771.32001000000002</v>
+      </c>
+      <c r="O324" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P324" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>38</v>
+      </c>
+      <c r="B325" t="s">
+        <v>29</v>
+      </c>
+      <c r="C325" s="1">
+        <v>64</v>
+      </c>
+      <c r="D325" s="1">
+        <v>4216.1266599999999</v>
+      </c>
+      <c r="E325" s="1">
+        <v>66.337720000000004</v>
+      </c>
+      <c r="F325" s="1">
+        <v>26.172180000000001</v>
+      </c>
+      <c r="G325" s="1">
+        <v>204.59</v>
+      </c>
+      <c r="H325" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="I325" s="1">
+        <v>83.93</v>
+      </c>
+      <c r="J325" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="K325" s="1">
+        <v>452.07001000000002</v>
+      </c>
+      <c r="L325" s="1">
+        <v>99.03</v>
+      </c>
+      <c r="M325" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="N325" s="1">
+        <v>958.89999</v>
+      </c>
+      <c r="O325" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P325" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>48</v>
+      </c>
+      <c r="B326" t="s">
+        <v>26</v>
+      </c>
+      <c r="C326" s="1">
+        <v>64</v>
+      </c>
+      <c r="D326" s="1">
+        <v>4770.4745700000003</v>
+      </c>
+      <c r="E326" s="1">
+        <v>75.059979999999996</v>
+      </c>
+      <c r="F326" s="1">
+        <v>27.64424</v>
+      </c>
+      <c r="G326" s="1">
+        <v>212.23</v>
+      </c>
+      <c r="H326" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I326" s="1">
+        <v>71.41</v>
+      </c>
+      <c r="J326" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="K326" s="1">
+        <v>312.2</v>
+      </c>
+      <c r="L326" s="1">
+        <v>142.76</v>
+      </c>
+      <c r="M326" s="1">
+        <v>54.49</v>
+      </c>
+      <c r="N326" s="1">
+        <v>811.55998999999997</v>
+      </c>
+      <c r="O326" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P326" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>46</v>
+      </c>
+      <c r="B327" t="s">
+        <v>19</v>
+      </c>
+      <c r="C327" s="1">
+        <v>64</v>
+      </c>
+      <c r="D327" s="1">
+        <v>4413.9415900000004</v>
+      </c>
+      <c r="E327" s="1">
+        <v>69.450190000000006</v>
+      </c>
+      <c r="F327" s="1">
+        <v>24.466069999999998</v>
+      </c>
+      <c r="G327" s="1">
+        <v>214.98</v>
+      </c>
+      <c r="H327" s="1">
+        <v>0</v>
+      </c>
+      <c r="I327" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="J327" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="K327" s="1">
+        <v>377.03</v>
+      </c>
+      <c r="L327" s="1">
+        <v>78.72</v>
+      </c>
+      <c r="M327" s="1">
+        <v>0</v>
+      </c>
+      <c r="N327" s="1">
+        <v>821.09997999999996</v>
+      </c>
+      <c r="O327" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P327" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>44</v>
+      </c>
+      <c r="B328" t="s">
+        <v>26</v>
+      </c>
+      <c r="C328" s="1">
+        <v>64</v>
+      </c>
+      <c r="D328" s="1">
+        <v>4325.7090600000001</v>
+      </c>
+      <c r="E328" s="1">
+        <v>68.061920000000001</v>
+      </c>
+      <c r="F328" s="1">
+        <v>25.96387</v>
+      </c>
+      <c r="G328" s="1">
+        <v>227.52</v>
+      </c>
+      <c r="H328" s="1">
+        <v>2.83</v>
+      </c>
+      <c r="I328" s="1">
+        <v>77.58</v>
+      </c>
+      <c r="J328" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="K328" s="1">
+        <v>344.99</v>
+      </c>
+      <c r="L328" s="1">
+        <v>193.01000999999999</v>
+      </c>
+      <c r="M328" s="1">
+        <v>14.62</v>
+      </c>
+      <c r="N328" s="1">
+        <v>790.45001000000002</v>
+      </c>
+      <c r="O328" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P328" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>20</v>
+      </c>
+      <c r="B329" t="s">
+        <v>21</v>
+      </c>
+      <c r="C329" s="1">
+        <v>64</v>
+      </c>
+      <c r="D329" s="1">
+        <v>4553.2677800000001</v>
+      </c>
+      <c r="E329" s="1">
+        <v>71.642390000000006</v>
+      </c>
+      <c r="F329" s="1">
+        <v>27.32488</v>
+      </c>
+      <c r="G329" s="1">
+        <v>241.65</v>
+      </c>
+      <c r="H329" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="I329" s="1">
+        <v>87.37</v>
+      </c>
+      <c r="J329" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="K329" s="1">
+        <v>358.29</v>
+      </c>
+      <c r="L329" s="1">
+        <v>158.47</v>
+      </c>
+      <c r="M329" s="1">
+        <v>18.39</v>
+      </c>
+      <c r="N329" s="1">
+        <v>870.18002999999999</v>
+      </c>
+      <c r="O329" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P329" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>33</v>
+      </c>
+      <c r="B330" t="s">
+        <v>29</v>
+      </c>
+      <c r="C330" s="1">
+        <v>64</v>
+      </c>
+      <c r="D330" s="1">
+        <v>4530.4691700000003</v>
+      </c>
+      <c r="E330" s="1">
+        <v>71.283670000000001</v>
+      </c>
+      <c r="F330" s="1">
+        <v>26.296720000000001</v>
+      </c>
+      <c r="G330" s="1">
+        <v>248.35</v>
+      </c>
+      <c r="H330" s="1">
+        <v>0</v>
+      </c>
+      <c r="I330" s="1">
+        <v>94.03</v>
+      </c>
+      <c r="J330" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="K330" s="1">
+        <v>337.73</v>
+      </c>
+      <c r="L330" s="1">
+        <v>76.86</v>
+      </c>
+      <c r="M330" s="1">
+        <v>6.76</v>
+      </c>
+      <c r="N330" s="1">
+        <v>942.42001000000005</v>
+      </c>
+      <c r="O330" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P330" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>30</v>
+      </c>
+      <c r="B331" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331" s="1">
+        <v>64</v>
+      </c>
+      <c r="D331" s="1">
+        <v>4907.6809000000003</v>
+      </c>
+      <c r="E331" s="1">
+        <v>77.218819999999994</v>
+      </c>
+      <c r="F331" s="1">
+        <v>23.58943</v>
+      </c>
+      <c r="G331" s="1">
+        <v>249.95</v>
+      </c>
+      <c r="H331" s="1">
+        <v>0</v>
+      </c>
+      <c r="I331" s="1">
+        <v>66.87</v>
+      </c>
+      <c r="J331" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="K331" s="1">
+        <v>588.83998999999994</v>
+      </c>
+      <c r="L331" s="1">
+        <v>128.33000000000001</v>
+      </c>
+      <c r="M331" s="1">
+        <v>0</v>
+      </c>
+      <c r="N331" s="1">
+        <v>1117.16003</v>
+      </c>
+      <c r="O331" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P331" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>23</v>
+      </c>
+      <c r="B332" t="s">
+        <v>17</v>
+      </c>
+      <c r="C332" s="1">
+        <v>64</v>
+      </c>
+      <c r="D332" s="1">
+        <v>4700.7436799999996</v>
+      </c>
+      <c r="E332" s="1">
+        <v>73.962810000000005</v>
+      </c>
+      <c r="F332" s="1">
+        <v>25.911359999999998</v>
+      </c>
+      <c r="G332" s="1">
+        <v>254.44</v>
+      </c>
+      <c r="H332" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="I332" s="1">
+        <v>88.87</v>
+      </c>
+      <c r="J332" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="K332" s="1">
+        <v>436.86</v>
+      </c>
+      <c r="L332" s="1">
+        <v>218.52</v>
+      </c>
+      <c r="M332" s="1">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="N332" s="1">
+        <v>844.85996999999998</v>
+      </c>
+      <c r="O332" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P332" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>47</v>
+      </c>
+      <c r="B333" t="s">
+        <v>17</v>
+      </c>
+      <c r="C333" s="1">
+        <v>64</v>
+      </c>
+      <c r="D333" s="1">
+        <v>4413.8553899999997</v>
+      </c>
+      <c r="E333" s="1">
+        <v>69.448830000000001</v>
+      </c>
+      <c r="F333" s="1">
+        <v>26.154150000000001</v>
+      </c>
+      <c r="G333" s="1">
+        <v>270.02</v>
+      </c>
+      <c r="H333" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="I333" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="J333" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="K333" s="1">
+        <v>357.42998999999998</v>
+      </c>
+      <c r="L333" s="1">
+        <v>190.41</v>
+      </c>
+      <c r="M333" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="N333" s="1">
+        <v>769.94001000000003</v>
+      </c>
+      <c r="O333" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P333" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>22</v>
+      </c>
+      <c r="B334" t="s">
+        <v>17</v>
+      </c>
+      <c r="C334" s="1">
+        <v>64</v>
+      </c>
+      <c r="D334" s="1">
+        <v>5081.9652400000004</v>
+      </c>
+      <c r="E334" s="1">
+        <v>79.961060000000003</v>
+      </c>
+      <c r="F334" s="1">
+        <v>25.474399999999999</v>
+      </c>
+      <c r="G334" s="1">
+        <v>272.75</v>
+      </c>
+      <c r="H334" s="1">
+        <v>0</v>
+      </c>
+      <c r="I334" s="1">
+        <v>79.66</v>
+      </c>
+      <c r="J334" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K334" s="1">
+        <v>552.83001000000002</v>
+      </c>
+      <c r="L334" s="1">
+        <v>259.63</v>
+      </c>
+      <c r="M334" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="N334" s="1">
+        <v>1086.1199899999999</v>
+      </c>
+      <c r="O334" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P334" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>25</v>
+      </c>
+      <c r="B335" t="s">
+        <v>26</v>
+      </c>
+      <c r="C335" s="1">
+        <v>64</v>
+      </c>
+      <c r="D335" s="1">
+        <v>4600.1784399999997</v>
+      </c>
+      <c r="E335" s="1">
+        <v>72.380489999999995</v>
+      </c>
+      <c r="F335" s="1">
+        <v>24.353169999999999</v>
+      </c>
+      <c r="G335" s="1">
+        <v>278.27001000000001</v>
+      </c>
+      <c r="H335" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="I335" s="1">
+        <v>78.67</v>
+      </c>
+      <c r="J335" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="K335" s="1">
+        <v>335.42000999999999</v>
+      </c>
+      <c r="L335" s="1">
+        <v>198.36000999999999</v>
+      </c>
+      <c r="M335" s="1">
+        <v>0</v>
+      </c>
+      <c r="N335" s="1">
+        <v>781.94998999999996</v>
+      </c>
+      <c r="O335" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P335" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>36</v>
+      </c>
+      <c r="B336" t="s">
+        <v>26</v>
+      </c>
+      <c r="C336" s="1">
+        <v>64</v>
+      </c>
+      <c r="D336" s="1">
+        <v>4314.2293099999997</v>
+      </c>
+      <c r="E336" s="1">
+        <v>67.881290000000007</v>
+      </c>
+      <c r="F336" s="1">
+        <v>25.856629999999999</v>
+      </c>
+      <c r="G336" s="1">
+        <v>284.52999999999997</v>
+      </c>
+      <c r="H336" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="I336" s="1">
+        <v>83.65</v>
+      </c>
+      <c r="J336" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="K336" s="1">
+        <v>381.56</v>
+      </c>
+      <c r="L336" s="1">
+        <v>204.32999000000001</v>
+      </c>
+      <c r="M336" s="1">
+        <v>15.19</v>
+      </c>
+      <c r="N336" s="1">
+        <v>895.79998999999998</v>
+      </c>
+      <c r="O336" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P336" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>35</v>
+      </c>
+      <c r="B337" t="s">
+        <v>26</v>
+      </c>
+      <c r="C337" s="1">
+        <v>64</v>
+      </c>
+      <c r="D337" s="1">
+        <v>4772.6915900000004</v>
+      </c>
+      <c r="E337" s="1">
+        <v>75.094859999999997</v>
+      </c>
+      <c r="F337" s="1">
+        <v>26.47044</v>
+      </c>
+      <c r="G337" s="1">
+        <v>285.24</v>
+      </c>
+      <c r="H337" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="I337" s="1">
+        <v>97.85</v>
+      </c>
+      <c r="J337" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K337" s="1">
+        <v>342.68000999999998</v>
+      </c>
+      <c r="L337" s="1">
+        <v>218.02</v>
+      </c>
+      <c r="M337" s="1">
+        <v>15.18</v>
+      </c>
+      <c r="N337" s="1">
+        <v>916.47001</v>
+      </c>
+      <c r="O337" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P337" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>32</v>
+      </c>
+      <c r="B338" t="s">
+        <v>19</v>
+      </c>
+      <c r="C338" s="1">
+        <v>69</v>
+      </c>
+      <c r="D338" s="1">
+        <v>4727.1751700000004</v>
+      </c>
+      <c r="E338" s="1">
+        <v>68.661699999999996</v>
+      </c>
+      <c r="F338" s="1">
+        <v>24.360119999999998</v>
+      </c>
+      <c r="G338" s="1">
+        <v>317.83999</v>
+      </c>
+      <c r="H338" s="1">
+        <v>0</v>
+      </c>
+      <c r="I338" s="1">
+        <v>108.87</v>
+      </c>
+      <c r="J338" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="K338" s="1">
+        <v>152.77000000000001</v>
+      </c>
+      <c r="L338" s="1">
+        <v>55.51</v>
+      </c>
+      <c r="M338" s="1">
+        <v>0</v>
+      </c>
+      <c r="N338" s="1">
+        <v>687.42001000000005</v>
+      </c>
+      <c r="O338" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P338" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>37</v>
+      </c>
+      <c r="B339" t="s">
+        <v>17</v>
+      </c>
+      <c r="C339" s="1">
+        <v>69</v>
+      </c>
+      <c r="D339" s="1">
+        <v>4465.71047</v>
+      </c>
+      <c r="E339" s="1">
+        <v>64.863960000000006</v>
+      </c>
+      <c r="F339" s="1">
+        <v>24.390619999999998</v>
+      </c>
+      <c r="G339" s="1">
+        <v>353.04001</v>
+      </c>
+      <c r="H339" s="1">
+        <v>0</v>
+      </c>
+      <c r="I339" s="1">
+        <v>102.71</v>
+      </c>
+      <c r="J339" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="K339" s="1">
+        <v>132.46</v>
+      </c>
+      <c r="L339" s="1">
+        <v>37.25</v>
+      </c>
+      <c r="M339" s="1">
+        <v>0</v>
+      </c>
+      <c r="N339" s="1">
+        <v>692.98997999999995</v>
+      </c>
+      <c r="O339" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P339" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>28</v>
+      </c>
+      <c r="B340" t="s">
+        <v>29</v>
+      </c>
+      <c r="C340" s="1">
+        <v>69</v>
+      </c>
+      <c r="D340" s="1">
+        <v>4489.527</v>
+      </c>
+      <c r="E340" s="1">
+        <v>65.209890000000001</v>
+      </c>
+      <c r="F340" s="1">
+        <v>25.323440000000002</v>
+      </c>
+      <c r="G340" s="1">
+        <v>359.02001000000001</v>
+      </c>
+      <c r="H340" s="1">
+        <v>0</v>
+      </c>
+      <c r="I340" s="1">
+        <v>105.15</v>
+      </c>
+      <c r="J340" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="K340" s="1">
+        <v>157.56</v>
+      </c>
+      <c r="L340" s="1">
+        <v>59.02</v>
+      </c>
+      <c r="M340" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="N340" s="1">
+        <v>702.98999000000003</v>
+      </c>
+      <c r="O340" s="2">
+        <v>46041</v>
+      </c>
+      <c r="P340" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>42</v>
+      </c>
+      <c r="B341" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341">
+        <v>17</v>
+      </c>
+      <c r="D341" s="1">
+        <v>2040.11438</v>
+      </c>
+      <c r="E341" s="1">
+        <v>123.09744000000001</v>
+      </c>
+      <c r="F341" s="1">
+        <v>25.755680000000002</v>
+      </c>
+      <c r="G341" s="1">
+        <v>46.82</v>
+      </c>
+      <c r="H341" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="I341" s="1">
+        <v>27.61</v>
+      </c>
+      <c r="J341" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="K341" s="1">
+        <v>200.78</v>
+      </c>
+      <c r="L341" s="1">
+        <v>69.13</v>
+      </c>
+      <c r="M341" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="N341" s="1">
+        <v>398.95999</v>
+      </c>
+      <c r="O341" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P341" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>28</v>
+      </c>
+      <c r="B342" t="s">
+        <v>29</v>
+      </c>
+      <c r="C342">
+        <v>17</v>
+      </c>
+      <c r="D342" s="1">
+        <v>1933.6032700000001</v>
+      </c>
+      <c r="E342" s="1">
+        <v>112.62506</v>
+      </c>
+      <c r="F342" s="1">
+        <v>29.454940000000001</v>
+      </c>
+      <c r="G342" s="1">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="H342" s="1">
+        <v>0</v>
+      </c>
+      <c r="I342" s="1">
+        <v>24.03</v>
+      </c>
+      <c r="J342" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K342" s="1">
+        <v>158.96001000000001</v>
+      </c>
+      <c r="L342" s="1">
+        <v>106.95</v>
+      </c>
+      <c r="M342" s="1">
+        <v>27.66</v>
+      </c>
+      <c r="N342" s="1">
+        <v>397.25</v>
+      </c>
+      <c r="O342" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P342" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>47</v>
+      </c>
+      <c r="B343" t="s">
+        <v>17</v>
+      </c>
+      <c r="C343">
+        <v>16</v>
+      </c>
+      <c r="D343" s="1">
+        <v>2057.31104</v>
+      </c>
+      <c r="E343" s="1">
+        <v>130.37871999999999</v>
+      </c>
+      <c r="F343" s="1">
+        <v>28.72898</v>
+      </c>
+      <c r="G343" s="1">
+        <v>82.45</v>
+      </c>
+      <c r="H343" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="I343" s="1">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="J343" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="K343" s="1">
+        <v>306.06</v>
+      </c>
+      <c r="L343" s="1">
+        <v>201.67</v>
+      </c>
+      <c r="M343" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="N343" s="1">
+        <v>572.66998000000001</v>
+      </c>
+      <c r="O343" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P343" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>43</v>
+      </c>
+      <c r="B344" t="s">
+        <v>29</v>
+      </c>
+      <c r="C344">
+        <v>30</v>
+      </c>
+      <c r="D344" s="1">
+        <v>3544.16626</v>
+      </c>
+      <c r="E344" s="1">
+        <v>117.10702999999999</v>
+      </c>
+      <c r="F344" s="1">
+        <v>25.187180000000001</v>
+      </c>
+      <c r="G344" s="1">
+        <v>96.48</v>
+      </c>
+      <c r="H344" s="1">
+        <v>0</v>
+      </c>
+      <c r="I344" s="1">
+        <v>41.12</v>
+      </c>
+      <c r="J344" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K344" s="1">
+        <v>288.27999999999997</v>
+      </c>
+      <c r="L344" s="1">
+        <v>119.65</v>
+      </c>
+      <c r="M344" s="1">
+        <v>0</v>
+      </c>
+      <c r="N344" s="1">
+        <v>742.96996999999999</v>
+      </c>
+      <c r="O344" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P344" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>44</v>
+      </c>
+      <c r="B345" t="s">
+        <v>26</v>
+      </c>
+      <c r="C345">
+        <v>30</v>
+      </c>
+      <c r="D345" s="1">
+        <v>3174.71729</v>
+      </c>
+      <c r="E345" s="1">
+        <v>104.89963</v>
+      </c>
+      <c r="F345" s="1">
+        <v>29.39452</v>
+      </c>
+      <c r="G345" s="1">
+        <v>131.97</v>
+      </c>
+      <c r="H345" s="1">
+        <v>0</v>
+      </c>
+      <c r="I345" s="1">
+        <v>43.97</v>
+      </c>
+      <c r="J345" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="K345" s="1">
+        <v>315.89999</v>
+      </c>
+      <c r="L345" s="1">
+        <v>190.75998999999999</v>
+      </c>
+      <c r="M345" s="1">
+        <v>104.46</v>
+      </c>
+      <c r="N345" s="1">
+        <v>753.78003000000001</v>
+      </c>
+      <c r="O345" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P345" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>27</v>
+      </c>
+      <c r="B346" t="s">
+        <v>19</v>
+      </c>
+      <c r="C346">
+        <v>46</v>
+      </c>
+      <c r="D346" s="1">
+        <v>4597.5571300000001</v>
+      </c>
+      <c r="E346" s="1">
+        <v>99.756060000000005</v>
+      </c>
+      <c r="F346" s="1">
+        <v>25.57347</v>
+      </c>
+      <c r="G346" s="1">
+        <v>136.32</v>
+      </c>
+      <c r="H346" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I346" s="1">
+        <v>36.29</v>
+      </c>
+      <c r="J346" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="K346" s="1">
+        <v>254.74001000000001</v>
+      </c>
+      <c r="L346" s="1">
+        <v>159.21001000000001</v>
+      </c>
+      <c r="M346" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="N346" s="1">
+        <v>619.25</v>
+      </c>
+      <c r="O346" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P346" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>45</v>
+      </c>
+      <c r="B347" t="s">
+        <v>15</v>
+      </c>
+      <c r="C347">
+        <v>47</v>
+      </c>
+      <c r="D347" s="1">
+        <v>4709.9311500000003</v>
+      </c>
+      <c r="E347" s="1">
+        <v>99.348870000000005</v>
+      </c>
+      <c r="F347" s="1">
+        <v>26.280570000000001</v>
+      </c>
+      <c r="G347" s="1">
+        <v>158.88</v>
+      </c>
+      <c r="H347" s="1">
+        <v>0</v>
+      </c>
+      <c r="I347" s="1">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="J347" s="1">
+        <v>2</v>
+      </c>
+      <c r="K347" s="1">
+        <v>313.77999999999997</v>
+      </c>
+      <c r="L347" s="1">
+        <v>94.67</v>
+      </c>
+      <c r="M347" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="N347" s="1">
+        <v>689.53003000000001</v>
+      </c>
+      <c r="O347" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P347" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>36</v>
+      </c>
+      <c r="B348" t="s">
+        <v>26</v>
+      </c>
+      <c r="C348">
+        <v>30</v>
+      </c>
+      <c r="D348" s="1">
+        <v>3053.8808600000002</v>
+      </c>
+      <c r="E348" s="1">
+        <v>102.93113</v>
+      </c>
+      <c r="F348" s="1">
+        <v>28.06795</v>
+      </c>
+      <c r="G348" s="1">
+        <v>178.17000999999999</v>
+      </c>
+      <c r="H348" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="I348" s="1">
+        <v>53.88</v>
+      </c>
+      <c r="J348" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="K348" s="1">
+        <v>237.85001</v>
+      </c>
+      <c r="L348" s="1">
+        <v>182.36</v>
+      </c>
+      <c r="M348" s="1">
+        <v>107.04</v>
+      </c>
+      <c r="N348" s="1">
+        <v>683.52002000000005</v>
+      </c>
+      <c r="O348" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P348" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>46</v>
+      </c>
+      <c r="B349" t="s">
+        <v>19</v>
+      </c>
+      <c r="C349">
+        <v>47</v>
+      </c>
+      <c r="D349" s="1">
+        <v>4784.8642600000003</v>
+      </c>
+      <c r="E349" s="1">
+        <v>100.92946999999999</v>
+      </c>
+      <c r="F349" s="1">
+        <v>28.567889999999998</v>
+      </c>
+      <c r="G349" s="1">
+        <v>181.23</v>
+      </c>
+      <c r="H349" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="I349" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="J349" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="K349" s="1">
+        <v>358.79998999999998</v>
+      </c>
+      <c r="L349" s="1">
+        <v>157.57001</v>
+      </c>
+      <c r="M349" s="1">
+        <v>31.42</v>
+      </c>
+      <c r="N349" s="1">
+        <v>857.95001000000002</v>
+      </c>
+      <c r="O349" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P349" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>22</v>
+      </c>
+      <c r="B350" t="s">
+        <v>17</v>
+      </c>
+      <c r="C350">
+        <v>46</v>
+      </c>
+      <c r="D350" s="1">
+        <v>5638.9282199999998</v>
+      </c>
+      <c r="E350" s="1">
+        <v>122.35133</v>
+      </c>
+      <c r="F350" s="1">
+        <v>29.434539999999998</v>
+      </c>
+      <c r="G350" s="1">
+        <v>182.25</v>
+      </c>
+      <c r="H350" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="I350" s="1">
+        <v>77.77</v>
+      </c>
+      <c r="J350" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="K350" s="1">
+        <v>668.77002000000005</v>
+      </c>
+      <c r="L350" s="1">
+        <v>176.74001000000001</v>
+      </c>
+      <c r="M350" s="1">
+        <v>22.28</v>
+      </c>
+      <c r="N350" s="1">
+        <v>1235.9799800000001</v>
+      </c>
+      <c r="O350" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P350" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>30</v>
+      </c>
+      <c r="B351" t="s">
+        <v>15</v>
+      </c>
+      <c r="C351">
+        <v>46</v>
+      </c>
+      <c r="D351" s="1">
+        <v>4989.2290000000003</v>
+      </c>
+      <c r="E351" s="1">
+        <v>108.2544</v>
+      </c>
+      <c r="F351" s="1">
+        <v>25.440049999999999</v>
+      </c>
+      <c r="G351" s="1">
+        <v>187.48000999999999</v>
+      </c>
+      <c r="H351" s="1">
+        <v>0</v>
+      </c>
+      <c r="I351" s="1">
+        <v>56.45</v>
+      </c>
+      <c r="J351" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="K351" s="1">
+        <v>546.72997999999995</v>
+      </c>
+      <c r="L351" s="1">
+        <v>221.83</v>
+      </c>
+      <c r="M351" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="N351" s="1">
+        <v>1078.4599599999999</v>
+      </c>
+      <c r="O351" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P351" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>25</v>
+      </c>
+      <c r="B352" t="s">
+        <v>26</v>
+      </c>
+      <c r="C352">
+        <v>64</v>
+      </c>
+      <c r="D352" s="1">
+        <v>6906.7617200000004</v>
+      </c>
+      <c r="E352" s="1">
+        <v>107.87545</v>
+      </c>
+      <c r="F352" s="1">
+        <v>30.239059999999998</v>
+      </c>
+      <c r="G352" s="1">
+        <v>255.83</v>
+      </c>
+      <c r="H352" s="1">
+        <v>0</v>
+      </c>
+      <c r="I352" s="1">
+        <v>100.1</v>
+      </c>
+      <c r="J352" s="1">
+        <v>5.72</v>
+      </c>
+      <c r="K352" s="1">
+        <v>601.05999999999995</v>
+      </c>
+      <c r="L352" s="1">
+        <v>390.83</v>
+      </c>
+      <c r="M352" s="1">
+        <v>129.26</v>
+      </c>
+      <c r="N352" s="1">
+        <v>1423.03998</v>
+      </c>
+      <c r="O352" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P352" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>33</v>
+      </c>
+      <c r="B353" t="s">
+        <v>29</v>
+      </c>
+      <c r="C353">
+        <v>64</v>
+      </c>
+      <c r="D353" s="1">
+        <v>7031.3970900000004</v>
+      </c>
+      <c r="E353" s="1">
+        <v>109.82211</v>
+      </c>
+      <c r="F353" s="1">
+        <v>26.632100000000001</v>
+      </c>
+      <c r="G353" s="1">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="H353" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I353" s="1">
+        <v>96.23</v>
+      </c>
+      <c r="J353" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="K353" s="1">
+        <v>649.15000999999995</v>
+      </c>
+      <c r="L353" s="1">
+        <v>241.60001</v>
+      </c>
+      <c r="M353" s="1">
+        <v>24.55</v>
+      </c>
+      <c r="N353" s="1">
+        <v>1367.33997</v>
+      </c>
+      <c r="O353" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P353" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354" t="s">
+        <v>19</v>
+      </c>
+      <c r="C354">
+        <v>93</v>
+      </c>
+      <c r="D354" s="1">
+        <v>9204.5561500000003</v>
+      </c>
+      <c r="E354" s="1">
+        <v>98.448660000000004</v>
+      </c>
+      <c r="F354" s="1">
+        <v>29.14002</v>
+      </c>
+      <c r="G354" s="1">
+        <v>294.94</v>
+      </c>
+      <c r="H354" s="1">
+        <v>0</v>
+      </c>
+      <c r="I354" s="1">
+        <v>74.59</v>
+      </c>
+      <c r="J354" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K354" s="1">
+        <v>709.85001</v>
+      </c>
+      <c r="L354" s="1">
+        <v>270.16000000000003</v>
+      </c>
+      <c r="M354" s="1">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="N354" s="1">
+        <v>1653.28998</v>
+      </c>
+      <c r="O354" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P354" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>38</v>
+      </c>
+      <c r="B355" t="s">
+        <v>29</v>
+      </c>
+      <c r="C355">
+        <v>78</v>
+      </c>
+      <c r="D355" s="1">
+        <v>8350.98315</v>
+      </c>
+      <c r="E355" s="1">
+        <v>106.90855000000001</v>
+      </c>
+      <c r="F355" s="1">
+        <v>28.605499999999999</v>
+      </c>
+      <c r="G355" s="1">
+        <v>308.02999999999997</v>
+      </c>
+      <c r="H355" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="I355" s="1">
+        <v>128.55000000000001</v>
+      </c>
+      <c r="J355" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="K355" s="1">
+        <v>927.63</v>
+      </c>
+      <c r="L355" s="1">
+        <v>338.25</v>
+      </c>
+      <c r="M355" s="1">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="N355" s="1">
+        <v>1934.0599400000001</v>
+      </c>
+      <c r="O355" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P355" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>35</v>
+      </c>
+      <c r="B356" t="s">
+        <v>26</v>
+      </c>
+      <c r="C356">
+        <v>47</v>
+      </c>
+      <c r="D356" s="1">
+        <v>5577.6464800000003</v>
+      </c>
+      <c r="E356" s="1">
+        <v>117.65201</v>
+      </c>
+      <c r="F356" s="1">
+        <v>32.49783</v>
+      </c>
+      <c r="G356" s="1">
+        <v>316.37999000000002</v>
+      </c>
+      <c r="H356" s="1">
+        <v>11.37</v>
+      </c>
+      <c r="I356" s="1">
+        <v>106.8</v>
+      </c>
+      <c r="J356" s="1">
+        <v>10.91</v>
+      </c>
+      <c r="K356" s="1">
+        <v>572.41998000000001</v>
+      </c>
+      <c r="L356" s="1">
+        <v>395.04998999999998</v>
+      </c>
+      <c r="M356" s="1">
+        <v>83.01</v>
+      </c>
+      <c r="N356" s="1">
+        <v>1126.51001</v>
+      </c>
+      <c r="O356" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P356" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>23</v>
+      </c>
+      <c r="B357" t="s">
+        <v>17</v>
+      </c>
+      <c r="C357">
+        <v>78</v>
+      </c>
+      <c r="D357" s="1">
+        <v>9099.8845199999996</v>
+      </c>
+      <c r="E357" s="1">
+        <v>117.39060000000001</v>
+      </c>
+      <c r="F357" s="1">
+        <v>27.309560000000001</v>
+      </c>
+      <c r="G357" s="1">
+        <v>322.87999000000002</v>
+      </c>
+      <c r="H357" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="I357" s="1">
+        <v>134.74</v>
+      </c>
+      <c r="J357" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="K357" s="1">
+        <v>951.53003000000001</v>
+      </c>
+      <c r="L357" s="1">
+        <v>331.00999000000002</v>
+      </c>
+      <c r="M357" s="1">
+        <v>50.52</v>
+      </c>
+      <c r="N357" s="1">
+        <v>1932.0200199999999</v>
+      </c>
+      <c r="O357" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P357" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>48</v>
+      </c>
+      <c r="B358" t="s">
+        <v>26</v>
+      </c>
+      <c r="C358">
+        <v>63</v>
+      </c>
+      <c r="D358" s="1">
+        <v>6944.4830300000003</v>
+      </c>
+      <c r="E358" s="1">
+        <v>109.82603</v>
+      </c>
+      <c r="F358" s="1">
+        <v>28.952020000000001</v>
+      </c>
+      <c r="G358" s="1">
+        <v>323.95999</v>
+      </c>
+      <c r="H358" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="I358" s="1">
+        <v>127.43</v>
+      </c>
+      <c r="J358" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K358" s="1">
+        <v>665.21999000000005</v>
+      </c>
+      <c r="L358" s="1">
+        <v>379.13997999999998</v>
+      </c>
+      <c r="M358" s="1">
+        <v>166.75</v>
+      </c>
+      <c r="N358" s="1">
+        <v>1441.91003</v>
+      </c>
+      <c r="O358" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P358" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>16</v>
+      </c>
+      <c r="B359" t="s">
+        <v>17</v>
+      </c>
+      <c r="C359">
+        <v>77</v>
+      </c>
+      <c r="D359" s="1">
+        <v>8912.5909281045806</v>
+      </c>
+      <c r="E359" s="1">
+        <v>107.206679019608</v>
+      </c>
+      <c r="F359" s="1">
+        <v>29.3117598039216</v>
+      </c>
+      <c r="G359" s="1">
+        <v>361.15711921568601</v>
+      </c>
+      <c r="H359" s="1">
+        <v>4.2433986928104597</v>
+      </c>
+      <c r="I359" s="1">
+        <v>131.99732026143801</v>
+      </c>
+      <c r="J359" s="1">
+        <v>7.7617647058823502</v>
+      </c>
+      <c r="K359" s="1">
+        <v>869.75372705882398</v>
+      </c>
+      <c r="L359" s="1">
+        <v>385.06476549019601</v>
+      </c>
+      <c r="M359" s="1">
+        <v>93.292287581699398</v>
+      </c>
+      <c r="N359" s="1">
+        <v>1831.0229348366099</v>
+      </c>
+      <c r="O359" s="2">
+        <v>46042</v>
+      </c>
+      <c r="P359" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>18</v>
+      </c>
+      <c r="B360" t="s">
+        <v>19</v>
+      </c>
+      <c r="C360" s="1">
+        <v>37</v>
+      </c>
+      <c r="D360" s="1">
+        <v>3778.28125</v>
+      </c>
+      <c r="E360" s="1">
+        <v>101.41947999999999</v>
+      </c>
+      <c r="F360" s="1">
+        <v>14.01817</v>
+      </c>
+      <c r="G360" s="1">
+        <v>0</v>
+      </c>
+      <c r="H360" s="1">
+        <v>0</v>
+      </c>
+      <c r="I360" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="J360" s="1">
+        <v>0</v>
+      </c>
+      <c r="K360" s="1">
+        <v>0</v>
+      </c>
+      <c r="L360" s="1">
+        <v>0</v>
+      </c>
+      <c r="M360" s="1">
+        <v>0</v>
+      </c>
+      <c r="N360" s="1">
+        <v>22.28</v>
+      </c>
+      <c r="O360" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P360" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>25</v>
+      </c>
+      <c r="B361" t="s">
+        <v>26</v>
+      </c>
+      <c r="C361" s="1">
+        <v>37</v>
+      </c>
+      <c r="D361" s="1">
+        <v>3857.7561000000001</v>
+      </c>
+      <c r="E361" s="1">
+        <v>103.5528</v>
+      </c>
+      <c r="F361" s="1">
+        <v>15.366849999999999</v>
+      </c>
+      <c r="G361" s="1">
+        <v>0</v>
+      </c>
+      <c r="H361" s="1">
+        <v>0</v>
+      </c>
+      <c r="I361" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="J361" s="1">
+        <v>0</v>
+      </c>
+      <c r="K361" s="1">
+        <v>0</v>
+      </c>
+      <c r="L361" s="1">
+        <v>0</v>
+      </c>
+      <c r="M361" s="1">
+        <v>0</v>
+      </c>
+      <c r="N361" s="1">
+        <v>31.46</v>
+      </c>
+      <c r="O361" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P361" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>23</v>
+      </c>
+      <c r="B362" t="s">
+        <v>17</v>
+      </c>
+      <c r="C362" s="1">
+        <v>37</v>
+      </c>
+      <c r="D362" s="1">
+        <v>3847.8645000000001</v>
+      </c>
+      <c r="E362" s="1">
+        <v>103.28728</v>
+      </c>
+      <c r="F362" s="1">
+        <v>14.680960000000001</v>
+      </c>
+      <c r="G362" s="1">
+        <v>0</v>
+      </c>
+      <c r="H362" s="1">
+        <v>0</v>
+      </c>
+      <c r="I362" s="1">
+        <v>0</v>
+      </c>
+      <c r="J362" s="1">
+        <v>0</v>
+      </c>
+      <c r="K362" s="1">
+        <v>0</v>
+      </c>
+      <c r="L362" s="1">
+        <v>0</v>
+      </c>
+      <c r="M362" s="1">
+        <v>0</v>
+      </c>
+      <c r="N362" s="1">
+        <v>10.52</v>
+      </c>
+      <c r="O362" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P362" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>38</v>
+      </c>
+      <c r="B363" t="s">
+        <v>29</v>
+      </c>
+      <c r="C363" s="1">
+        <v>37</v>
+      </c>
+      <c r="D363" s="1">
+        <v>3826.3859900000002</v>
+      </c>
+      <c r="E363" s="1">
+        <v>102.71074</v>
+      </c>
+      <c r="F363" s="1">
+        <v>14.34225</v>
+      </c>
+      <c r="G363" s="1">
+        <v>0</v>
+      </c>
+      <c r="H363" s="1">
+        <v>0</v>
+      </c>
+      <c r="I363" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="J363" s="1">
+        <v>0</v>
+      </c>
+      <c r="K363" s="1">
+        <v>0</v>
+      </c>
+      <c r="L363" s="1">
+        <v>0</v>
+      </c>
+      <c r="M363" s="1">
+        <v>0</v>
+      </c>
+      <c r="N363" s="1">
+        <v>33.11</v>
+      </c>
+      <c r="O363" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P363" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>33</v>
+      </c>
+      <c r="B364" t="s">
+        <v>29</v>
+      </c>
+      <c r="C364" s="1">
+        <v>37</v>
+      </c>
+      <c r="D364" s="1">
+        <v>3843.0183099999999</v>
+      </c>
+      <c r="E364" s="1">
+        <v>103.1572</v>
+      </c>
+      <c r="F364" s="1">
+        <v>15.28595</v>
+      </c>
+      <c r="G364" s="1">
+        <v>0</v>
+      </c>
+      <c r="H364" s="1">
+        <v>0</v>
+      </c>
+      <c r="I364" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J364" s="1">
+        <v>0</v>
+      </c>
+      <c r="K364" s="1">
+        <v>0</v>
+      </c>
+      <c r="L364" s="1">
+        <v>0</v>
+      </c>
+      <c r="M364" s="1">
+        <v>0</v>
+      </c>
+      <c r="N364" s="1">
+        <v>38.33</v>
+      </c>
+      <c r="O364" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P364" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>48</v>
+      </c>
+      <c r="B365" t="s">
+        <v>26</v>
+      </c>
+      <c r="C365" s="1">
+        <v>37</v>
+      </c>
+      <c r="D365" s="1">
+        <v>3818.66309</v>
+      </c>
+      <c r="E365" s="1">
+        <v>102.50344</v>
+      </c>
+      <c r="F365" s="1">
+        <v>14.748469999999999</v>
+      </c>
+      <c r="G365" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H365" s="1">
+        <v>0</v>
+      </c>
+      <c r="I365" s="1">
+        <v>0</v>
+      </c>
+      <c r="J365" s="1">
+        <v>0</v>
+      </c>
+      <c r="K365" s="1">
+        <v>0</v>
+      </c>
+      <c r="L365" s="1">
+        <v>0</v>
+      </c>
+      <c r="M365" s="1">
+        <v>0</v>
+      </c>
+      <c r="N365" s="1">
+        <v>37.31</v>
+      </c>
+      <c r="O365" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P365" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>16</v>
+      </c>
+      <c r="B366" t="s">
+        <v>17</v>
+      </c>
+      <c r="C366" s="1">
+        <v>37</v>
+      </c>
+      <c r="D366" s="1">
+        <v>3803.6948200000002</v>
+      </c>
+      <c r="E366" s="1">
+        <v>102.10165000000001</v>
+      </c>
+      <c r="F366" s="1">
+        <v>14.767160000000001</v>
+      </c>
+      <c r="G366" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="H366" s="1">
+        <v>0</v>
+      </c>
+      <c r="I366" s="1">
+        <v>0</v>
+      </c>
+      <c r="J366" s="1">
+        <v>0</v>
+      </c>
+      <c r="K366" s="1">
+        <v>0</v>
+      </c>
+      <c r="L366" s="1">
+        <v>0</v>
+      </c>
+      <c r="M366" s="1">
+        <v>0</v>
+      </c>
+      <c r="N366" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="O366" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P366" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>45</v>
+      </c>
+      <c r="B367" t="s">
+        <v>15</v>
+      </c>
+      <c r="C367" s="1">
+        <v>30</v>
+      </c>
+      <c r="D367" s="1">
+        <v>2877.6491700000001</v>
+      </c>
+      <c r="E367" s="1">
+        <v>97.437330000000003</v>
+      </c>
+      <c r="F367" s="1">
+        <v>22.287369999999999</v>
+      </c>
+      <c r="G367" s="1">
+        <v>66.790000000000006</v>
+      </c>
+      <c r="H367" s="1">
+        <v>0</v>
+      </c>
+      <c r="I367" s="1">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="J367" s="1">
+        <v>0</v>
+      </c>
+      <c r="K367" s="1">
+        <v>980.84002999999996</v>
+      </c>
+      <c r="L367" s="1">
+        <v>236.07001</v>
+      </c>
+      <c r="M367" s="1">
+        <v>0</v>
+      </c>
+      <c r="N367" s="1">
+        <v>1000.10999</v>
+      </c>
+      <c r="O367" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P367" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>46</v>
+      </c>
+      <c r="B368" t="s">
+        <v>19</v>
+      </c>
+      <c r="C368" s="1">
+        <v>36</v>
+      </c>
+      <c r="D368" s="1">
+        <v>3681.4434200000001</v>
+      </c>
+      <c r="E368" s="1">
+        <v>101.80467</v>
+      </c>
+      <c r="F368" s="1">
+        <v>26.64218</v>
+      </c>
+      <c r="G368" s="1">
+        <v>97.33</v>
+      </c>
+      <c r="H368" s="1">
+        <v>0</v>
+      </c>
+      <c r="I368" s="1">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="J368" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K368" s="1">
+        <v>1078.4800499999999</v>
+      </c>
+      <c r="L368" s="1">
+        <v>524.02000999999996</v>
+      </c>
+      <c r="M368" s="1">
+        <v>15.09</v>
+      </c>
+      <c r="N368" s="1">
+        <v>1514.9199799999999</v>
+      </c>
+      <c r="O368" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P368" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>27</v>
+      </c>
+      <c r="B369" t="s">
+        <v>19</v>
+      </c>
+      <c r="C369" s="1">
+        <v>30</v>
+      </c>
+      <c r="D369" s="1">
+        <v>3360.5908199999999</v>
+      </c>
+      <c r="E369" s="1">
+        <v>110.55423999999999</v>
+      </c>
+      <c r="F369" s="1">
+        <v>29.380759999999999</v>
+      </c>
+      <c r="G369" s="1">
+        <v>101.19</v>
+      </c>
+      <c r="H369" s="1">
+        <v>0</v>
+      </c>
+      <c r="I369" s="1">
+        <v>26.22</v>
+      </c>
+      <c r="J369" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="K369" s="1">
+        <v>142.97</v>
+      </c>
+      <c r="L369" s="1">
+        <v>104.57</v>
+      </c>
+      <c r="M369" s="1">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="N369" s="1">
+        <v>447.67000999999999</v>
+      </c>
+      <c r="O369" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P369" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>43</v>
+      </c>
+      <c r="B370" t="s">
+        <v>29</v>
+      </c>
+      <c r="C370" s="1">
+        <v>30</v>
+      </c>
+      <c r="D370" s="1">
+        <v>3711.2324199999998</v>
+      </c>
+      <c r="E370" s="1">
+        <v>122.08938000000001</v>
+      </c>
+      <c r="F370" s="1">
+        <v>25.148499999999999</v>
+      </c>
+      <c r="G370" s="1">
+        <v>101.68</v>
+      </c>
+      <c r="H370" s="1">
+        <v>0</v>
+      </c>
+      <c r="I370" s="1">
+        <v>49.54</v>
+      </c>
+      <c r="J370" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K370" s="1">
+        <v>270.45001000000002</v>
+      </c>
+      <c r="L370" s="1">
+        <v>56.47</v>
+      </c>
+      <c r="M370" s="1">
+        <v>0</v>
+      </c>
+      <c r="N370" s="1">
+        <v>678.28003000000001</v>
+      </c>
+      <c r="O370" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P370" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>42</v>
+      </c>
+      <c r="B371" t="s">
+        <v>15</v>
+      </c>
+      <c r="C371" s="1">
+        <v>42</v>
+      </c>
+      <c r="D371" s="1">
+        <v>4509.0056199999999</v>
+      </c>
+      <c r="E371" s="1">
+        <v>107.13069</v>
+      </c>
+      <c r="F371" s="1">
+        <v>26.315729999999999</v>
+      </c>
+      <c r="G371" s="1">
+        <v>126.17</v>
+      </c>
+      <c r="H371" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="I371" s="1">
+        <v>49.78</v>
+      </c>
+      <c r="J371" s="1">
+        <v>1</v>
+      </c>
+      <c r="K371" s="1">
+        <v>379.04</v>
+      </c>
+      <c r="L371" s="1">
+        <v>164.15001000000001</v>
+      </c>
+      <c r="M371" s="1">
+        <v>11.31</v>
+      </c>
+      <c r="N371" s="1">
+        <v>746.28998000000001</v>
+      </c>
+      <c r="O371" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P371" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>30</v>
+      </c>
+      <c r="B372" t="s">
+        <v>15</v>
+      </c>
+      <c r="C372" s="1">
+        <v>45</v>
+      </c>
+      <c r="D372" s="1">
+        <v>4689.34717</v>
+      </c>
+      <c r="E372" s="1">
+        <v>104.66319</v>
+      </c>
+      <c r="F372" s="1">
+        <v>23.708839999999999</v>
+      </c>
+      <c r="G372" s="1">
+        <v>153.47</v>
+      </c>
+      <c r="H372" s="1">
+        <v>0</v>
+      </c>
+      <c r="I372" s="1">
+        <v>29.47</v>
+      </c>
+      <c r="J372" s="1">
+        <v>0</v>
+      </c>
+      <c r="K372" s="1">
+        <v>1212</v>
+      </c>
+      <c r="L372" s="1">
+        <v>646.39999</v>
+      </c>
+      <c r="M372" s="1">
+        <v>0</v>
+      </c>
+      <c r="N372" s="1">
+        <v>1883.18994</v>
+      </c>
+      <c r="O372" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P372" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>31</v>
+      </c>
+      <c r="B373" t="s">
+        <v>19</v>
+      </c>
+      <c r="C373" s="1">
+        <v>53</v>
+      </c>
+      <c r="D373" s="1">
+        <v>5583.0383300000003</v>
+      </c>
+      <c r="E373" s="1">
+        <v>106.29331000000001</v>
+      </c>
+      <c r="F373" s="1">
+        <v>31.332100000000001</v>
+      </c>
+      <c r="G373" s="1">
+        <v>199.89</v>
+      </c>
+      <c r="H373" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="I373" s="1">
+        <v>57.45</v>
+      </c>
+      <c r="J373" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="K373" s="1">
+        <v>427.97998000000001</v>
+      </c>
+      <c r="L373" s="1">
+        <v>183.55</v>
+      </c>
+      <c r="M373" s="1">
+        <v>41.44</v>
+      </c>
+      <c r="N373" s="1">
+        <v>918.73000999999999</v>
+      </c>
+      <c r="O373" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P373" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>35</v>
+      </c>
+      <c r="B374" t="s">
+        <v>26</v>
+      </c>
+      <c r="C374" s="1">
+        <v>46</v>
+      </c>
+      <c r="D374" s="1">
+        <v>5128.1025399999999</v>
+      </c>
+      <c r="E374" s="1">
+        <v>110.96987</v>
+      </c>
+      <c r="F374" s="1">
+        <v>31.688800000000001</v>
+      </c>
+      <c r="G374" s="1">
+        <v>202.11</v>
+      </c>
+      <c r="H374" s="1">
+        <v>11.93</v>
+      </c>
+      <c r="I374" s="1">
+        <v>52.71</v>
+      </c>
+      <c r="J374" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K374" s="1">
+        <v>1146.2300299999999</v>
+      </c>
+      <c r="L374" s="1">
+        <v>802.48000999999999</v>
+      </c>
+      <c r="M374" s="1">
+        <v>108.01</v>
+      </c>
+      <c r="N374" s="1">
+        <v>1914.95001</v>
+      </c>
+      <c r="O374" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P374" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>28</v>
+      </c>
+      <c r="B375" t="s">
+        <v>29</v>
+      </c>
+      <c r="C375" s="1">
+        <v>58</v>
+      </c>
+      <c r="D375" s="1">
+        <v>5286.8652300000003</v>
+      </c>
+      <c r="E375" s="1">
+        <v>91.305809999999994</v>
+      </c>
+      <c r="F375" s="1">
+        <v>27.632490000000001</v>
+      </c>
+      <c r="G375" s="1">
+        <v>208.59</v>
+      </c>
+      <c r="H375" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I375" s="1">
+        <v>62.77</v>
+      </c>
+      <c r="J375" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="K375" s="1">
+        <v>1258.2800099999999</v>
+      </c>
+      <c r="L375" s="1">
+        <v>520.51000999999997</v>
+      </c>
+      <c r="M375" s="1">
+        <v>25.69</v>
+      </c>
+      <c r="N375" s="1">
+        <v>1938.9599599999999</v>
+      </c>
+      <c r="O375" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P375" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>22</v>
+      </c>
+      <c r="B376" t="s">
+        <v>17</v>
+      </c>
+      <c r="C376" s="1">
+        <v>42</v>
+      </c>
+      <c r="D376" s="1">
+        <v>4436.5572499999998</v>
+      </c>
+      <c r="E376" s="1">
+        <v>105.9156</v>
+      </c>
+      <c r="F376" s="1">
+        <v>31.1708</v>
+      </c>
+      <c r="G376" s="1">
+        <v>209.49</v>
+      </c>
+      <c r="H376" s="1">
+        <v>0</v>
+      </c>
+      <c r="I376" s="1">
+        <v>56.41</v>
+      </c>
+      <c r="J376" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K376" s="1">
+        <v>353.11000999999999</v>
+      </c>
+      <c r="L376" s="1">
+        <v>172.17</v>
+      </c>
+      <c r="M376" s="1">
+        <v>84.23</v>
+      </c>
+      <c r="N376" s="1">
+        <v>847.04002000000003</v>
+      </c>
+      <c r="O376" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P376" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>32</v>
+      </c>
+      <c r="B377" t="s">
+        <v>19</v>
+      </c>
+      <c r="C377" s="1">
+        <v>58</v>
+      </c>
+      <c r="D377" s="1">
+        <v>5364.5339400000003</v>
+      </c>
+      <c r="E377" s="1">
+        <v>92.647180000000006</v>
+      </c>
+      <c r="F377" s="1">
+        <v>30.708739999999999</v>
+      </c>
+      <c r="G377" s="1">
+        <v>214.47</v>
+      </c>
+      <c r="H377" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="I377" s="1">
+        <v>56.67</v>
+      </c>
+      <c r="J377" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="K377" s="1">
+        <v>1144.37997</v>
+      </c>
+      <c r="L377" s="1">
+        <v>612.54998999999998</v>
+      </c>
+      <c r="M377" s="1">
+        <v>47.63</v>
+      </c>
+      <c r="N377" s="1">
+        <v>1957.48999</v>
+      </c>
+      <c r="O377" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P377" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>20</v>
+      </c>
+      <c r="B378" t="s">
+        <v>21</v>
+      </c>
+      <c r="C378" s="1">
+        <v>59</v>
+      </c>
+      <c r="D378" s="1">
+        <v>6937.4602100000002</v>
+      </c>
+      <c r="E378" s="1">
+        <v>118.04993</v>
+      </c>
+      <c r="F378" s="1">
+        <v>24.94286</v>
+      </c>
+      <c r="G378" s="1">
+        <v>231.23</v>
+      </c>
+      <c r="H378" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="I378" s="1">
+        <v>110.68</v>
+      </c>
+      <c r="J378" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="K378" s="1">
+        <v>669.31</v>
+      </c>
+      <c r="L378" s="1">
+        <v>127.34</v>
+      </c>
+      <c r="M378" s="1">
+        <v>0</v>
+      </c>
+      <c r="N378" s="1">
+        <v>1374.9699700000001</v>
+      </c>
+      <c r="O378" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P378" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>37</v>
+      </c>
+      <c r="B379" t="s">
+        <v>17</v>
+      </c>
+      <c r="C379" s="1">
+        <v>59</v>
+      </c>
+      <c r="D379" s="1">
+        <v>6348.6647899999998</v>
+      </c>
+      <c r="E379" s="1">
+        <v>108.03081</v>
+      </c>
+      <c r="F379" s="1">
+        <v>30.664169999999999</v>
+      </c>
+      <c r="G379" s="1">
+        <v>246.93</v>
+      </c>
+      <c r="H379" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="I379" s="1">
+        <v>107.81</v>
+      </c>
+      <c r="J379" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="K379" s="1">
+        <v>517.36001999999996</v>
+      </c>
+      <c r="L379" s="1">
+        <v>259.24</v>
+      </c>
+      <c r="M379" s="1">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="N379" s="1">
+        <v>1193.1400100000001</v>
+      </c>
+      <c r="O379" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P379" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>47</v>
+      </c>
+      <c r="B380" t="s">
+        <v>17</v>
+      </c>
+      <c r="C380" s="1">
+        <v>59</v>
+      </c>
+      <c r="D380" s="1">
+        <v>6951.3205600000001</v>
+      </c>
+      <c r="E380" s="1">
+        <v>118.28579000000001</v>
+      </c>
+      <c r="F380" s="1">
+        <v>29.797239999999999</v>
+      </c>
+      <c r="G380" s="1">
+        <v>253.65998999999999</v>
+      </c>
+      <c r="H380" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I380" s="1">
+        <v>94.31</v>
+      </c>
+      <c r="J380" s="1">
+        <v>6.09</v>
+      </c>
+      <c r="K380" s="1">
+        <v>691.14</v>
+      </c>
+      <c r="L380" s="1">
+        <v>401.28</v>
+      </c>
+      <c r="M380" s="1">
+        <v>112.95</v>
+      </c>
+      <c r="N380" s="1">
+        <v>1476.7700199999999</v>
+      </c>
+      <c r="O380" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P380" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>44</v>
+      </c>
+      <c r="B381" t="s">
+        <v>26</v>
+      </c>
+      <c r="C381" s="1">
+        <v>59</v>
+      </c>
+      <c r="D381" s="1">
+        <v>7047.4599600000001</v>
+      </c>
+      <c r="E381" s="1">
+        <v>119.92171999999999</v>
+      </c>
+      <c r="F381" s="1">
+        <v>28.813949999999998</v>
+      </c>
+      <c r="G381" s="1">
+        <v>288.91001</v>
+      </c>
+      <c r="H381" s="1">
+        <v>0</v>
+      </c>
+      <c r="I381" s="1">
+        <v>99.07</v>
+      </c>
+      <c r="J381" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="K381" s="1">
+        <v>652.93002000000001</v>
+      </c>
+      <c r="L381" s="1">
+        <v>519.71999000000005</v>
+      </c>
+      <c r="M381" s="1">
+        <v>163.91</v>
+      </c>
+      <c r="N381" s="1">
+        <v>1652.4099699999999</v>
+      </c>
+      <c r="O381" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P381" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>36</v>
+      </c>
+      <c r="B382" t="s">
+        <v>26</v>
+      </c>
+      <c r="C382" s="1">
+        <v>59</v>
+      </c>
+      <c r="D382" s="1">
+        <v>6626.2888199999998</v>
+      </c>
+      <c r="E382" s="1">
+        <v>112.75494999999999</v>
+      </c>
+      <c r="F382" s="1">
+        <v>28.95316</v>
+      </c>
+      <c r="G382" s="1">
+        <v>295.05</v>
+      </c>
+      <c r="H382" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="I382" s="1">
+        <v>120.3</v>
+      </c>
+      <c r="J382" s="1">
+        <v>10.46</v>
+      </c>
+      <c r="K382" s="1">
+        <v>674.98000999999999</v>
+      </c>
+      <c r="L382" s="1">
+        <v>454.64999</v>
+      </c>
+      <c r="M382" s="1">
+        <v>262.82999000000001</v>
+      </c>
+      <c r="N382" s="1">
+        <v>1669.3200099999999</v>
+      </c>
+      <c r="O382" s="2">
+        <v>46043</v>
+      </c>
+      <c r="P382" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>27</v>
+      </c>
+      <c r="B383" t="s">
+        <v>19</v>
+      </c>
+      <c r="C383">
+        <v>73</v>
+      </c>
+      <c r="D383" s="1">
+        <v>3294.8623699999998</v>
+      </c>
+      <c r="E383" s="1">
+        <v>45.214480000000002</v>
+      </c>
+      <c r="F383" s="1">
+        <v>18.38327</v>
+      </c>
+      <c r="G383" s="1">
+        <v>92.4</v>
+      </c>
+      <c r="H383" s="1">
+        <v>0</v>
+      </c>
+      <c r="I383" s="1">
+        <v>20.72</v>
+      </c>
+      <c r="J383" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K383" s="1">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="L383" s="1">
+        <v>0</v>
+      </c>
+      <c r="M383" s="1">
+        <v>0</v>
+      </c>
+      <c r="N383" s="1">
+        <v>273.52999999999997</v>
+      </c>
+      <c r="O383" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P383" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>42</v>
+      </c>
+      <c r="B384" t="s">
+        <v>15</v>
+      </c>
+      <c r="C384">
+        <v>73</v>
+      </c>
+      <c r="D384" s="1">
+        <v>4878.8572400000003</v>
+      </c>
+      <c r="E384" s="1">
+        <v>66.951210000000003</v>
+      </c>
+      <c r="F384" s="1">
+        <v>20.907029999999999</v>
+      </c>
+      <c r="G384" s="1">
+        <v>98.39</v>
+      </c>
+      <c r="H384" s="1">
+        <v>0</v>
+      </c>
+      <c r="I384" s="1">
+        <v>14.56</v>
+      </c>
+      <c r="J384" s="1">
+        <v>0</v>
+      </c>
+      <c r="K384" s="1">
+        <v>133.76</v>
+      </c>
+      <c r="L384" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M384" s="1">
+        <v>0</v>
+      </c>
+      <c r="N384" s="1">
+        <v>476.51</v>
+      </c>
+      <c r="O384" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P384" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>43</v>
+      </c>
+      <c r="B385" t="s">
+        <v>29</v>
+      </c>
+      <c r="C385">
+        <v>73</v>
+      </c>
+      <c r="D385" s="1">
+        <v>4997.8897100000004</v>
+      </c>
+      <c r="E385" s="1">
+        <v>68.58466</v>
+      </c>
+      <c r="F385" s="1">
+        <v>21.046019999999999</v>
+      </c>
+      <c r="G385" s="1">
+        <v>124.7</v>
+      </c>
+      <c r="H385" s="1">
+        <v>0</v>
+      </c>
+      <c r="I385" s="1">
+        <v>43.51</v>
+      </c>
+      <c r="J385" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="K385" s="1">
+        <v>150.66</v>
+      </c>
+      <c r="L385" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="M385" s="1">
+        <v>0</v>
+      </c>
+      <c r="N385" s="1">
+        <v>615.94997999999998</v>
+      </c>
+      <c r="O385" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P385" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>32</v>
+      </c>
+      <c r="B386" t="s">
+        <v>19</v>
+      </c>
+      <c r="C386">
+        <v>73</v>
+      </c>
+      <c r="D386" s="1">
+        <v>3446.0104099999999</v>
+      </c>
+      <c r="E386" s="1">
+        <v>47.288649999999997</v>
+      </c>
+      <c r="F386" s="1">
+        <v>25.253620000000002</v>
+      </c>
+      <c r="G386" s="1">
+        <v>129.02000000000001</v>
+      </c>
+      <c r="H386" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="I386" s="1">
+        <v>46.51</v>
+      </c>
+      <c r="J386" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="K386" s="1">
+        <v>90.88</v>
+      </c>
+      <c r="L386" s="1">
+        <v>40.71</v>
+      </c>
+      <c r="M386" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="N386" s="1">
+        <v>426.71</v>
+      </c>
+      <c r="O386" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P386" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>22</v>
+      </c>
+      <c r="B387" t="s">
+        <v>17</v>
+      </c>
+      <c r="C387">
+        <v>73</v>
+      </c>
+      <c r="D387" s="1">
+        <v>4430.2801799999997</v>
+      </c>
+      <c r="E387" s="1">
+        <v>60.79551</v>
+      </c>
+      <c r="F387" s="1">
+        <v>27.779150000000001</v>
+      </c>
+      <c r="G387" s="1">
+        <v>132.94</v>
+      </c>
+      <c r="H387" s="1">
+        <v>0</v>
+      </c>
+      <c r="I387" s="1">
+        <v>30.43</v>
+      </c>
+      <c r="J387" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="K387" s="1">
+        <v>114.34</v>
+      </c>
+      <c r="L387" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="M387" s="1">
+        <v>22.66</v>
+      </c>
+      <c r="N387" s="1">
+        <v>436.02</v>
+      </c>
+      <c r="O387" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P387" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>18</v>
+      </c>
+      <c r="B388" t="s">
+        <v>19</v>
+      </c>
+      <c r="C388">
+        <v>73</v>
+      </c>
+      <c r="D388" s="1">
+        <v>3844.8881799999999</v>
+      </c>
+      <c r="E388" s="1">
+        <v>52.762340000000002</v>
+      </c>
+      <c r="F388" s="1">
+        <v>20.999420000000001</v>
+      </c>
+      <c r="G388" s="1">
+        <v>153.28</v>
+      </c>
+      <c r="H388" s="1">
+        <v>0</v>
+      </c>
+      <c r="I388" s="1">
+        <v>46</v>
+      </c>
+      <c r="J388" s="1">
+        <v>0</v>
+      </c>
+      <c r="K388" s="1">
+        <v>162.85</v>
+      </c>
+      <c r="L388" s="1">
+        <v>5.56</v>
+      </c>
+      <c r="M388" s="1">
+        <v>0</v>
+      </c>
+      <c r="N388" s="1">
+        <v>562.88001999999994</v>
+      </c>
+      <c r="O388" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P388" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>45</v>
+      </c>
+      <c r="B389" t="s">
+        <v>15</v>
+      </c>
+      <c r="C389">
+        <v>73</v>
+      </c>
+      <c r="D389" s="1">
+        <v>4555.4179999999997</v>
+      </c>
+      <c r="E389" s="1">
+        <v>62.512740000000001</v>
+      </c>
+      <c r="F389" s="1">
+        <v>23.559719999999999</v>
+      </c>
+      <c r="G389" s="1">
+        <v>156.18</v>
+      </c>
+      <c r="H389" s="1">
+        <v>0</v>
+      </c>
+      <c r="I389" s="1">
+        <v>48.54</v>
+      </c>
+      <c r="J389" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="K389" s="1">
+        <v>170.34</v>
+      </c>
+      <c r="L389" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="M389" s="1">
+        <v>0</v>
+      </c>
+      <c r="N389" s="1">
+        <v>587.74</v>
+      </c>
+      <c r="O389" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P389" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>23</v>
+      </c>
+      <c r="B390" t="s">
+        <v>17</v>
+      </c>
+      <c r="C390">
+        <v>73</v>
+      </c>
+      <c r="D390" s="1">
+        <v>4252.55591</v>
+      </c>
+      <c r="E390" s="1">
+        <v>58.356650000000002</v>
+      </c>
+      <c r="F390" s="1">
+        <v>23.336929999999999</v>
+      </c>
+      <c r="G390" s="1">
+        <v>158.47</v>
+      </c>
+      <c r="H390" s="1">
+        <v>0</v>
+      </c>
+      <c r="I390" s="1">
+        <v>42.69</v>
+      </c>
+      <c r="J390" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="K390" s="1">
+        <v>185.21999</v>
+      </c>
+      <c r="L390" s="1">
+        <v>50.75</v>
+      </c>
+      <c r="M390" s="1">
+        <v>0</v>
+      </c>
+      <c r="N390" s="1">
+        <v>678.42001000000005</v>
+      </c>
+      <c r="O390" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P390" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>46</v>
+      </c>
+      <c r="B391" t="s">
+        <v>19</v>
+      </c>
+      <c r="C391">
+        <v>73</v>
+      </c>
+      <c r="D391" s="1">
+        <v>3902.10806</v>
+      </c>
+      <c r="E391" s="1">
+        <v>53.547550000000001</v>
+      </c>
+      <c r="F391" s="1">
+        <v>19.989229999999999</v>
+      </c>
+      <c r="G391" s="1">
+        <v>158.72</v>
+      </c>
+      <c r="H391" s="1">
+        <v>0</v>
+      </c>
+      <c r="I391" s="1">
+        <v>46.33</v>
+      </c>
+      <c r="J391" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="K391" s="1">
+        <v>166.63</v>
+      </c>
+      <c r="L391" s="1">
+        <v>0</v>
+      </c>
+      <c r="M391" s="1">
+        <v>0</v>
+      </c>
+      <c r="N391" s="1">
+        <v>600.09999000000005</v>
+      </c>
+      <c r="O391" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P391" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>33</v>
+      </c>
+      <c r="B392" t="s">
+        <v>29</v>
+      </c>
+      <c r="C392">
+        <v>73</v>
+      </c>
+      <c r="D392" s="1">
+        <v>5126.2766700000002</v>
+      </c>
+      <c r="E392" s="1">
+        <v>70.34648</v>
+      </c>
+      <c r="F392" s="1">
+        <v>24.82948</v>
+      </c>
+      <c r="G392" s="1">
+        <v>194.65</v>
+      </c>
+      <c r="H392" s="1">
+        <v>0</v>
+      </c>
+      <c r="I392" s="1">
+        <v>63.72</v>
+      </c>
+      <c r="J392" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K392" s="1">
+        <v>274.88</v>
+      </c>
+      <c r="L392" s="1">
+        <v>76.86</v>
+      </c>
+      <c r="M392" s="1">
+        <v>0</v>
+      </c>
+      <c r="N392" s="1">
+        <v>776.81001000000003</v>
+      </c>
+      <c r="O392" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P392" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>30</v>
+      </c>
+      <c r="B393" t="s">
+        <v>15</v>
+      </c>
+      <c r="C393">
+        <v>73</v>
+      </c>
+      <c r="D393" s="1">
+        <v>4832.7589099999996</v>
+      </c>
+      <c r="E393" s="1">
+        <v>66.318610000000007</v>
+      </c>
+      <c r="F393" s="1">
+        <v>22.893920000000001</v>
+      </c>
+      <c r="G393" s="1">
+        <v>200.97</v>
+      </c>
+      <c r="H393" s="1">
+        <v>0</v>
+      </c>
+      <c r="I393" s="1">
+        <v>55.13</v>
+      </c>
+      <c r="J393" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="K393" s="1">
+        <v>263.66998999999998</v>
+      </c>
+      <c r="L393" s="1">
+        <v>14.01</v>
+      </c>
+      <c r="M393" s="1">
+        <v>0</v>
+      </c>
+      <c r="N393" s="1">
+        <v>766.56997999999999</v>
+      </c>
+      <c r="O393" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P393" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>47</v>
+      </c>
+      <c r="B394" t="s">
+        <v>17</v>
+      </c>
+      <c r="C394">
+        <v>73</v>
+      </c>
+      <c r="D394" s="1">
+        <v>4587.1314400000001</v>
+      </c>
+      <c r="E394" s="1">
+        <v>62.947940000000003</v>
+      </c>
+      <c r="F394" s="1">
+        <v>26.291620000000002</v>
+      </c>
+      <c r="G394" s="1">
+        <v>204.01</v>
+      </c>
+      <c r="H394" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="I394" s="1">
+        <v>61.02</v>
+      </c>
+      <c r="J394" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K394" s="1">
+        <v>255.85</v>
+      </c>
+      <c r="L394" s="1">
+        <v>99.98</v>
+      </c>
+      <c r="M394" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="N394" s="1">
+        <v>650.86</v>
+      </c>
+      <c r="O394" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P394" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>37</v>
+      </c>
+      <c r="B395" t="s">
+        <v>17</v>
+      </c>
+      <c r="C395">
+        <v>72</v>
+      </c>
+      <c r="D395" s="1">
+        <v>3824.9545899999998</v>
+      </c>
+      <c r="E395" s="1">
+        <v>52.775100000000002</v>
+      </c>
+      <c r="F395" s="1">
+        <v>23.584109999999999</v>
+      </c>
+      <c r="G395" s="1">
+        <v>213.45</v>
+      </c>
+      <c r="H395" s="1">
+        <v>11.08</v>
+      </c>
+      <c r="I395" s="1">
+        <v>50.67</v>
+      </c>
+      <c r="J395" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K395" s="1">
+        <v>189.24</v>
+      </c>
+      <c r="L395" s="1">
+        <v>44.07</v>
+      </c>
+      <c r="M395" s="1">
+        <v>0</v>
+      </c>
+      <c r="N395" s="1">
+        <v>501.74000999999998</v>
+      </c>
+      <c r="O395" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P395" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>44</v>
+      </c>
+      <c r="B396" t="s">
+        <v>26</v>
+      </c>
+      <c r="C396">
+        <v>73</v>
+      </c>
+      <c r="D396" s="1">
+        <v>4959.2311399999999</v>
+      </c>
+      <c r="E396" s="1">
+        <v>68.054159999999996</v>
+      </c>
+      <c r="F396" s="1">
+        <v>26.950690000000002</v>
+      </c>
+      <c r="G396" s="1">
+        <v>230.61</v>
+      </c>
+      <c r="H396" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I396" s="1">
+        <v>70.42</v>
+      </c>
+      <c r="J396" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="K396" s="1">
+        <v>301.2</v>
+      </c>
+      <c r="L396" s="1">
+        <v>101.1</v>
+      </c>
+      <c r="M396" s="1">
+        <v>29.92</v>
+      </c>
+      <c r="N396" s="1">
+        <v>848.31</v>
+      </c>
+      <c r="O396" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P396" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>48</v>
+      </c>
+      <c r="B397" t="s">
+        <v>26</v>
+      </c>
+      <c r="C397">
+        <v>73</v>
+      </c>
+      <c r="D397" s="1">
+        <v>5381.1094999999996</v>
+      </c>
+      <c r="E397" s="1">
+        <v>73.84348</v>
+      </c>
+      <c r="F397" s="1">
+        <v>27.75431</v>
+      </c>
+      <c r="G397" s="1">
+        <v>240.82</v>
+      </c>
+      <c r="H397" s="1">
+        <v>0</v>
+      </c>
+      <c r="I397" s="1">
+        <v>63.94</v>
+      </c>
+      <c r="J397" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="K397" s="1">
+        <v>254.76</v>
+      </c>
+      <c r="L397" s="1">
+        <v>157.41</v>
+      </c>
+      <c r="M397" s="1">
+        <v>26.28</v>
+      </c>
+      <c r="N397" s="1">
+        <v>764.07997999999998</v>
+      </c>
+      <c r="O397" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P397" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+      <c r="B398" t="s">
+        <v>26</v>
+      </c>
+      <c r="C398">
+        <v>73</v>
+      </c>
+      <c r="D398" s="1">
+        <v>5225.0299699999996</v>
+      </c>
+      <c r="E398" s="1">
+        <v>71.701639999999998</v>
+      </c>
+      <c r="F398" s="1">
+        <v>29.19998</v>
+      </c>
+      <c r="G398" s="1">
+        <v>249.74</v>
+      </c>
+      <c r="H398" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="I398" s="1">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="J398" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="K398" s="1">
+        <v>339.81000999999998</v>
+      </c>
+      <c r="L398" s="1">
+        <v>128.54</v>
+      </c>
+      <c r="M398" s="1">
+        <v>24.38</v>
+      </c>
+      <c r="N398" s="1">
+        <v>800.75000999999997</v>
+      </c>
+      <c r="O398" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P398" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>31</v>
+      </c>
+      <c r="B399" t="s">
+        <v>19</v>
+      </c>
+      <c r="C399">
+        <v>66</v>
+      </c>
+      <c r="D399" s="1">
+        <v>3429.9733000000001</v>
+      </c>
+      <c r="E399" s="1">
+        <v>51.764069999999997</v>
+      </c>
+      <c r="F399" s="1">
+        <v>24.940719999999999</v>
+      </c>
+      <c r="G399" s="1">
+        <v>254.21</v>
+      </c>
+      <c r="H399" s="1">
+        <v>9.15</v>
+      </c>
+      <c r="I399" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="J399" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K399" s="1">
+        <v>243.42</v>
+      </c>
+      <c r="L399" s="1">
+        <v>37.29</v>
+      </c>
+      <c r="M399" s="1">
+        <v>0</v>
+      </c>
+      <c r="N399" s="1">
+        <v>513.05998999999997</v>
+      </c>
+      <c r="O399" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P399" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>20</v>
+      </c>
+      <c r="B400" t="s">
+        <v>21</v>
+      </c>
+      <c r="C400">
+        <v>73</v>
+      </c>
+      <c r="D400" s="1">
+        <v>5100.7011700000003</v>
+      </c>
+      <c r="E400" s="1">
+        <v>69.995509999999996</v>
+      </c>
+      <c r="F400" s="1">
+        <v>25.056349999999998</v>
+      </c>
+      <c r="G400" s="1">
+        <v>276.33</v>
+      </c>
+      <c r="H400" s="1">
+        <v>0</v>
+      </c>
+      <c r="I400" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="J400" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="K400" s="1">
+        <v>308.02999999999997</v>
+      </c>
+      <c r="L400" s="1">
+        <v>81.45</v>
+      </c>
+      <c r="M400" s="1">
+        <v>0</v>
+      </c>
+      <c r="N400" s="1">
+        <v>799.39</v>
+      </c>
+      <c r="O400" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P400" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>36</v>
+      </c>
+      <c r="B401" t="s">
+        <v>26</v>
+      </c>
+      <c r="C401">
+        <v>73</v>
+      </c>
+      <c r="D401" s="1">
+        <v>5082.3261400000001</v>
+      </c>
+      <c r="E401" s="1">
+        <v>69.743350000000007</v>
+      </c>
+      <c r="F401" s="1">
+        <v>28.262730000000001</v>
+      </c>
+      <c r="G401" s="1">
+        <v>278.91000000000003</v>
+      </c>
+      <c r="H401" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="I401" s="1">
+        <v>80.06</v>
+      </c>
+      <c r="J401" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="K401" s="1">
+        <v>330.58001000000002</v>
+      </c>
+      <c r="L401" s="1">
+        <v>210.13</v>
+      </c>
+      <c r="M401" s="1">
+        <v>103.54</v>
+      </c>
+      <c r="N401" s="1">
+        <v>993.2</v>
+      </c>
+      <c r="O401" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P401" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>38</v>
+      </c>
+      <c r="B402" t="s">
+        <v>29</v>
+      </c>
+      <c r="C402">
+        <v>73</v>
+      </c>
+      <c r="D402" s="1">
+        <v>5224.8438699999997</v>
+      </c>
+      <c r="E402" s="1">
+        <v>71.699089999999998</v>
+      </c>
+      <c r="F402" s="1">
+        <v>28.12501</v>
+      </c>
+      <c r="G402" s="1">
+        <v>292.43</v>
+      </c>
+      <c r="H402" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I402" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="J402" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="K402" s="1">
+        <v>390.54</v>
+      </c>
+      <c r="L402" s="1">
+        <v>161.91</v>
+      </c>
+      <c r="M402" s="1">
+        <v>13.93</v>
+      </c>
+      <c r="N402" s="1">
+        <v>883.29001000000005</v>
+      </c>
+      <c r="O402" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P402" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>28</v>
+      </c>
+      <c r="B403" t="s">
+        <v>29</v>
+      </c>
+      <c r="C403">
+        <v>72</v>
+      </c>
+      <c r="D403" s="1">
+        <v>4092.86789</v>
+      </c>
+      <c r="E403" s="1">
+        <v>56.471649999999997</v>
+      </c>
+      <c r="F403" s="1">
+        <v>25.643740000000001</v>
+      </c>
+      <c r="G403" s="1">
+        <v>296.77999999999997</v>
+      </c>
+      <c r="H403" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="I403" s="1">
+        <v>56.22</v>
+      </c>
+      <c r="J403" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="K403" s="1">
+        <v>289.90001000000001</v>
+      </c>
+      <c r="L403" s="1">
+        <v>48.23</v>
+      </c>
+      <c r="M403" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="N403" s="1">
+        <v>644.80999999999995</v>
+      </c>
+      <c r="O403" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P403" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>16</v>
+      </c>
+      <c r="B404" t="s">
+        <v>17</v>
+      </c>
+      <c r="C404">
+        <v>73</v>
+      </c>
+      <c r="D404" s="1">
+        <v>4880.3441199999997</v>
+      </c>
+      <c r="E404" s="1">
+        <v>66.971609999999998</v>
+      </c>
+      <c r="F404" s="1">
+        <v>27.005559999999999</v>
+      </c>
+      <c r="G404" s="1">
+        <v>310.42</v>
+      </c>
+      <c r="H404" s="1">
+        <v>0</v>
+      </c>
+      <c r="I404" s="1">
+        <v>84.45</v>
+      </c>
+      <c r="J404" s="1">
+        <v>6.92</v>
+      </c>
+      <c r="K404" s="1">
+        <v>425.99</v>
+      </c>
+      <c r="L404" s="1">
+        <v>163.72999999999999</v>
+      </c>
+      <c r="M404" s="1">
+        <v>28.62</v>
+      </c>
+      <c r="N404" s="1">
+        <v>843.38998000000004</v>
+      </c>
+      <c r="O404" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P404" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>35</v>
+      </c>
+      <c r="B405" t="s">
+        <v>26</v>
+      </c>
+      <c r="C405">
+        <v>73</v>
+      </c>
+      <c r="D405" s="1">
+        <v>5511.7829899999997</v>
+      </c>
+      <c r="E405" s="1">
+        <v>75.636669999999995</v>
+      </c>
+      <c r="F405" s="1">
+        <v>27.684229999999999</v>
+      </c>
+      <c r="G405" s="1">
+        <v>380.83</v>
+      </c>
+      <c r="H405" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I405" s="1">
+        <v>92.81</v>
+      </c>
+      <c r="J405" s="1">
+        <v>2.83</v>
+      </c>
+      <c r="K405" s="1">
+        <v>497.35001</v>
+      </c>
+      <c r="L405" s="1">
+        <v>279.27</v>
+      </c>
+      <c r="M405" s="1">
+        <v>41.74</v>
+      </c>
+      <c r="N405" s="1">
+        <v>926.95</v>
+      </c>
+      <c r="O405" s="2">
+        <v>46044</v>
+      </c>
+      <c r="P405" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>44</v>
+      </c>
+      <c r="B406" t="s">
+        <v>26</v>
+      </c>
+      <c r="C406">
+        <v>22</v>
+      </c>
+      <c r="D406" s="1">
+        <v>2249.3713400000001</v>
+      </c>
+      <c r="E406" s="1">
+        <v>102.37289</v>
+      </c>
+      <c r="F406" s="1">
+        <v>27.02956</v>
+      </c>
+      <c r="G406" s="1">
+        <v>91.04</v>
+      </c>
+      <c r="H406" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="I406" s="1">
+        <v>24.73</v>
+      </c>
+      <c r="J406" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="K406" s="1">
+        <v>220.49001000000001</v>
+      </c>
+      <c r="L406" s="1">
+        <v>124.98</v>
+      </c>
+      <c r="M406" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="N406" s="1">
+        <v>477.42998999999998</v>
+      </c>
+      <c r="O406" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P406" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>43</v>
+      </c>
+      <c r="B407" t="s">
+        <v>29</v>
+      </c>
+      <c r="C407">
+        <v>33</v>
+      </c>
+      <c r="D407" s="1">
+        <v>3194.2988300000002</v>
+      </c>
+      <c r="E407" s="1">
+        <v>98.260419999999996</v>
+      </c>
+      <c r="F407" s="1">
+        <v>26.728100000000001</v>
+      </c>
+      <c r="G407" s="1">
+        <v>92.47</v>
+      </c>
+      <c r="H407" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="I407" s="1">
+        <v>36.99</v>
+      </c>
+      <c r="J407" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="K407" s="1">
+        <v>189.53998999999999</v>
+      </c>
+      <c r="L407" s="1">
+        <v>42.83</v>
+      </c>
+      <c r="M407" s="1">
+        <v>7.59</v>
+      </c>
+      <c r="N407" s="1">
+        <v>455.20999</v>
+      </c>
+      <c r="O407" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P407" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>42</v>
+      </c>
+      <c r="B408" t="s">
+        <v>15</v>
+      </c>
+      <c r="C408">
+        <v>32</v>
+      </c>
+      <c r="D408" s="1">
+        <v>3174.7897899999998</v>
+      </c>
+      <c r="E408" s="1">
+        <v>98.084209999999999</v>
+      </c>
+      <c r="F408" s="1">
+        <v>26.213239999999999</v>
+      </c>
+      <c r="G408" s="1">
+        <v>96.71</v>
+      </c>
+      <c r="H408" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="I408" s="1">
+        <v>23.65</v>
+      </c>
+      <c r="J408" s="1">
+        <v>0</v>
+      </c>
+      <c r="K408" s="1">
+        <v>248.49001000000001</v>
+      </c>
+      <c r="L408" s="1">
+        <v>71.17</v>
+      </c>
+      <c r="M408" s="1">
+        <v>12.06</v>
+      </c>
+      <c r="N408" s="1">
+        <v>490.26001000000002</v>
+      </c>
+      <c r="O408" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P408" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>20</v>
+      </c>
+      <c r="B409" t="s">
+        <v>21</v>
+      </c>
+      <c r="C409">
+        <v>22</v>
+      </c>
+      <c r="D409" s="1">
+        <v>2260.6958</v>
+      </c>
+      <c r="E409" s="1">
+        <v>104.90062</v>
+      </c>
+      <c r="F409" s="1">
+        <v>28.43505</v>
+      </c>
+      <c r="G409" s="1">
+        <v>98.12</v>
+      </c>
+      <c r="H409" s="1">
+        <v>0</v>
+      </c>
+      <c r="I409" s="1">
+        <v>44.1</v>
+      </c>
+      <c r="J409" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="K409" s="1">
+        <v>221.16</v>
+      </c>
+      <c r="L409" s="1">
+        <v>105.14</v>
+      </c>
+      <c r="M409" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="N409" s="1">
+        <v>512.19000000000005</v>
+      </c>
+      <c r="O409" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P409" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>30</v>
+      </c>
+      <c r="B410" t="s">
+        <v>15</v>
+      </c>
+      <c r="C410">
+        <v>33</v>
+      </c>
+      <c r="D410" s="1">
+        <v>3111.5654300000001</v>
+      </c>
+      <c r="E410" s="1">
+        <v>95.715440000000001</v>
+      </c>
+      <c r="F410" s="1">
+        <v>25.46322</v>
+      </c>
+      <c r="G410" s="1">
+        <v>144.03</v>
+      </c>
+      <c r="H410" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I410" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="J410" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="K410" s="1">
+        <v>320.04998999999998</v>
+      </c>
+      <c r="L410" s="1">
+        <v>182.42</v>
+      </c>
+      <c r="M410" s="1">
+        <v>5.58</v>
+      </c>
+      <c r="N410" s="1">
+        <v>681.90002000000004</v>
+      </c>
+      <c r="O410" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P410" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>22</v>
+      </c>
+      <c r="B411" t="s">
+        <v>17</v>
+      </c>
+      <c r="C411">
+        <v>32</v>
+      </c>
+      <c r="D411" s="1">
+        <v>3288.33691</v>
+      </c>
+      <c r="E411" s="1">
+        <v>102.48191</v>
+      </c>
+      <c r="F411" s="1">
+        <v>28.559329999999999</v>
+      </c>
+      <c r="G411" s="1">
+        <v>168.66999000000001</v>
+      </c>
+      <c r="H411" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I411" s="1">
+        <v>51.81</v>
+      </c>
+      <c r="J411" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="K411" s="1">
+        <v>316.04001</v>
+      </c>
+      <c r="L411" s="1">
+        <v>171.47</v>
+      </c>
+      <c r="M411" s="1">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="N411" s="1">
+        <v>671.46996999999999</v>
+      </c>
+      <c r="O411" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P411" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>36</v>
+      </c>
+      <c r="B412" t="s">
+        <v>26</v>
+      </c>
+      <c r="C412">
+        <v>46</v>
+      </c>
+      <c r="D412" s="1">
+        <v>4543.4780300000002</v>
+      </c>
+      <c r="E412" s="1">
+        <v>98.717250000000007</v>
+      </c>
+      <c r="F412" s="1">
+        <v>30.572369999999999</v>
+      </c>
+      <c r="G412" s="1">
+        <v>170.45000999999999</v>
+      </c>
+      <c r="H412" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="I412" s="1">
+        <v>56.02</v>
+      </c>
+      <c r="J412" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="K412" s="1">
+        <v>501.39999</v>
+      </c>
+      <c r="L412" s="1">
+        <v>168.39999</v>
+      </c>
+      <c r="M412" s="1">
+        <v>26.08</v>
+      </c>
+      <c r="N412" s="1">
+        <v>902.37</v>
+      </c>
+      <c r="O412" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P412" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>25</v>
+      </c>
+      <c r="B413" t="s">
+        <v>26</v>
+      </c>
+      <c r="C413">
+        <v>46</v>
+      </c>
+      <c r="D413" s="1">
+        <v>4706.74658</v>
+      </c>
+      <c r="E413" s="1">
+        <v>102.48878999999999</v>
+      </c>
+      <c r="F413" s="1">
+        <v>28.226970000000001</v>
+      </c>
+      <c r="G413" s="1">
+        <v>177.87</v>
+      </c>
+      <c r="H413" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I413" s="1">
+        <v>65.62</v>
+      </c>
+      <c r="J413" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="K413" s="1">
+        <v>393.22</v>
+      </c>
+      <c r="L413" s="1">
+        <v>195.53998999999999</v>
+      </c>
+      <c r="M413" s="1">
+        <v>74.239999999999995</v>
+      </c>
+      <c r="N413" s="1">
+        <v>855.38</v>
+      </c>
+      <c r="O413" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P413" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>47</v>
+      </c>
+      <c r="B414" t="s">
+        <v>17</v>
+      </c>
+      <c r="C414">
+        <v>46</v>
+      </c>
+      <c r="D414" s="1">
+        <v>3797.4726599999999</v>
+      </c>
+      <c r="E414" s="1">
+        <v>82.508610000000004</v>
+      </c>
+      <c r="F414" s="1">
+        <v>27.440650000000002</v>
+      </c>
+      <c r="G414" s="1">
+        <v>225.64000999999999</v>
+      </c>
+      <c r="H414" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="I414" s="1">
+        <v>64.84</v>
+      </c>
+      <c r="J414" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="K414" s="1">
+        <v>294.45001000000002</v>
+      </c>
+      <c r="L414" s="1">
+        <v>207.81</v>
+      </c>
+      <c r="M414" s="1">
+        <v>53.57</v>
+      </c>
+      <c r="N414" s="1">
+        <v>706.53003000000001</v>
+      </c>
+      <c r="O414" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P414" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>45</v>
+      </c>
+      <c r="B415" t="s">
+        <v>15</v>
+      </c>
+      <c r="C415">
+        <v>60</v>
+      </c>
+      <c r="D415" s="1">
+        <v>6341.1458700000003</v>
+      </c>
+      <c r="E415" s="1">
+        <v>104.943</v>
+      </c>
+      <c r="F415" s="1">
+        <v>28.49419</v>
+      </c>
+      <c r="G415" s="1">
+        <v>232.27</v>
+      </c>
+      <c r="H415" s="1">
+        <v>0</v>
+      </c>
+      <c r="I415" s="1">
+        <v>75.2</v>
+      </c>
+      <c r="J415" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="K415" s="1">
+        <v>480.34998999999999</v>
+      </c>
+      <c r="L415" s="1">
+        <v>195.95</v>
+      </c>
+      <c r="M415" s="1">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="N415" s="1">
+        <v>1138.43002</v>
+      </c>
+      <c r="O415" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P415" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>33</v>
+      </c>
+      <c r="B416" t="s">
+        <v>29</v>
+      </c>
+      <c r="C416">
+        <v>61</v>
+      </c>
+      <c r="D416" s="1">
+        <v>6895.5185499999998</v>
+      </c>
+      <c r="E416" s="1">
+        <v>113.32708</v>
+      </c>
+      <c r="F416" s="1">
+        <v>28.165949999999999</v>
+      </c>
+      <c r="G416" s="1">
+        <v>239.96999</v>
+      </c>
+      <c r="H416" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I416" s="1">
+        <v>87.37</v>
+      </c>
+      <c r="J416" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="K416" s="1">
+        <v>643.38998000000004</v>
+      </c>
+      <c r="L416" s="1">
+        <v>270.73</v>
+      </c>
+      <c r="M416" s="1">
+        <v>58.54</v>
+      </c>
+      <c r="N416" s="1">
+        <v>1499.31</v>
+      </c>
+      <c r="O416" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P416" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>35</v>
+      </c>
+      <c r="B417" t="s">
+        <v>26</v>
+      </c>
+      <c r="C417">
+        <v>61</v>
+      </c>
+      <c r="D417" s="1">
+        <v>6741.7620800000004</v>
+      </c>
+      <c r="E417" s="1">
+        <v>111.31417999999999</v>
+      </c>
+      <c r="F417" s="1">
+        <v>30.951519999999999</v>
+      </c>
+      <c r="G417" s="1">
+        <v>256.87</v>
+      </c>
+      <c r="H417" s="1">
+        <v>7.02</v>
+      </c>
+      <c r="I417" s="1">
+        <v>99.05</v>
+      </c>
+      <c r="J417" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="K417" s="1">
+        <v>712.38996999999995</v>
+      </c>
+      <c r="L417" s="1">
+        <v>425.67000999999999</v>
+      </c>
+      <c r="M417" s="1">
+        <v>303.62</v>
+      </c>
+      <c r="N417" s="1">
+        <v>1509.03998</v>
+      </c>
+      <c r="O417" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P417" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>46</v>
+      </c>
+      <c r="B418" t="s">
+        <v>19</v>
+      </c>
+      <c r="C418">
+        <v>92</v>
+      </c>
+      <c r="D418" s="1">
+        <v>8927.2426799999994</v>
+      </c>
+      <c r="E418" s="1">
+        <v>97.088359999999994</v>
+      </c>
+      <c r="F418" s="1">
+        <v>27.12041</v>
+      </c>
+      <c r="G418" s="1">
+        <v>309.2</v>
+      </c>
+      <c r="H418" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I418" s="1">
+        <v>101.5</v>
+      </c>
+      <c r="J418" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="K418" s="1">
+        <v>680.28</v>
+      </c>
+      <c r="L418" s="1">
+        <v>242.84998999999999</v>
+      </c>
+      <c r="M418" s="1">
+        <v>42.95</v>
+      </c>
+      <c r="N418" s="1">
+        <v>1660.38995</v>
+      </c>
+      <c r="O418" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P418" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>18</v>
+      </c>
+      <c r="B419" t="s">
+        <v>19</v>
+      </c>
+      <c r="C419">
+        <v>92</v>
+      </c>
+      <c r="D419" s="1">
+        <v>8894.2197300000007</v>
+      </c>
+      <c r="E419" s="1">
+        <v>96.729219999999998</v>
+      </c>
+      <c r="F419" s="1">
+        <v>26.588460000000001</v>
+      </c>
+      <c r="G419" s="1">
+        <v>312.05</v>
+      </c>
+      <c r="H419" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I419" s="1">
+        <v>107.6</v>
+      </c>
+      <c r="J419" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K419" s="1">
+        <v>808.95998999999995</v>
+      </c>
+      <c r="L419" s="1">
+        <v>187.96</v>
+      </c>
+      <c r="M419" s="1">
+        <v>13.87</v>
+      </c>
+      <c r="N419" s="1">
+        <v>1707.8300200000001</v>
+      </c>
+      <c r="O419" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P419" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>38</v>
+      </c>
+      <c r="B420" t="s">
+        <v>29</v>
+      </c>
+      <c r="C420">
+        <v>70</v>
+      </c>
+      <c r="D420" s="1">
+        <v>7661.7514600000004</v>
+      </c>
+      <c r="E420" s="1">
+        <v>109.26966</v>
+      </c>
+      <c r="F420" s="1">
+        <v>29.626950000000001</v>
+      </c>
+      <c r="G420" s="1">
+        <v>314.99</v>
+      </c>
+      <c r="H420" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="I420" s="1">
+        <v>128.65</v>
+      </c>
+      <c r="J420" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="K420" s="1">
+        <v>959.83001999999999</v>
+      </c>
+      <c r="L420" s="1">
+        <v>393.58</v>
+      </c>
+      <c r="M420" s="1">
+        <v>101.81</v>
+      </c>
+      <c r="N420" s="1">
+        <v>2056.9799200000002</v>
+      </c>
+      <c r="O420" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P420" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>48</v>
+      </c>
+      <c r="B421" t="s">
+        <v>26</v>
+      </c>
+      <c r="C421">
+        <v>70</v>
+      </c>
+      <c r="D421" s="1">
+        <v>7350.7436500000003</v>
+      </c>
+      <c r="E421" s="1">
+        <v>104.62451</v>
+      </c>
+      <c r="F421" s="1">
+        <v>30.711770000000001</v>
+      </c>
+      <c r="G421" s="1">
+        <v>333.51999000000001</v>
+      </c>
+      <c r="H421" s="1">
+        <v>6.55</v>
+      </c>
+      <c r="I421" s="1">
+        <v>108.1</v>
+      </c>
+      <c r="J421" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="K421" s="1">
+        <v>771.72</v>
+      </c>
+      <c r="L421" s="1">
+        <v>513.87999000000002</v>
+      </c>
+      <c r="M421" s="1">
+        <v>165.07</v>
+      </c>
+      <c r="N421" s="1">
+        <v>1665.70001</v>
+      </c>
+      <c r="O421" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P421" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>16</v>
+      </c>
+      <c r="B422" t="s">
+        <v>17</v>
+      </c>
+      <c r="C422">
+        <v>60</v>
+      </c>
+      <c r="D422" s="1">
+        <v>6391.6513699999996</v>
+      </c>
+      <c r="E422" s="1">
+        <v>107.27547</v>
+      </c>
+      <c r="F422" s="1">
+        <v>31.2822</v>
+      </c>
+      <c r="G422" s="1">
+        <v>342.5</v>
+      </c>
+      <c r="H422" s="1">
+        <v>11.55</v>
+      </c>
+      <c r="I422" s="1">
+        <v>128.19</v>
+      </c>
+      <c r="J422" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="K422" s="1">
+        <v>592.03</v>
+      </c>
+      <c r="L422" s="1">
+        <v>369.79001</v>
+      </c>
+      <c r="M422" s="1">
+        <v>233.75</v>
+      </c>
+      <c r="N422" s="1">
+        <v>1371.87</v>
+      </c>
+      <c r="O422" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P422" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>23</v>
+      </c>
+      <c r="B423" t="s">
+        <v>17</v>
+      </c>
+      <c r="C423">
+        <v>60</v>
+      </c>
+      <c r="D423" s="1">
+        <v>7636.83032</v>
+      </c>
+      <c r="E423" s="1">
+        <v>128.17416</v>
+      </c>
+      <c r="F423" s="1">
+        <v>30.147279999999999</v>
+      </c>
+      <c r="G423" s="1">
+        <v>354.42000999999999</v>
+      </c>
+      <c r="H423" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="I423" s="1">
+        <v>126.98</v>
+      </c>
+      <c r="J423" s="1">
+        <v>13.87</v>
+      </c>
+      <c r="K423" s="1">
+        <v>939.32001000000002</v>
+      </c>
+      <c r="L423" s="1">
+        <v>469.45999</v>
+      </c>
+      <c r="M423" s="1">
+        <v>139.24</v>
+      </c>
+      <c r="N423" s="1">
+        <v>1940.5500500000001</v>
+      </c>
+      <c r="O423" s="2">
+        <v>46045</v>
+      </c>
+      <c r="P423" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>18</v>
+      </c>
+      <c r="B424" t="s">
+        <v>19</v>
+      </c>
+      <c r="C424">
+        <v>46</v>
+      </c>
+      <c r="D424" s="1">
+        <v>3859.0310100000002</v>
+      </c>
+      <c r="E424" s="1">
+        <v>83.619309999999999</v>
+      </c>
+      <c r="F424" s="1">
+        <v>12.000830000000001</v>
+      </c>
+      <c r="G424" s="1">
+        <v>0</v>
+      </c>
+      <c r="H424" s="1">
+        <v>0</v>
+      </c>
+      <c r="I424" s="1">
+        <v>0</v>
+      </c>
+      <c r="J424" s="1">
+        <v>0</v>
+      </c>
+      <c r="K424" s="1">
+        <v>0</v>
+      </c>
+      <c r="L424" s="1">
+        <v>0</v>
+      </c>
+      <c r="M424" s="1">
+        <v>0</v>
+      </c>
+      <c r="N424" s="1">
+        <v>0</v>
+      </c>
+      <c r="O424" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P424" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>46</v>
+      </c>
+      <c r="B425" t="s">
+        <v>19</v>
+      </c>
+      <c r="C425">
+        <v>46</v>
+      </c>
+      <c r="D425" s="1">
+        <v>3929.9511699999998</v>
+      </c>
+      <c r="E425" s="1">
+        <v>85.156040000000004</v>
+      </c>
+      <c r="F425" s="1">
+        <v>12.150449999999999</v>
+      </c>
+      <c r="G425" s="1">
+        <v>0</v>
+      </c>
+      <c r="H425" s="1">
+        <v>0</v>
+      </c>
+      <c r="I425" s="1">
+        <v>0</v>
+      </c>
+      <c r="J425" s="1">
+        <v>0</v>
+      </c>
+      <c r="K425" s="1">
+        <v>0</v>
+      </c>
+      <c r="L425" s="1">
+        <v>0</v>
+      </c>
+      <c r="M425" s="1">
+        <v>0</v>
+      </c>
+      <c r="N425" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="O425" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P425" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>48</v>
+      </c>
+      <c r="B426" t="s">
+        <v>26</v>
+      </c>
+      <c r="C426">
+        <v>46</v>
+      </c>
+      <c r="D426" s="1">
+        <v>3855.9233399999998</v>
+      </c>
+      <c r="E426" s="1">
+        <v>83.551969999999997</v>
+      </c>
+      <c r="F426" s="1">
+        <v>13.355700000000001</v>
+      </c>
+      <c r="G426" s="1">
+        <v>0</v>
+      </c>
+      <c r="H426" s="1">
+        <v>0</v>
+      </c>
+      <c r="I426" s="1">
+        <v>0</v>
+      </c>
+      <c r="J426" s="1">
+        <v>0</v>
+      </c>
+      <c r="K426" s="1">
+        <v>0</v>
+      </c>
+      <c r="L426" s="1">
+        <v>0</v>
+      </c>
+      <c r="M426" s="1">
+        <v>0</v>
+      </c>
+      <c r="N426" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="O426" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P426" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>35</v>
+      </c>
+      <c r="B427" t="s">
+        <v>26</v>
+      </c>
+      <c r="C427">
+        <v>46</v>
+      </c>
+      <c r="D427" s="1">
+        <v>3898.7653799999998</v>
+      </c>
+      <c r="E427" s="1">
+        <v>84.480289999999997</v>
+      </c>
+      <c r="F427" s="1">
+        <v>14.71885</v>
+      </c>
+      <c r="G427" s="1">
+        <v>0</v>
+      </c>
+      <c r="H427" s="1">
+        <v>0</v>
+      </c>
+      <c r="I427" s="1">
+        <v>0</v>
+      </c>
+      <c r="J427" s="1">
+        <v>0</v>
+      </c>
+      <c r="K427" s="1">
+        <v>0</v>
+      </c>
+      <c r="L427" s="1">
+        <v>0</v>
+      </c>
+      <c r="M427" s="1">
+        <v>0</v>
+      </c>
+      <c r="N427" s="1">
+        <v>14.54</v>
+      </c>
+      <c r="O427" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P427" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>44</v>
+      </c>
+      <c r="B428" t="s">
+        <v>26</v>
+      </c>
+      <c r="C428">
+        <v>46</v>
+      </c>
+      <c r="D428" s="1">
+        <v>3841.85815</v>
+      </c>
+      <c r="E428" s="1">
+        <v>83.247200000000007</v>
+      </c>
+      <c r="F428" s="1">
+        <v>15.84347</v>
+      </c>
+      <c r="G428" s="1">
+        <v>0</v>
+      </c>
+      <c r="H428" s="1">
+        <v>0</v>
+      </c>
+      <c r="I428" s="1">
+        <v>0</v>
+      </c>
+      <c r="J428" s="1">
+        <v>0</v>
+      </c>
+      <c r="K428" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="L428" s="1">
+        <v>0</v>
+      </c>
+      <c r="M428" s="1">
+        <v>0</v>
+      </c>
+      <c r="N428" s="1">
+        <v>13.48</v>
+      </c>
+      <c r="O428" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P428" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>36</v>
+      </c>
+      <c r="B429" t="s">
+        <v>26</v>
+      </c>
+      <c r="C429">
+        <v>46</v>
+      </c>
+      <c r="D429" s="1">
+        <v>3756.5112300000001</v>
+      </c>
+      <c r="E429" s="1">
+        <v>81.397859999999994</v>
+      </c>
+      <c r="F429" s="1">
+        <v>12.240270000000001</v>
+      </c>
+      <c r="G429" s="1">
+        <v>0</v>
+      </c>
+      <c r="H429" s="1">
+        <v>0</v>
+      </c>
+      <c r="I429" s="1">
+        <v>0</v>
+      </c>
+      <c r="J429" s="1">
+        <v>0</v>
+      </c>
+      <c r="K429" s="1">
+        <v>0</v>
+      </c>
+      <c r="L429" s="1">
+        <v>0</v>
+      </c>
+      <c r="M429" s="1">
+        <v>0</v>
+      </c>
+      <c r="N429" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="O429" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P429" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>42</v>
+      </c>
+      <c r="B430" t="s">
+        <v>15</v>
+      </c>
+      <c r="C430">
+        <v>46</v>
+      </c>
+      <c r="D430" s="1">
+        <v>3911.40479</v>
+      </c>
+      <c r="E430" s="1">
+        <v>84.754170000000002</v>
+      </c>
+      <c r="F430" s="1">
+        <v>13.080859999999999</v>
+      </c>
+      <c r="G430" s="1">
+        <v>0</v>
+      </c>
+      <c r="H430" s="1">
+        <v>0</v>
+      </c>
+      <c r="I430" s="1">
+        <v>0</v>
+      </c>
+      <c r="J430" s="1">
+        <v>0</v>
+      </c>
+      <c r="K430" s="1">
+        <v>0</v>
+      </c>
+      <c r="L430" s="1">
+        <v>0</v>
+      </c>
+      <c r="M430" s="1">
+        <v>0</v>
+      </c>
+      <c r="N430" s="1">
+        <v>0</v>
+      </c>
+      <c r="O430" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P430" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>45</v>
+      </c>
+      <c r="B431" t="s">
+        <v>15</v>
+      </c>
+      <c r="C431">
+        <v>46</v>
+      </c>
+      <c r="D431" s="1">
+        <v>3787.2289999999998</v>
+      </c>
+      <c r="E431" s="1">
+        <v>82.063469999999995</v>
+      </c>
+      <c r="F431" s="1">
+        <v>12.04496</v>
+      </c>
+      <c r="G431" s="1">
+        <v>0</v>
+      </c>
+      <c r="H431" s="1">
+        <v>0</v>
+      </c>
+      <c r="I431" s="1">
+        <v>0</v>
+      </c>
+      <c r="J431" s="1">
+        <v>0</v>
+      </c>
+      <c r="K431" s="1">
+        <v>0</v>
+      </c>
+      <c r="L431" s="1">
+        <v>0</v>
+      </c>
+      <c r="M431" s="1">
+        <v>0</v>
+      </c>
+      <c r="N431" s="1">
+        <v>0</v>
+      </c>
+      <c r="O431" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P431" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>23</v>
+      </c>
+      <c r="B432" t="s">
+        <v>17</v>
+      </c>
+      <c r="C432">
+        <v>46</v>
+      </c>
+      <c r="D432" s="1">
+        <v>3977.3361799999998</v>
+      </c>
+      <c r="E432" s="1">
+        <v>86.1828</v>
+      </c>
+      <c r="F432" s="1">
+        <v>12.49494</v>
+      </c>
+      <c r="G432" s="1">
+        <v>0</v>
+      </c>
+      <c r="H432" s="1">
+        <v>0</v>
+      </c>
+      <c r="I432" s="1">
+        <v>0</v>
+      </c>
+      <c r="J432" s="1">
+        <v>0</v>
+      </c>
+      <c r="K432" s="1">
+        <v>0</v>
+      </c>
+      <c r="L432" s="1">
+        <v>0</v>
+      </c>
+      <c r="M432" s="1">
+        <v>0</v>
+      </c>
+      <c r="N432" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="O432" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P432" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>16</v>
+      </c>
+      <c r="B433" t="s">
+        <v>17</v>
+      </c>
+      <c r="C433">
+        <v>46</v>
+      </c>
+      <c r="D433" s="1">
+        <v>3784.6850599999998</v>
+      </c>
+      <c r="E433" s="1">
+        <v>82.008340000000004</v>
+      </c>
+      <c r="F433" s="1">
+        <v>12.82943</v>
+      </c>
+      <c r="G433" s="1">
+        <v>0</v>
+      </c>
+      <c r="H433" s="1">
+        <v>0</v>
+      </c>
+      <c r="I433" s="1">
+        <v>0</v>
+      </c>
+      <c r="J433" s="1">
+        <v>0</v>
+      </c>
+      <c r="K433" s="1">
+        <v>0</v>
+      </c>
+      <c r="L433" s="1">
+        <v>0</v>
+      </c>
+      <c r="M433" s="1">
+        <v>0</v>
+      </c>
+      <c r="N433" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="O433" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P433" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>33</v>
+      </c>
+      <c r="B434" t="s">
+        <v>29</v>
+      </c>
+      <c r="C434">
+        <v>46</v>
+      </c>
+      <c r="D434" s="1">
+        <v>3878.64111</v>
+      </c>
+      <c r="E434" s="1">
+        <v>84.044229999999999</v>
+      </c>
+      <c r="F434" s="1">
+        <v>12.604760000000001</v>
+      </c>
+      <c r="G434" s="1">
+        <v>0</v>
+      </c>
+      <c r="H434" s="1">
+        <v>0</v>
+      </c>
+      <c r="I434" s="1">
+        <v>0</v>
+      </c>
+      <c r="J434" s="1">
+        <v>0</v>
+      </c>
+      <c r="K434" s="1">
+        <v>0</v>
+      </c>
+      <c r="L434" s="1">
+        <v>0</v>
+      </c>
+      <c r="M434" s="1">
+        <v>0</v>
+      </c>
+      <c r="N434" s="1">
+        <v>0</v>
+      </c>
+      <c r="O434" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P434" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>38</v>
+      </c>
+      <c r="B435" t="s">
+        <v>29</v>
+      </c>
+      <c r="C435">
+        <v>46</v>
+      </c>
+      <c r="D435" s="1">
+        <v>3799.3061499999999</v>
+      </c>
+      <c r="E435" s="1">
+        <v>82.325159999999997</v>
+      </c>
+      <c r="F435" s="1">
+        <v>13.39737</v>
+      </c>
+      <c r="G435" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H435" s="1">
+        <v>0</v>
+      </c>
+      <c r="I435" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="J435" s="1">
+        <v>0</v>
+      </c>
+      <c r="K435" s="1">
+        <v>0</v>
+      </c>
+      <c r="L435" s="1">
+        <v>0</v>
+      </c>
+      <c r="M435" s="1">
+        <v>0</v>
+      </c>
+      <c r="N435" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="O435" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P435" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>43</v>
+      </c>
+      <c r="B436" t="s">
+        <v>29</v>
+      </c>
+      <c r="C436">
+        <v>46</v>
+      </c>
+      <c r="D436" s="1">
+        <v>4215.9081999999999</v>
+      </c>
+      <c r="E436" s="1">
+        <v>91.352289999999996</v>
+      </c>
+      <c r="F436" s="1">
+        <v>20.804600000000001</v>
+      </c>
+      <c r="G436" s="1">
+        <v>107.01</v>
+      </c>
+      <c r="H436" s="1">
+        <v>0</v>
+      </c>
+      <c r="I436" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="J436" s="1">
+        <v>0</v>
+      </c>
+      <c r="K436" s="1">
+        <v>1891.73999</v>
+      </c>
+      <c r="L436" s="1">
+        <v>27.1</v>
+      </c>
+      <c r="M436" s="1">
+        <v>0</v>
+      </c>
+      <c r="N436" s="1">
+        <v>1677.9799800000001</v>
+      </c>
+      <c r="O436" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P436" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>27</v>
+      </c>
+      <c r="B437" t="s">
+        <v>19</v>
+      </c>
+      <c r="C437">
+        <v>52</v>
+      </c>
+      <c r="D437" s="1">
+        <v>4976.1027800000002</v>
+      </c>
+      <c r="E437" s="1">
+        <v>96.355800000000002</v>
+      </c>
+      <c r="F437" s="1">
+        <v>29.48977</v>
+      </c>
+      <c r="G437" s="1">
+        <v>119.68</v>
+      </c>
+      <c r="H437" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="I437" s="1">
+        <v>23.91</v>
+      </c>
+      <c r="J437" s="1">
+        <v>0</v>
+      </c>
+      <c r="K437" s="1">
+        <v>394.29001</v>
+      </c>
+      <c r="L437" s="1">
+        <v>71.209999999999994</v>
+      </c>
+      <c r="M437" s="1">
+        <v>42.39</v>
+      </c>
+      <c r="N437" s="1">
+        <v>791.48000999999999</v>
+      </c>
+      <c r="O437" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P437" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>28</v>
+      </c>
+      <c r="B438" t="s">
+        <v>29</v>
+      </c>
+      <c r="C438">
+        <v>52</v>
+      </c>
+      <c r="D438" s="1">
+        <v>5504.2260699999997</v>
+      </c>
+      <c r="E438" s="1">
+        <v>106.58223</v>
+      </c>
+      <c r="F438" s="1">
+        <v>27.76886</v>
+      </c>
+      <c r="G438" s="1">
+        <v>157.41</v>
+      </c>
+      <c r="H438" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="I438" s="1">
+        <v>57.21</v>
+      </c>
+      <c r="J438" s="1">
+        <v>5</v>
+      </c>
+      <c r="K438" s="1">
+        <v>436.8</v>
+      </c>
+      <c r="L438" s="1">
+        <v>144.53</v>
+      </c>
+      <c r="M438" s="1">
+        <v>29.57</v>
+      </c>
+      <c r="N438" s="1">
+        <v>1141.3900100000001</v>
+      </c>
+      <c r="O438" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P438" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>25</v>
+      </c>
+      <c r="B439" t="s">
+        <v>26</v>
+      </c>
+      <c r="C439">
+        <v>42</v>
+      </c>
+      <c r="D439" s="1">
+        <v>4530.9802200000004</v>
+      </c>
+      <c r="E439" s="1">
+        <v>108.91038</v>
+      </c>
+      <c r="F439" s="1">
+        <v>31.704560000000001</v>
+      </c>
+      <c r="G439" s="1">
+        <v>168.98</v>
+      </c>
+      <c r="H439" s="1">
+        <v>0</v>
+      </c>
+      <c r="I439" s="1">
+        <v>60.73</v>
+      </c>
+      <c r="J439" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="K439" s="1">
+        <v>471.13</v>
+      </c>
+      <c r="L439" s="1">
+        <v>304.24</v>
+      </c>
+      <c r="M439" s="1">
+        <v>184.66</v>
+      </c>
+      <c r="N439" s="1">
+        <v>1064.76001</v>
+      </c>
+      <c r="O439" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P439" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>31</v>
+      </c>
+      <c r="B440" t="s">
+        <v>19</v>
+      </c>
+      <c r="C440">
+        <v>52</v>
+      </c>
+      <c r="D440" s="1">
+        <v>4829.9548299999997</v>
+      </c>
+      <c r="E440" s="1">
+        <v>93.525840000000002</v>
+      </c>
+      <c r="F440" s="1">
+        <v>31.641940000000002</v>
+      </c>
+      <c r="G440" s="1">
+        <v>195.53</v>
+      </c>
+      <c r="H440" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I440" s="1">
+        <v>60.92</v>
+      </c>
+      <c r="J440" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="K440" s="1">
+        <v>352.39</v>
+      </c>
+      <c r="L440" s="1">
+        <v>183.41</v>
+      </c>
+      <c r="M440" s="1">
+        <v>167.6</v>
+      </c>
+      <c r="N440" s="1">
+        <v>876.40997000000004</v>
+      </c>
+      <c r="O440" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P440" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>22</v>
+      </c>
+      <c r="B441" t="s">
+        <v>17</v>
+      </c>
+      <c r="C441">
+        <v>52</v>
+      </c>
+      <c r="D441" s="1">
+        <v>5519.8964800000003</v>
+      </c>
+      <c r="E441" s="1">
+        <v>106.88567</v>
+      </c>
+      <c r="F441" s="1">
+        <v>28.648820000000001</v>
+      </c>
+      <c r="G441" s="1">
+        <v>238.82</v>
+      </c>
+      <c r="H441" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="I441" s="1">
+        <v>79.67</v>
+      </c>
+      <c r="J441" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K441" s="1">
+        <v>694.36001999999996</v>
+      </c>
+      <c r="L441" s="1">
+        <v>349.75</v>
+      </c>
+      <c r="M441" s="1">
+        <v>65.19</v>
+      </c>
+      <c r="N441" s="1">
+        <v>1304.3800000000001</v>
+      </c>
+      <c r="O441" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P441" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>30</v>
+      </c>
+      <c r="B442" t="s">
+        <v>15</v>
+      </c>
+      <c r="C442">
+        <v>52</v>
+      </c>
+      <c r="D442" s="1">
+        <v>5856.4533700000002</v>
+      </c>
+      <c r="E442" s="1">
+        <v>113.40266</v>
+      </c>
+      <c r="F442" s="1">
+        <v>27.317540000000001</v>
+      </c>
+      <c r="G442" s="1">
+        <v>239.85</v>
+      </c>
+      <c r="H442" s="1">
+        <v>0</v>
+      </c>
+      <c r="I442" s="1">
+        <v>78.540000000000006</v>
+      </c>
+      <c r="J442" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K442" s="1">
+        <v>729</v>
+      </c>
+      <c r="L442" s="1">
+        <v>243.99001000000001</v>
+      </c>
+      <c r="M442" s="1">
+        <v>16.14</v>
+      </c>
+      <c r="N442" s="1">
+        <v>1524.6599699999999</v>
+      </c>
+      <c r="O442" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P442" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>32</v>
+      </c>
+      <c r="B443" t="s">
+        <v>19</v>
+      </c>
+      <c r="C443">
+        <v>52</v>
+      </c>
+      <c r="D443" s="1">
+        <v>5813.3728000000001</v>
+      </c>
+      <c r="E443" s="1">
+        <v>112.56846</v>
+      </c>
+      <c r="F443" s="1">
+        <v>30.263559999999998</v>
+      </c>
+      <c r="G443" s="1">
+        <v>254.44</v>
+      </c>
+      <c r="H443" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="I443" s="1">
+        <v>85.25</v>
+      </c>
+      <c r="J443" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="K443" s="1">
+        <v>514.16999999999996</v>
+      </c>
+      <c r="L443" s="1">
+        <v>383.49000999999998</v>
+      </c>
+      <c r="M443" s="1">
+        <v>198</v>
+      </c>
+      <c r="N443" s="1">
+        <v>1271.45001</v>
+      </c>
+      <c r="O443" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P443" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>37</v>
+      </c>
+      <c r="B444" t="s">
+        <v>17</v>
+      </c>
+      <c r="C444">
+        <v>52</v>
+      </c>
+      <c r="D444" s="1">
+        <v>5372.0463900000004</v>
+      </c>
+      <c r="E444" s="1">
+        <v>104.02274</v>
+      </c>
+      <c r="F444" s="1">
+        <v>28.333459999999999</v>
+      </c>
+      <c r="G444" s="1">
+        <v>263.5</v>
+      </c>
+      <c r="H444" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="I444" s="1">
+        <v>88.45</v>
+      </c>
+      <c r="J444" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="K444" s="1">
+        <v>499.62</v>
+      </c>
+      <c r="L444" s="1">
+        <v>279.42000999999999</v>
+      </c>
+      <c r="M444" s="1">
+        <v>43.79</v>
+      </c>
+      <c r="N444" s="1">
+        <v>1066.8900100000001</v>
+      </c>
+      <c r="O444" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P444" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>20</v>
+      </c>
+      <c r="B445" t="s">
+        <v>21</v>
+      </c>
+      <c r="C445">
+        <v>52</v>
+      </c>
+      <c r="D445" s="1">
+        <v>6461.1999500000002</v>
+      </c>
+      <c r="E445" s="1">
+        <v>125.11279</v>
+      </c>
+      <c r="F445" s="1">
+        <v>28.10519</v>
+      </c>
+      <c r="G445" s="1">
+        <v>288.72000000000003</v>
+      </c>
+      <c r="H445" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="I445" s="1">
+        <v>105.35</v>
+      </c>
+      <c r="J445" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="K445" s="1">
+        <v>791.02002000000005</v>
+      </c>
+      <c r="L445" s="1">
+        <v>274.56</v>
+      </c>
+      <c r="M445" s="1">
+        <v>79.92</v>
+      </c>
+      <c r="N445" s="1">
+        <v>1677.6400100000001</v>
+      </c>
+      <c r="O445" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P445" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>47</v>
+      </c>
+      <c r="B446" t="s">
+        <v>17</v>
+      </c>
+      <c r="C446">
+        <v>52</v>
+      </c>
+      <c r="D446" s="1">
+        <v>6004.15942</v>
+      </c>
+      <c r="E446" s="1">
+        <v>116.26279</v>
+      </c>
+      <c r="F446" s="1">
+        <v>29.397459999999999</v>
+      </c>
+      <c r="G446" s="1">
+        <v>312.66000000000003</v>
+      </c>
+      <c r="H446" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="I446" s="1">
+        <v>102.48</v>
+      </c>
+      <c r="J446" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="K446" s="1">
+        <v>613.08000000000004</v>
+      </c>
+      <c r="L446" s="1">
+        <v>402.49000999999998</v>
+      </c>
+      <c r="M446" s="1">
+        <v>108.91</v>
+      </c>
+      <c r="N446" s="1">
+        <v>1411.86005</v>
+      </c>
+      <c r="O446" s="2">
+        <v>46046</v>
+      </c>
+      <c r="P446" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>36</v>
+      </c>
+      <c r="B447" t="s">
+        <v>26</v>
+      </c>
+      <c r="C447">
+        <v>21</v>
+      </c>
+      <c r="D447" s="1">
+        <v>2637.9643599999999</v>
+      </c>
+      <c r="E447" s="1">
+        <v>122.70553</v>
+      </c>
+      <c r="F447" s="1">
+        <v>23.522600000000001</v>
+      </c>
+      <c r="G447" s="1">
+        <v>165.91</v>
+      </c>
+      <c r="H447" s="1">
+        <v>0</v>
+      </c>
+      <c r="I447" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="J447" s="1">
+        <v>0</v>
+      </c>
+      <c r="K447" s="1">
+        <v>961.73999000000003</v>
+      </c>
+      <c r="L447" s="1">
+        <v>923.75</v>
+      </c>
+      <c r="M447" s="1">
+        <v>0</v>
+      </c>
+      <c r="N447" s="1">
+        <v>1688.8900100000001</v>
+      </c>
+      <c r="O447" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P447" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>42</v>
+      </c>
+      <c r="B448" t="s">
+        <v>15</v>
+      </c>
+      <c r="C448">
+        <v>78</v>
+      </c>
+      <c r="D448" s="1">
+        <v>6108.9752799999997</v>
+      </c>
+      <c r="E448" s="1">
+        <v>78.232100000000003</v>
+      </c>
+      <c r="F448" s="1">
+        <v>26.975079999999998</v>
+      </c>
+      <c r="G448" s="1">
+        <v>180.43</v>
+      </c>
+      <c r="H448" s="1">
+        <v>0</v>
+      </c>
+      <c r="I448" s="1">
+        <v>39.72</v>
+      </c>
+      <c r="J448" s="1">
+        <v>0</v>
+      </c>
+      <c r="K448" s="1">
+        <v>334.32</v>
+      </c>
+      <c r="L448" s="1">
+        <v>166.25</v>
+      </c>
+      <c r="M448" s="1">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="N448" s="1">
+        <v>756.62000999999998</v>
+      </c>
+      <c r="O448" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P448" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>32</v>
+      </c>
+      <c r="B449" t="s">
+        <v>19</v>
+      </c>
+      <c r="C449">
+        <v>78</v>
+      </c>
+      <c r="D449" s="1">
+        <v>5510.0125099999996</v>
+      </c>
+      <c r="E449" s="1">
+        <v>70.565489999999997</v>
+      </c>
+      <c r="F449" s="1">
+        <v>26.670909999999999</v>
+      </c>
+      <c r="G449" s="1">
+        <v>214.61</v>
+      </c>
+      <c r="H449" s="1">
+        <v>0</v>
+      </c>
+      <c r="I449" s="1">
+        <v>66.94</v>
+      </c>
+      <c r="J449" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="K449" s="1">
+        <v>316.45</v>
+      </c>
+      <c r="L449" s="1">
+        <v>139.97</v>
+      </c>
+      <c r="M449" s="1">
+        <v>10.37</v>
+      </c>
+      <c r="N449" s="1">
+        <v>816.91</v>
+      </c>
+      <c r="O449" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P449" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>30</v>
+      </c>
+      <c r="B450" t="s">
+        <v>15</v>
+      </c>
+      <c r="C450">
+        <v>78</v>
+      </c>
+      <c r="D450" s="1">
+        <v>6384.7865300000003</v>
+      </c>
+      <c r="E450" s="1">
+        <v>81.764169999999993</v>
+      </c>
+      <c r="F450" s="1">
+        <v>26.533840000000001</v>
+      </c>
+      <c r="G450" s="1">
+        <v>216.49</v>
+      </c>
+      <c r="H450" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="I450" s="1">
+        <v>66.62</v>
+      </c>
+      <c r="J450" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="K450" s="1">
+        <v>839.03998999999999</v>
+      </c>
+      <c r="L450" s="1">
+        <v>210.36</v>
+      </c>
+      <c r="M450" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N450" s="1">
+        <v>1343.39</v>
+      </c>
+      <c r="O450" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P450" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>45</v>
+      </c>
+      <c r="B451" t="s">
+        <v>15</v>
+      </c>
+      <c r="C451">
+        <v>78</v>
+      </c>
+      <c r="D451" s="1">
+        <v>6276.8084600000002</v>
+      </c>
+      <c r="E451" s="1">
+        <v>80.385679999999994</v>
+      </c>
+      <c r="F451" s="1">
+        <v>26.461349999999999</v>
+      </c>
+      <c r="G451" s="1">
+        <v>253.67</v>
+      </c>
+      <c r="H451" s="1">
+        <v>0</v>
+      </c>
+      <c r="I451" s="1">
+        <v>81.87</v>
+      </c>
+      <c r="J451" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="K451" s="1">
+        <v>547.16999999999996</v>
+      </c>
+      <c r="L451" s="1">
+        <v>72.42</v>
+      </c>
+      <c r="M451" s="1">
+        <v>9.69</v>
+      </c>
+      <c r="N451" s="1">
+        <v>1040.07999</v>
+      </c>
+      <c r="O451" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P451" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>23</v>
+      </c>
+      <c r="B452" t="s">
+        <v>17</v>
+      </c>
+      <c r="C452">
+        <v>78</v>
+      </c>
+      <c r="D452" s="1">
+        <v>6639.4672200000005</v>
+      </c>
+      <c r="E452" s="1">
+        <v>85.030169999999998</v>
+      </c>
+      <c r="F452" s="1">
+        <v>27.01417</v>
+      </c>
+      <c r="G452" s="1">
+        <v>273.58999999999997</v>
+      </c>
+      <c r="H452" s="1">
+        <v>0</v>
+      </c>
+      <c r="I452" s="1">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="J452" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="K452" s="1">
+        <v>619.10999000000004</v>
+      </c>
+      <c r="L452" s="1">
+        <v>257.33999999999997</v>
+      </c>
+      <c r="M452" s="1">
+        <v>25.88</v>
+      </c>
+      <c r="N452" s="1">
+        <v>1296.5999899999999</v>
+      </c>
+      <c r="O452" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P452" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>22</v>
+      </c>
+      <c r="B453" t="s">
+        <v>17</v>
+      </c>
+      <c r="C453">
+        <v>78</v>
+      </c>
+      <c r="D453" s="1">
+        <v>5946.5837099999999</v>
+      </c>
+      <c r="E453" s="1">
+        <v>76.152500000000003</v>
+      </c>
+      <c r="F453" s="1">
+        <v>28.049669999999999</v>
+      </c>
+      <c r="G453" s="1">
+        <v>275</v>
+      </c>
+      <c r="H453" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="I453" s="1">
+        <v>55.02</v>
+      </c>
+      <c r="J453" s="1">
+        <v>0</v>
+      </c>
+      <c r="K453" s="1">
+        <v>331.55</v>
+      </c>
+      <c r="L453" s="1">
+        <v>117.57</v>
+      </c>
+      <c r="M453" s="1">
+        <v>18.53</v>
+      </c>
+      <c r="N453" s="1">
+        <v>785.05</v>
+      </c>
+      <c r="O453" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P453" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>43</v>
+      </c>
+      <c r="B454" t="s">
+        <v>29</v>
+      </c>
+      <c r="C454">
+        <v>78</v>
+      </c>
+      <c r="D454" s="1">
+        <v>6719.2336100000002</v>
+      </c>
+      <c r="E454" s="1">
+        <v>86.051720000000003</v>
+      </c>
+      <c r="F454" s="1">
+        <v>25.979520000000001</v>
+      </c>
+      <c r="G454" s="1">
+        <v>302.64999999999998</v>
+      </c>
+      <c r="H454" s="1">
+        <v>0</v>
+      </c>
+      <c r="I454" s="1">
+        <v>74.87</v>
+      </c>
+      <c r="J454" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="K454" s="1">
+        <v>413.58</v>
+      </c>
+      <c r="L454" s="1">
+        <v>66.27</v>
+      </c>
+      <c r="M454" s="1">
+        <v>10.34</v>
+      </c>
+      <c r="N454" s="1">
+        <v>1293.07999</v>
+      </c>
+      <c r="O454" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P454" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>28</v>
+      </c>
+      <c r="B455" t="s">
+        <v>29</v>
+      </c>
+      <c r="C455">
+        <v>74</v>
+      </c>
+      <c r="D455" s="1">
+        <v>5547.8798399999996</v>
+      </c>
+      <c r="E455" s="1">
+        <v>75.385289999999998</v>
+      </c>
+      <c r="F455" s="1">
+        <v>25.976369999999999</v>
+      </c>
+      <c r="G455" s="1">
+        <v>303.02</v>
+      </c>
+      <c r="H455" s="1">
+        <v>8.41</v>
+      </c>
+      <c r="I455" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="J455" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="K455" s="1">
+        <v>556.39</v>
+      </c>
+      <c r="L455" s="1">
+        <v>69.88</v>
+      </c>
+      <c r="M455" s="1">
+        <v>17.41</v>
+      </c>
+      <c r="N455" s="1">
+        <v>1182.3300099999999</v>
+      </c>
+      <c r="O455" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P455" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>27</v>
+      </c>
+      <c r="B456" t="s">
+        <v>19</v>
+      </c>
+      <c r="C456">
+        <v>78</v>
+      </c>
+      <c r="D456" s="1">
+        <v>6228.39102</v>
+      </c>
+      <c r="E456" s="1">
+        <v>79.765609999999995</v>
+      </c>
+      <c r="F456" s="1">
+        <v>27.443919999999999</v>
+      </c>
+      <c r="G456" s="1">
+        <v>314.85000000000002</v>
+      </c>
+      <c r="H456" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="I456" s="1">
+        <v>92.21</v>
+      </c>
+      <c r="J456" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="K456" s="1">
+        <v>527.64</v>
+      </c>
+      <c r="L456" s="1">
+        <v>211.98</v>
+      </c>
+      <c r="M456" s="1">
+        <v>31.96</v>
+      </c>
+      <c r="N456" s="1">
+        <v>1177.09998</v>
+      </c>
+      <c r="O456" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P456" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>25</v>
+      </c>
+      <c r="B457" t="s">
+        <v>26</v>
+      </c>
+      <c r="C457">
+        <v>78</v>
+      </c>
+      <c r="D457" s="1">
+        <v>6007.6349200000004</v>
+      </c>
+      <c r="E457" s="1">
+        <v>76.934330000000003</v>
+      </c>
+      <c r="F457" s="1">
+        <v>27.570699999999999</v>
+      </c>
+      <c r="G457" s="1">
+        <v>321.89</v>
+      </c>
+      <c r="H457" s="1">
+        <v>12.82</v>
+      </c>
+      <c r="I457" s="1">
+        <v>77.959999999999994</v>
+      </c>
+      <c r="J457" s="1">
+        <v>8.73</v>
+      </c>
+      <c r="K457" s="1">
+        <v>463.89001000000002</v>
+      </c>
+      <c r="L457" s="1">
+        <v>181.64</v>
+      </c>
+      <c r="M457" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="N457" s="1">
+        <v>1010.37003</v>
+      </c>
+      <c r="O457" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P457" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>47</v>
+      </c>
+      <c r="B458" t="s">
+        <v>17</v>
+      </c>
+      <c r="C458">
+        <v>78</v>
+      </c>
+      <c r="D458" s="1">
+        <v>6382.3920399999997</v>
+      </c>
+      <c r="E458" s="1">
+        <v>81.733500000000006</v>
+      </c>
+      <c r="F458" s="1">
+        <v>29.869289999999999</v>
+      </c>
+      <c r="G458" s="1">
+        <v>329.67000999999999</v>
+      </c>
+      <c r="H458" s="1">
+        <v>13.14</v>
+      </c>
+      <c r="I458" s="1">
+        <v>107.73</v>
+      </c>
+      <c r="J458" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="K458" s="1">
+        <v>535.59999000000005</v>
+      </c>
+      <c r="L458" s="1">
+        <v>391.62</v>
+      </c>
+      <c r="M458" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="N458" s="1">
+        <v>1235.8400200000001</v>
+      </c>
+      <c r="O458" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P458" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>33</v>
+      </c>
+      <c r="B459" t="s">
+        <v>29</v>
+      </c>
+      <c r="C459">
+        <v>78</v>
+      </c>
+      <c r="D459" s="1">
+        <v>6410.0278200000002</v>
+      </c>
+      <c r="E459" s="1">
+        <v>82.087410000000006</v>
+      </c>
+      <c r="F459" s="1">
+        <v>26.16451</v>
+      </c>
+      <c r="G459" s="1">
+        <v>329.69</v>
+      </c>
+      <c r="H459" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="I459" s="1">
+        <v>97.51</v>
+      </c>
+      <c r="J459" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K459" s="1">
+        <v>489.15</v>
+      </c>
+      <c r="L459" s="1">
+        <v>124.99</v>
+      </c>
+      <c r="M459" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="N459" s="1">
+        <v>1238.8599899999999</v>
+      </c>
+      <c r="O459" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P459" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>31</v>
+      </c>
+      <c r="B460" t="s">
+        <v>19</v>
+      </c>
+      <c r="C460">
+        <v>78</v>
+      </c>
+      <c r="D460" s="1">
+        <v>5834.1629599999997</v>
+      </c>
+      <c r="E460" s="1">
+        <v>74.716819999999998</v>
+      </c>
+      <c r="F460" s="1">
+        <v>30.80819</v>
+      </c>
+      <c r="G460" s="1">
+        <v>330.63</v>
+      </c>
+      <c r="H460" s="1">
+        <v>11.53</v>
+      </c>
+      <c r="I460" s="1">
+        <v>110.03</v>
+      </c>
+      <c r="J460" s="1">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="K460" s="1">
+        <v>493.67000999999999</v>
+      </c>
+      <c r="L460" s="1">
+        <v>173.52</v>
+      </c>
+      <c r="M460" s="1">
+        <v>56</v>
+      </c>
+      <c r="N460" s="1">
+        <v>1103.8900000000001</v>
+      </c>
+      <c r="O460" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P460" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>46</v>
+      </c>
+      <c r="B461" t="s">
+        <v>19</v>
+      </c>
+      <c r="C461">
+        <v>78</v>
+      </c>
+      <c r="D461" s="1">
+        <v>6065.1369599999998</v>
+      </c>
+      <c r="E461" s="1">
+        <v>77.670699999999997</v>
+      </c>
+      <c r="F461" s="1">
+        <v>28.232309999999998</v>
+      </c>
+      <c r="G461" s="1">
+        <v>336.85</v>
+      </c>
+      <c r="H461" s="1">
+        <v>14.07</v>
+      </c>
+      <c r="I461" s="1">
+        <v>116.09</v>
+      </c>
+      <c r="J461" s="1">
+        <v>14.05</v>
+      </c>
+      <c r="K461" s="1">
+        <v>395.82001000000002</v>
+      </c>
+      <c r="L461" s="1">
+        <v>133.91</v>
+      </c>
+      <c r="M461" s="1">
+        <v>20.63</v>
+      </c>
+      <c r="N461" s="1">
+        <v>1116.5999899999999</v>
+      </c>
+      <c r="O461" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P461" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" t="s">
+        <v>19</v>
+      </c>
+      <c r="C462">
+        <v>78</v>
+      </c>
+      <c r="D462" s="1">
+        <v>6207.7268700000004</v>
+      </c>
+      <c r="E462" s="1">
+        <v>79.496719999999996</v>
+      </c>
+      <c r="F462" s="1">
+        <v>25.999870000000001</v>
+      </c>
+      <c r="G462" s="1">
+        <v>344.69</v>
+      </c>
+      <c r="H462" s="1">
+        <v>0</v>
+      </c>
+      <c r="I462" s="1">
+        <v>95.86</v>
+      </c>
+      <c r="J462" s="1">
+        <v>14</v>
+      </c>
+      <c r="K462" s="1">
+        <v>545.52</v>
+      </c>
+      <c r="L462" s="1">
+        <v>185.42</v>
+      </c>
+      <c r="M462" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="N462" s="1">
+        <v>1261.8300200000001</v>
+      </c>
+      <c r="O462" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P462" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>38</v>
+      </c>
+      <c r="B463" t="s">
+        <v>29</v>
+      </c>
+      <c r="C463">
+        <v>78</v>
+      </c>
+      <c r="D463" s="1">
+        <v>5972.5250900000001</v>
+      </c>
+      <c r="E463" s="1">
+        <v>76.488789999999995</v>
+      </c>
+      <c r="F463" s="1">
+        <v>27.128509999999999</v>
+      </c>
+      <c r="G463" s="1">
+        <v>356.23</v>
+      </c>
+      <c r="H463" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="I463" s="1">
+        <v>79.83</v>
+      </c>
+      <c r="J463" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="K463" s="1">
+        <v>617.67999999999995</v>
+      </c>
+      <c r="L463" s="1">
+        <v>139.87</v>
+      </c>
+      <c r="M463" s="1">
+        <v>25.68</v>
+      </c>
+      <c r="N463" s="1">
+        <v>1178.1100100000001</v>
+      </c>
+      <c r="O463" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P463" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>16</v>
+      </c>
+      <c r="B464" t="s">
+        <v>17</v>
+      </c>
+      <c r="C464">
+        <v>78</v>
+      </c>
+      <c r="D464" s="1">
+        <v>6334.3167100000001</v>
+      </c>
+      <c r="E464" s="1">
+        <v>81.122169999999997</v>
+      </c>
+      <c r="F464" s="1">
+        <v>28.11308</v>
+      </c>
+      <c r="G464" s="1">
+        <v>364.5</v>
+      </c>
+      <c r="H464" s="1">
+        <v>20.48</v>
+      </c>
+      <c r="I464" s="1">
+        <v>101.92</v>
+      </c>
+      <c r="J464" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="K464" s="1">
+        <v>593.63000999999997</v>
+      </c>
+      <c r="L464" s="1">
+        <v>211.74</v>
+      </c>
+      <c r="M464" s="1">
+        <v>44.45</v>
+      </c>
+      <c r="N464" s="1">
+        <v>1128.4000100000001</v>
+      </c>
+      <c r="O464" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P464" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>48</v>
+      </c>
+      <c r="B465" t="s">
+        <v>26</v>
+      </c>
+      <c r="C465">
+        <v>78</v>
+      </c>
+      <c r="D465" s="1">
+        <v>6266.6448399999999</v>
+      </c>
+      <c r="E465" s="1">
+        <v>80.251230000000007</v>
+      </c>
+      <c r="F465" s="1">
+        <v>26.82441</v>
+      </c>
+      <c r="G465" s="1">
+        <v>374.6</v>
+      </c>
+      <c r="H465" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="I465" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="J465" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="K465" s="1">
+        <v>532.48</v>
+      </c>
+      <c r="L465" s="1">
+        <v>192.12</v>
+      </c>
+      <c r="M465" s="1">
+        <v>27.97</v>
+      </c>
+      <c r="N465" s="1">
+        <v>1129.6299899999999</v>
+      </c>
+      <c r="O465" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P465" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>44</v>
+      </c>
+      <c r="B466" t="s">
+        <v>26</v>
+      </c>
+      <c r="C466">
+        <v>78</v>
+      </c>
+      <c r="D466" s="1">
+        <v>5881.2370000000001</v>
+      </c>
+      <c r="E466" s="1">
+        <v>75.319680000000005</v>
+      </c>
+      <c r="F466" s="1">
+        <v>25.489439999999998</v>
+      </c>
+      <c r="G466" s="1">
+        <v>374.75</v>
+      </c>
+      <c r="H466" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="I466" s="1">
+        <v>90.35</v>
+      </c>
+      <c r="J466" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="K466" s="1">
+        <v>430.7</v>
+      </c>
+      <c r="L466" s="1">
+        <v>192.69</v>
+      </c>
+      <c r="M466" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N466" s="1">
+        <v>1068.99999</v>
+      </c>
+      <c r="O466" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P466" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>37</v>
+      </c>
+      <c r="B467" t="s">
+        <v>17</v>
+      </c>
+      <c r="C467">
+        <v>78</v>
+      </c>
+      <c r="D467" s="1">
+        <v>6115.70993</v>
+      </c>
+      <c r="E467" s="1">
+        <v>78.322519999999997</v>
+      </c>
+      <c r="F467" s="1">
+        <v>28.07732</v>
+      </c>
+      <c r="G467" s="1">
+        <v>380.13</v>
+      </c>
+      <c r="H467" s="1">
+        <v>8.41</v>
+      </c>
+      <c r="I467" s="1">
+        <v>78.09</v>
+      </c>
+      <c r="J467" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="K467" s="1">
+        <v>412.3</v>
+      </c>
+      <c r="L467" s="1">
+        <v>168.21</v>
+      </c>
+      <c r="M467" s="1">
+        <v>44.94</v>
+      </c>
+      <c r="N467" s="1">
+        <v>976.79</v>
+      </c>
+      <c r="O467" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P467" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>20</v>
+      </c>
+      <c r="B468" t="s">
+        <v>21</v>
+      </c>
+      <c r="C468">
+        <v>78</v>
+      </c>
+      <c r="D468" s="1">
+        <v>6932.2385299999996</v>
+      </c>
+      <c r="E468" s="1">
+        <v>88.774889999999999</v>
+      </c>
+      <c r="F468" s="1">
+        <v>29.253309999999999</v>
+      </c>
+      <c r="G468" s="1">
+        <v>380.93999000000002</v>
+      </c>
+      <c r="H468" s="1">
+        <v>5.43</v>
+      </c>
+      <c r="I468" s="1">
+        <v>130.33000000000001</v>
+      </c>
+      <c r="J468" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="K468" s="1">
+        <v>537.33000000000004</v>
+      </c>
+      <c r="L468" s="1">
+        <v>197.45</v>
+      </c>
+      <c r="M468" s="1">
+        <v>41.08</v>
+      </c>
+      <c r="N468" s="1">
+        <v>1267.6500000000001</v>
+      </c>
+      <c r="O468" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P468" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>35</v>
+      </c>
+      <c r="B469" t="s">
+        <v>26</v>
+      </c>
+      <c r="C469">
+        <v>78</v>
+      </c>
+      <c r="D469" s="1">
+        <v>6596.1238400000002</v>
+      </c>
+      <c r="E469" s="1">
+        <v>84.475080000000005</v>
+      </c>
+      <c r="F469" s="1">
+        <v>28.639980000000001</v>
+      </c>
+      <c r="G469" s="1">
+        <v>501.19</v>
+      </c>
+      <c r="H469" s="1">
+        <v>13.09</v>
+      </c>
+      <c r="I469" s="1">
+        <v>119.86</v>
+      </c>
+      <c r="J469" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="K469" s="1">
+        <v>575.15</v>
+      </c>
+      <c r="L469" s="1">
+        <v>321.43</v>
+      </c>
+      <c r="M469" s="1">
+        <v>77.66</v>
+      </c>
+      <c r="N469" s="1">
+        <v>1292.93002</v>
+      </c>
+      <c r="O469" s="2">
+        <v>46048</v>
+      </c>
+      <c r="P469" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -16881,21 +24484,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB46A08-976D-2345-8EB6-F6EE61697789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F47164-E915-2248-85CA-040F8DFCAD63}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/carga.xlsx
+++ b/carga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucianogaliano/Desktop/gps_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77BA4BA-1F9D-A84C-8FFE-A58FB6730F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC0362-769F-8045-88B8-6DFF2668FFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="20740" windowHeight="11040" activeTab="1" xr2:uid="{D0952F60-EA13-452A-8089-133E1849F9A5}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -1016,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBA7B75-84C1-4AE6-98BA-083E5BBCB190}">
-  <dimension ref="A1:P469"/>
+  <dimension ref="A1:P490"/>
   <sheetViews>
-    <sheetView topLeftCell="C405" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P471" sqref="P471"/>
+    <sheetView topLeftCell="A472" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P470" sqref="P470:P490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24477,6 +24477,1056 @@
         <v>5</v>
       </c>
     </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>22</v>
+      </c>
+      <c r="B470" t="s">
+        <v>17</v>
+      </c>
+      <c r="C470">
+        <v>68</v>
+      </c>
+      <c r="D470" s="1">
+        <v>3147.3613300000002</v>
+      </c>
+      <c r="E470" s="1">
+        <v>46.370420000000003</v>
+      </c>
+      <c r="F470" s="1">
+        <v>21.879809999999999</v>
+      </c>
+      <c r="G470" s="1">
+        <v>83.68</v>
+      </c>
+      <c r="H470" s="1">
+        <v>0</v>
+      </c>
+      <c r="I470" s="1">
+        <v>13.86</v>
+      </c>
+      <c r="J470" s="1">
+        <v>0</v>
+      </c>
+      <c r="K470" s="1">
+        <v>127.51</v>
+      </c>
+      <c r="L470" s="1">
+        <v>44.72</v>
+      </c>
+      <c r="M470" s="1">
+        <v>0</v>
+      </c>
+      <c r="N470" s="1">
+        <v>328.11998999999997</v>
+      </c>
+      <c r="O470" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P470" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>27</v>
+      </c>
+      <c r="B471" t="s">
+        <v>19</v>
+      </c>
+      <c r="C471">
+        <v>54</v>
+      </c>
+      <c r="D471" s="1">
+        <v>3804.2575099999999</v>
+      </c>
+      <c r="E471" s="1">
+        <v>70.22251</v>
+      </c>
+      <c r="F471" s="1">
+        <v>27.03379</v>
+      </c>
+      <c r="G471" s="1">
+        <v>130.69</v>
+      </c>
+      <c r="H471" s="1">
+        <v>6.92</v>
+      </c>
+      <c r="I471" s="1">
+        <v>26.96</v>
+      </c>
+      <c r="J471" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="K471" s="1">
+        <v>294.94999000000001</v>
+      </c>
+      <c r="L471" s="1">
+        <v>187.35999000000001</v>
+      </c>
+      <c r="M471" s="1">
+        <v>26.79</v>
+      </c>
+      <c r="N471" s="1">
+        <v>618.82997999999998</v>
+      </c>
+      <c r="O471" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P471" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>42</v>
+      </c>
+      <c r="B472" t="s">
+        <v>15</v>
+      </c>
+      <c r="C472">
+        <v>63</v>
+      </c>
+      <c r="D472" s="1">
+        <v>4821.6980000000003</v>
+      </c>
+      <c r="E472" s="1">
+        <v>76.142889999999994</v>
+      </c>
+      <c r="F472" s="1">
+        <v>25.88083</v>
+      </c>
+      <c r="G472" s="1">
+        <v>134.13999999999999</v>
+      </c>
+      <c r="H472" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="I472" s="1">
+        <v>22.42</v>
+      </c>
+      <c r="J472" s="1">
+        <v>0</v>
+      </c>
+      <c r="K472" s="1">
+        <v>947.41002000000003</v>
+      </c>
+      <c r="L472" s="1">
+        <v>189.14</v>
+      </c>
+      <c r="M472" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="N472" s="1">
+        <v>1033.8800100000001</v>
+      </c>
+      <c r="O472" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P472" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>18</v>
+      </c>
+      <c r="B473" t="s">
+        <v>19</v>
+      </c>
+      <c r="C473">
+        <v>54</v>
+      </c>
+      <c r="D473" s="1">
+        <v>3659.2968799999999</v>
+      </c>
+      <c r="E473" s="1">
+        <v>67.546689999999998</v>
+      </c>
+      <c r="F473" s="1">
+        <v>27.01426</v>
+      </c>
+      <c r="G473" s="1">
+        <v>135.26</v>
+      </c>
+      <c r="H473" s="1">
+        <v>0</v>
+      </c>
+      <c r="I473" s="1">
+        <v>30.28</v>
+      </c>
+      <c r="J473" s="1">
+        <v>0</v>
+      </c>
+      <c r="K473" s="1">
+        <v>268.36</v>
+      </c>
+      <c r="L473" s="1">
+        <v>61.74</v>
+      </c>
+      <c r="M473" s="1">
+        <v>13.87</v>
+      </c>
+      <c r="N473" s="1">
+        <v>574.45001000000002</v>
+      </c>
+      <c r="O473" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P473" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>43</v>
+      </c>
+      <c r="B474" t="s">
+        <v>29</v>
+      </c>
+      <c r="C474">
+        <v>54</v>
+      </c>
+      <c r="D474" s="1">
+        <v>4099.0499</v>
+      </c>
+      <c r="E474" s="1">
+        <v>75.664060000000006</v>
+      </c>
+      <c r="F474" s="1">
+        <v>25.887599999999999</v>
+      </c>
+      <c r="G474" s="1">
+        <v>137.52000000000001</v>
+      </c>
+      <c r="H474" s="1">
+        <v>4.93</v>
+      </c>
+      <c r="I474" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="J474" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K474" s="1">
+        <v>328.94997999999998</v>
+      </c>
+      <c r="L474" s="1">
+        <v>208.28</v>
+      </c>
+      <c r="M474" s="1">
+        <v>13.07</v>
+      </c>
+      <c r="N474" s="1">
+        <v>730.24000999999998</v>
+      </c>
+      <c r="O474" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P474" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>30</v>
+      </c>
+      <c r="B475" t="s">
+        <v>15</v>
+      </c>
+      <c r="C475">
+        <v>68</v>
+      </c>
+      <c r="D475" s="1">
+        <v>4137.7515000000003</v>
+      </c>
+      <c r="E475" s="1">
+        <v>60.961950000000002</v>
+      </c>
+      <c r="F475" s="1">
+        <v>26.045500000000001</v>
+      </c>
+      <c r="G475" s="1">
+        <v>141.19</v>
+      </c>
+      <c r="H475" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="I475" s="1">
+        <v>42.69</v>
+      </c>
+      <c r="J475" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K475" s="1">
+        <v>260.27999999999997</v>
+      </c>
+      <c r="L475" s="1">
+        <v>136.75</v>
+      </c>
+      <c r="M475" s="1">
+        <v>10.15</v>
+      </c>
+      <c r="N475" s="1">
+        <v>708.56</v>
+      </c>
+      <c r="O475" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P475" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>32</v>
+      </c>
+      <c r="B476" t="s">
+        <v>19</v>
+      </c>
+      <c r="C476">
+        <v>54</v>
+      </c>
+      <c r="D476" s="1">
+        <v>4021.7503400000001</v>
+      </c>
+      <c r="E476" s="1">
+        <v>74.237189999999998</v>
+      </c>
+      <c r="F476" s="1">
+        <v>31.458629999999999</v>
+      </c>
+      <c r="G476" s="1">
+        <v>166.75</v>
+      </c>
+      <c r="H476" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="I476" s="1">
+        <v>58.85</v>
+      </c>
+      <c r="J476" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="K476" s="1">
+        <v>314.77999999999997</v>
+      </c>
+      <c r="L476" s="1">
+        <v>237.51</v>
+      </c>
+      <c r="M476" s="1">
+        <v>165.84</v>
+      </c>
+      <c r="N476" s="1">
+        <v>711.10001</v>
+      </c>
+      <c r="O476" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P476" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>46</v>
+      </c>
+      <c r="B477" t="s">
+        <v>19</v>
+      </c>
+      <c r="C477">
+        <v>54</v>
+      </c>
+      <c r="D477" s="1">
+        <v>3650.0264299999999</v>
+      </c>
+      <c r="E477" s="1">
+        <v>67.375569999999996</v>
+      </c>
+      <c r="F477" s="1">
+        <v>26.440950000000001</v>
+      </c>
+      <c r="G477" s="1">
+        <v>167.47</v>
+      </c>
+      <c r="H477" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I477" s="1">
+        <v>48.73</v>
+      </c>
+      <c r="J477" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="K477" s="1">
+        <v>259.81</v>
+      </c>
+      <c r="L477" s="1">
+        <v>116.45</v>
+      </c>
+      <c r="M477" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="N477" s="1">
+        <v>653.16002000000003</v>
+      </c>
+      <c r="O477" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P477" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>44</v>
+      </c>
+      <c r="B478" t="s">
+        <v>26</v>
+      </c>
+      <c r="C478">
+        <v>68</v>
+      </c>
+      <c r="D478" s="1">
+        <v>4089.9740000000002</v>
+      </c>
+      <c r="E478" s="1">
+        <v>60.258040000000001</v>
+      </c>
+      <c r="F478" s="1">
+        <v>26.798929999999999</v>
+      </c>
+      <c r="G478" s="1">
+        <v>174.94</v>
+      </c>
+      <c r="H478" s="1">
+        <v>0</v>
+      </c>
+      <c r="I478" s="1">
+        <v>51.26</v>
+      </c>
+      <c r="J478" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="K478" s="1">
+        <v>394.69</v>
+      </c>
+      <c r="L478" s="1">
+        <v>211.51</v>
+      </c>
+      <c r="M478" s="1">
+        <v>14.78</v>
+      </c>
+      <c r="N478" s="1">
+        <v>833.81</v>
+      </c>
+      <c r="O478" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P478" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>47</v>
+      </c>
+      <c r="B479" t="s">
+        <v>17</v>
+      </c>
+      <c r="C479">
+        <v>68</v>
+      </c>
+      <c r="D479" s="1">
+        <v>3854.5397899999998</v>
+      </c>
+      <c r="E479" s="1">
+        <v>56.789360000000002</v>
+      </c>
+      <c r="F479" s="1">
+        <v>26.45478</v>
+      </c>
+      <c r="G479" s="1">
+        <v>175.63</v>
+      </c>
+      <c r="H479" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="I479" s="1">
+        <v>45.18</v>
+      </c>
+      <c r="J479" s="1">
+        <v>0</v>
+      </c>
+      <c r="K479" s="1">
+        <v>260.56000999999998</v>
+      </c>
+      <c r="L479" s="1">
+        <v>134.75</v>
+      </c>
+      <c r="M479" s="1">
+        <v>12.51</v>
+      </c>
+      <c r="N479" s="1">
+        <v>655.91998999999998</v>
+      </c>
+      <c r="O479" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P479" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>31</v>
+      </c>
+      <c r="B480" t="s">
+        <v>19</v>
+      </c>
+      <c r="C480">
+        <v>54</v>
+      </c>
+      <c r="D480" s="1">
+        <v>3847.7670899999998</v>
+      </c>
+      <c r="E480" s="1">
+        <v>71.025649999999999</v>
+      </c>
+      <c r="F480" s="1">
+        <v>30.234839999999998</v>
+      </c>
+      <c r="G480" s="1">
+        <v>183.16</v>
+      </c>
+      <c r="H480" s="1">
+        <v>10.93</v>
+      </c>
+      <c r="I480" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="J480" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="K480" s="1">
+        <v>396.42998999999998</v>
+      </c>
+      <c r="L480" s="1">
+        <v>139.16999999999999</v>
+      </c>
+      <c r="M480" s="1">
+        <v>67.36</v>
+      </c>
+      <c r="N480" s="1">
+        <v>677.26999000000001</v>
+      </c>
+      <c r="O480" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P480" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>45</v>
+      </c>
+      <c r="B481" t="s">
+        <v>15</v>
+      </c>
+      <c r="C481">
+        <v>54</v>
+      </c>
+      <c r="D481" s="1">
+        <v>4580.6323899999998</v>
+      </c>
+      <c r="E481" s="1">
+        <v>84.553550000000001</v>
+      </c>
+      <c r="F481" s="1">
+        <v>26.740500000000001</v>
+      </c>
+      <c r="G481" s="1">
+        <v>186.4</v>
+      </c>
+      <c r="H481" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="I481" s="1">
+        <v>67.819999999999993</v>
+      </c>
+      <c r="J481" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="K481" s="1">
+        <v>392.03</v>
+      </c>
+      <c r="L481" s="1">
+        <v>280.93000999999998</v>
+      </c>
+      <c r="M481" s="1">
+        <v>37.44</v>
+      </c>
+      <c r="N481" s="1">
+        <v>872.92997000000003</v>
+      </c>
+      <c r="O481" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P481" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>20</v>
+      </c>
+      <c r="B482" t="s">
+        <v>21</v>
+      </c>
+      <c r="C482">
+        <v>54</v>
+      </c>
+      <c r="D482" s="1">
+        <v>4716.8524200000002</v>
+      </c>
+      <c r="E482" s="1">
+        <v>87.068029999999993</v>
+      </c>
+      <c r="F482" s="1">
+        <v>30.834289999999999</v>
+      </c>
+      <c r="G482" s="1">
+        <v>197.6</v>
+      </c>
+      <c r="H482" s="1">
+        <v>7.29</v>
+      </c>
+      <c r="I482" s="1">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="J482" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="K482" s="1">
+        <v>480.59001000000001</v>
+      </c>
+      <c r="L482" s="1">
+        <v>184.69</v>
+      </c>
+      <c r="M482" s="1">
+        <v>100.51</v>
+      </c>
+      <c r="N482" s="1">
+        <v>945.49998000000005</v>
+      </c>
+      <c r="O482" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P482" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>23</v>
+      </c>
+      <c r="B483" t="s">
+        <v>17</v>
+      </c>
+      <c r="C483">
+        <v>54</v>
+      </c>
+      <c r="D483" s="1">
+        <v>4097.1578099999997</v>
+      </c>
+      <c r="E483" s="1">
+        <v>75.629130000000004</v>
+      </c>
+      <c r="F483" s="1">
+        <v>28.450710000000001</v>
+      </c>
+      <c r="G483" s="1">
+        <v>201.24</v>
+      </c>
+      <c r="H483" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="I483" s="1">
+        <v>63.87</v>
+      </c>
+      <c r="J483" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="K483" s="1">
+        <v>354.77001999999999</v>
+      </c>
+      <c r="L483" s="1">
+        <v>238.01</v>
+      </c>
+      <c r="M483" s="1">
+        <v>105.48</v>
+      </c>
+      <c r="N483" s="1">
+        <v>827.08996999999999</v>
+      </c>
+      <c r="O483" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P483" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>38</v>
+      </c>
+      <c r="B484" t="s">
+        <v>29</v>
+      </c>
+      <c r="C484">
+        <v>54</v>
+      </c>
+      <c r="D484" s="1">
+        <v>4143.9860200000003</v>
+      </c>
+      <c r="E484" s="1">
+        <v>76.493530000000007</v>
+      </c>
+      <c r="F484" s="1">
+        <v>29.864879999999999</v>
+      </c>
+      <c r="G484" s="1">
+        <v>201.52</v>
+      </c>
+      <c r="H484" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="I484" s="1">
+        <v>62.71</v>
+      </c>
+      <c r="J484" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="K484" s="1">
+        <v>356.92</v>
+      </c>
+      <c r="L484" s="1">
+        <v>192.2</v>
+      </c>
+      <c r="M484" s="1">
+        <v>48.75</v>
+      </c>
+      <c r="N484" s="1">
+        <v>827.08997999999997</v>
+      </c>
+      <c r="O484" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P484" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>24</v>
+      </c>
+      <c r="B485" t="s">
+        <v>21</v>
+      </c>
+      <c r="C485">
+        <v>67</v>
+      </c>
+      <c r="D485" s="1">
+        <v>3612.29376</v>
+      </c>
+      <c r="E485" s="1">
+        <v>54.198090000000001</v>
+      </c>
+      <c r="F485" s="1">
+        <v>24.3871</v>
+      </c>
+      <c r="G485" s="1">
+        <v>203.81</v>
+      </c>
+      <c r="H485" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I485" s="1">
+        <v>44.73</v>
+      </c>
+      <c r="J485" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="K485" s="1">
+        <v>261.27999</v>
+      </c>
+      <c r="L485" s="1">
+        <v>86.45</v>
+      </c>
+      <c r="M485" s="1">
+        <v>0</v>
+      </c>
+      <c r="N485" s="1">
+        <v>538.90000999999995</v>
+      </c>
+      <c r="O485" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P485" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>25</v>
+      </c>
+      <c r="B486" t="s">
+        <v>26</v>
+      </c>
+      <c r="C486">
+        <v>54</v>
+      </c>
+      <c r="D486" s="1">
+        <v>4371.0172700000003</v>
+      </c>
+      <c r="E486" s="1">
+        <v>80.684280000000001</v>
+      </c>
+      <c r="F486" s="1">
+        <v>28.063130000000001</v>
+      </c>
+      <c r="G486" s="1">
+        <v>208.38</v>
+      </c>
+      <c r="H486" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="I486" s="1">
+        <v>57.16</v>
+      </c>
+      <c r="J486" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K486" s="1">
+        <v>412.00000999999997</v>
+      </c>
+      <c r="L486" s="1">
+        <v>179.53</v>
+      </c>
+      <c r="M486" s="1">
+        <v>96.14</v>
+      </c>
+      <c r="N486" s="1">
+        <v>852.17002000000002</v>
+      </c>
+      <c r="O486" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P486" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>33</v>
+      </c>
+      <c r="B487" t="s">
+        <v>29</v>
+      </c>
+      <c r="C487">
+        <v>54</v>
+      </c>
+      <c r="D487" s="1">
+        <v>4302.3143600000003</v>
+      </c>
+      <c r="E487" s="1">
+        <v>79.4161</v>
+      </c>
+      <c r="F487" s="1">
+        <v>27.777979999999999</v>
+      </c>
+      <c r="G487" s="1">
+        <v>213.08</v>
+      </c>
+      <c r="H487" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="I487" s="1">
+        <v>75.22</v>
+      </c>
+      <c r="J487" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="K487" s="1">
+        <v>412.99000999999998</v>
+      </c>
+      <c r="L487" s="1">
+        <v>188.62998999999999</v>
+      </c>
+      <c r="M487" s="1">
+        <v>46.83</v>
+      </c>
+      <c r="N487" s="1">
+        <v>940.55997000000002</v>
+      </c>
+      <c r="O487" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P487" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>48</v>
+      </c>
+      <c r="B488" t="s">
+        <v>26</v>
+      </c>
+      <c r="C488">
+        <v>54</v>
+      </c>
+      <c r="D488" s="1">
+        <v>4354.2467699999997</v>
+      </c>
+      <c r="E488" s="1">
+        <v>80.374719999999996</v>
+      </c>
+      <c r="F488" s="1">
+        <v>28.375229999999998</v>
+      </c>
+      <c r="G488" s="1">
+        <v>216.79001</v>
+      </c>
+      <c r="H488" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="I488" s="1">
+        <v>54.24</v>
+      </c>
+      <c r="J488" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="K488" s="1">
+        <v>384.26</v>
+      </c>
+      <c r="L488" s="1">
+        <v>283.58999999999997</v>
+      </c>
+      <c r="M488" s="1">
+        <v>63.33</v>
+      </c>
+      <c r="N488" s="1">
+        <v>864.57</v>
+      </c>
+      <c r="O488" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P488" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>16</v>
+      </c>
+      <c r="B489" t="s">
+        <v>17</v>
+      </c>
+      <c r="C489">
+        <v>54</v>
+      </c>
+      <c r="D489" s="1">
+        <v>4175.58716</v>
+      </c>
+      <c r="E489" s="1">
+        <v>77.076849999999993</v>
+      </c>
+      <c r="F489" s="1">
+        <v>29.56073</v>
+      </c>
+      <c r="G489" s="1">
+        <v>222.44</v>
+      </c>
+      <c r="H489" s="1">
+        <v>7.28</v>
+      </c>
+      <c r="I489" s="1">
+        <v>70.77</v>
+      </c>
+      <c r="J489" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="K489" s="1">
+        <v>436.93999000000002</v>
+      </c>
+      <c r="L489" s="1">
+        <v>242.99</v>
+      </c>
+      <c r="M489" s="1">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="N489" s="1">
+        <v>882.51002000000005</v>
+      </c>
+      <c r="O489" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P489" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>35</v>
+      </c>
+      <c r="B490" t="s">
+        <v>26</v>
+      </c>
+      <c r="C490">
+        <v>54</v>
+      </c>
+      <c r="D490" s="1">
+        <v>5123.1880499999997</v>
+      </c>
+      <c r="E490" s="1">
+        <v>94.568550000000002</v>
+      </c>
+      <c r="F490" s="1">
+        <v>31.70234</v>
+      </c>
+      <c r="G490" s="1">
+        <v>339.1</v>
+      </c>
+      <c r="H490" s="1">
+        <v>27.08</v>
+      </c>
+      <c r="I490" s="1">
+        <v>105.52</v>
+      </c>
+      <c r="J490" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="K490" s="1">
+        <v>591.13996999999995</v>
+      </c>
+      <c r="L490" s="1">
+        <v>538.14</v>
+      </c>
+      <c r="M490" s="1">
+        <v>275.26</v>
+      </c>
+      <c r="N490" s="1">
+        <v>1243.60995</v>
+      </c>
+      <c r="O490" s="2">
+        <v>46049</v>
+      </c>
+      <c r="P490" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -24484,16 +25534,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F47164-E915-2248-85CA-040F8DFCAD63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D111C0-5575-4E47-9945-84D29C6FD9B4}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
